--- a/kpi ca nhan/nam 2020/ketqua/bac si ngoai.xlsx
+++ b/kpi ca nhan/nam 2020/ketqua/bac si ngoai.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="450" windowWidth="27840" windowHeight="16230" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1080" yWindow="460" windowWidth="24520" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HD - ĐG - Nang luc NV" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HUỲNH HỮU DANH" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VƯƠNG KIẾN THANH" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TRẦN VŨ" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NGUYẼN THỊ KIỀU HẠNH" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MAI ĐỨC MẠNH" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="HD - ĐG - Nang luc NV" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="HUỲNH HỮU DANH" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="VƯƠNG KIẾN THANH" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TRẦN VŨ" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="NGUYẼN THỊ KIỀU HẠNH" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MAI ĐỨC MẠNH" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'HD - ĐG - Nang luc NV'!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1285,25 +1285,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="hair">
+      <left style="double">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
         <color theme="0" tint="-0.249977111117893"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.3499862666707358"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </right>
-      <top style="hair">
-        <color theme="0" tint="-0.3499862666707358"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
@@ -1312,52 +1303,6 @@
       <left/>
       <right/>
       <top style="hair">
-        <color theme="0" tint="-0.3499862666707358"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </right>
-      <top style="hair">
-        <color theme="0" tint="-0.3499862666707358"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.3499862666707358"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="hair">
-        <color theme="0" tint="-0.3499862666707358"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom/>
@@ -1376,6 +1321,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
@@ -1383,6 +1337,21 @@
         <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.3499862666707358"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1477,33 +1446,64 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color theme="0" tint="-0.249977111117893"/>
+      <left style="thin">
+        <color theme="0" tint="-0.3499862666707358"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="2" tint="-0.249977111117893"/>
       </right>
-      <top style="double">
-        <color theme="0" tint="-0.249977111117893"/>
+      <top style="hair">
+        <color theme="0" tint="-0.3499862666707358"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.3499862666707358"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.3499862666707358"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.3499862666707358"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="2" tint="-0.249977111117893"/>
       </right>
-      <top style="hair">
+      <top style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </top>
-      <bottom style="thin">
+      <bottom style="hair">
         <color theme="0" tint="-0.3499862666707358"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1909,6 +1909,132 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="7" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="7" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="7" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="7" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="7" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="7" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="66" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="7" borderId="67" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="7" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="7" borderId="69" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="75" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="11">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1936,15 +2062,6 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="11">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1972,9 +2089,6 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1993,108 +2107,6 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="66" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="7" borderId="67" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="7" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="7" borderId="69" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="7" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="7" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="7" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="7" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="7" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="7" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2121,18 +2133,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2142,12 +2142,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="19" fillId="7" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="166" fontId="19" fillId="7" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="19" fillId="7" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="166" fontId="19" fillId="7" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2178,7 +2178,7 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="99" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2188,7 +2188,7 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="11">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="11">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2198,26 +2198,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="99" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="79" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="29" fillId="7" borderId="97" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="9" fontId="29" fillId="7" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="69" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="93" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2242,7 +2242,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>4</col>
@@ -2260,26 +2260,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Picture 111" descr="LOGO"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="5143500" y="57150"/>
           <a:ext cx="2421031" cy="0"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+        <a:noFill/>
+        <a:ln w="9525">
           <a:noFill/>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
@@ -2307,26 +2307,26 @@
       <nvPicPr>
         <cNvPr id="3" name="Picture 113" descr="LOGO"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="5543550" y="38100"/>
           <a:ext cx="1419225" cy="0"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+        <a:noFill/>
+        <a:ln w="9525">
           <a:noFill/>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
@@ -2602,7 +2602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -2613,329 +2613,329 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
-    <col width="3.42578125" customWidth="1" style="9" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="4" min="2" max="2"/>
-    <col width="21.42578125" customWidth="1" style="9" min="3" max="3"/>
-    <col width="10.42578125" customWidth="1" style="5" min="4" max="4"/>
-    <col width="94.7109375" customWidth="1" style="9" min="5" max="5"/>
-    <col width="8.7109375" customWidth="1" style="9" min="6" max="257"/>
-    <col width="3.7109375" customWidth="1" style="9" min="258" max="258"/>
-    <col width="21.42578125" customWidth="1" style="9" min="259" max="259"/>
+    <col width="3.5" customWidth="1" style="9" min="1" max="1"/>
+    <col width="4.5" customWidth="1" style="4" min="2" max="2"/>
+    <col width="21.5" customWidth="1" style="9" min="3" max="3"/>
+    <col width="10.5" customWidth="1" style="5" min="4" max="4"/>
+    <col width="94.6640625" customWidth="1" style="9" min="5" max="5"/>
+    <col width="8.6640625" customWidth="1" style="9" min="6" max="257"/>
+    <col width="3.6640625" customWidth="1" style="9" min="258" max="258"/>
+    <col width="21.5" customWidth="1" style="9" min="259" max="259"/>
     <col width="12" customWidth="1" style="9" min="260" max="260"/>
-    <col width="67.7109375" customWidth="1" style="9" min="261" max="261"/>
-    <col width="8.7109375" customWidth="1" style="9" min="262" max="513"/>
-    <col width="3.7109375" customWidth="1" style="9" min="514" max="514"/>
-    <col width="21.42578125" customWidth="1" style="9" min="515" max="515"/>
+    <col width="67.6640625" customWidth="1" style="9" min="261" max="261"/>
+    <col width="8.6640625" customWidth="1" style="9" min="262" max="513"/>
+    <col width="3.6640625" customWidth="1" style="9" min="514" max="514"/>
+    <col width="21.5" customWidth="1" style="9" min="515" max="515"/>
     <col width="12" customWidth="1" style="9" min="516" max="516"/>
-    <col width="67.7109375" customWidth="1" style="9" min="517" max="517"/>
-    <col width="8.7109375" customWidth="1" style="9" min="518" max="769"/>
-    <col width="3.7109375" customWidth="1" style="9" min="770" max="770"/>
-    <col width="21.42578125" customWidth="1" style="9" min="771" max="771"/>
+    <col width="67.6640625" customWidth="1" style="9" min="517" max="517"/>
+    <col width="8.6640625" customWidth="1" style="9" min="518" max="769"/>
+    <col width="3.6640625" customWidth="1" style="9" min="770" max="770"/>
+    <col width="21.5" customWidth="1" style="9" min="771" max="771"/>
     <col width="12" customWidth="1" style="9" min="772" max="772"/>
-    <col width="67.7109375" customWidth="1" style="9" min="773" max="773"/>
-    <col width="8.7109375" customWidth="1" style="9" min="774" max="1025"/>
-    <col width="3.7109375" customWidth="1" style="9" min="1026" max="1026"/>
-    <col width="21.42578125" customWidth="1" style="9" min="1027" max="1027"/>
+    <col width="67.6640625" customWidth="1" style="9" min="773" max="773"/>
+    <col width="8.6640625" customWidth="1" style="9" min="774" max="1025"/>
+    <col width="3.6640625" customWidth="1" style="9" min="1026" max="1026"/>
+    <col width="21.5" customWidth="1" style="9" min="1027" max="1027"/>
     <col width="12" customWidth="1" style="9" min="1028" max="1028"/>
-    <col width="67.7109375" customWidth="1" style="9" min="1029" max="1029"/>
-    <col width="8.7109375" customWidth="1" style="9" min="1030" max="1281"/>
-    <col width="3.7109375" customWidth="1" style="9" min="1282" max="1282"/>
-    <col width="21.42578125" customWidth="1" style="9" min="1283" max="1283"/>
+    <col width="67.6640625" customWidth="1" style="9" min="1029" max="1029"/>
+    <col width="8.6640625" customWidth="1" style="9" min="1030" max="1281"/>
+    <col width="3.6640625" customWidth="1" style="9" min="1282" max="1282"/>
+    <col width="21.5" customWidth="1" style="9" min="1283" max="1283"/>
     <col width="12" customWidth="1" style="9" min="1284" max="1284"/>
-    <col width="67.7109375" customWidth="1" style="9" min="1285" max="1285"/>
-    <col width="8.7109375" customWidth="1" style="9" min="1286" max="1537"/>
-    <col width="3.7109375" customWidth="1" style="9" min="1538" max="1538"/>
-    <col width="21.42578125" customWidth="1" style="9" min="1539" max="1539"/>
+    <col width="67.6640625" customWidth="1" style="9" min="1285" max="1285"/>
+    <col width="8.6640625" customWidth="1" style="9" min="1286" max="1537"/>
+    <col width="3.6640625" customWidth="1" style="9" min="1538" max="1538"/>
+    <col width="21.5" customWidth="1" style="9" min="1539" max="1539"/>
     <col width="12" customWidth="1" style="9" min="1540" max="1540"/>
-    <col width="67.7109375" customWidth="1" style="9" min="1541" max="1541"/>
-    <col width="8.7109375" customWidth="1" style="9" min="1542" max="1793"/>
-    <col width="3.7109375" customWidth="1" style="9" min="1794" max="1794"/>
-    <col width="21.42578125" customWidth="1" style="9" min="1795" max="1795"/>
+    <col width="67.6640625" customWidth="1" style="9" min="1541" max="1541"/>
+    <col width="8.6640625" customWidth="1" style="9" min="1542" max="1793"/>
+    <col width="3.6640625" customWidth="1" style="9" min="1794" max="1794"/>
+    <col width="21.5" customWidth="1" style="9" min="1795" max="1795"/>
     <col width="12" customWidth="1" style="9" min="1796" max="1796"/>
-    <col width="67.7109375" customWidth="1" style="9" min="1797" max="1797"/>
-    <col width="8.7109375" customWidth="1" style="9" min="1798" max="2049"/>
-    <col width="3.7109375" customWidth="1" style="9" min="2050" max="2050"/>
-    <col width="21.42578125" customWidth="1" style="9" min="2051" max="2051"/>
+    <col width="67.6640625" customWidth="1" style="9" min="1797" max="1797"/>
+    <col width="8.6640625" customWidth="1" style="9" min="1798" max="2049"/>
+    <col width="3.6640625" customWidth="1" style="9" min="2050" max="2050"/>
+    <col width="21.5" customWidth="1" style="9" min="2051" max="2051"/>
     <col width="12" customWidth="1" style="9" min="2052" max="2052"/>
-    <col width="67.7109375" customWidth="1" style="9" min="2053" max="2053"/>
-    <col width="8.7109375" customWidth="1" style="9" min="2054" max="2305"/>
-    <col width="3.7109375" customWidth="1" style="9" min="2306" max="2306"/>
-    <col width="21.42578125" customWidth="1" style="9" min="2307" max="2307"/>
+    <col width="67.6640625" customWidth="1" style="9" min="2053" max="2053"/>
+    <col width="8.6640625" customWidth="1" style="9" min="2054" max="2305"/>
+    <col width="3.6640625" customWidth="1" style="9" min="2306" max="2306"/>
+    <col width="21.5" customWidth="1" style="9" min="2307" max="2307"/>
     <col width="12" customWidth="1" style="9" min="2308" max="2308"/>
-    <col width="67.7109375" customWidth="1" style="9" min="2309" max="2309"/>
-    <col width="8.7109375" customWidth="1" style="9" min="2310" max="2561"/>
-    <col width="3.7109375" customWidth="1" style="9" min="2562" max="2562"/>
-    <col width="21.42578125" customWidth="1" style="9" min="2563" max="2563"/>
+    <col width="67.6640625" customWidth="1" style="9" min="2309" max="2309"/>
+    <col width="8.6640625" customWidth="1" style="9" min="2310" max="2561"/>
+    <col width="3.6640625" customWidth="1" style="9" min="2562" max="2562"/>
+    <col width="21.5" customWidth="1" style="9" min="2563" max="2563"/>
     <col width="12" customWidth="1" style="9" min="2564" max="2564"/>
-    <col width="67.7109375" customWidth="1" style="9" min="2565" max="2565"/>
-    <col width="8.7109375" customWidth="1" style="9" min="2566" max="2817"/>
-    <col width="3.7109375" customWidth="1" style="9" min="2818" max="2818"/>
-    <col width="21.42578125" customWidth="1" style="9" min="2819" max="2819"/>
+    <col width="67.6640625" customWidth="1" style="9" min="2565" max="2565"/>
+    <col width="8.6640625" customWidth="1" style="9" min="2566" max="2817"/>
+    <col width="3.6640625" customWidth="1" style="9" min="2818" max="2818"/>
+    <col width="21.5" customWidth="1" style="9" min="2819" max="2819"/>
     <col width="12" customWidth="1" style="9" min="2820" max="2820"/>
-    <col width="67.7109375" customWidth="1" style="9" min="2821" max="2821"/>
-    <col width="8.7109375" customWidth="1" style="9" min="2822" max="3073"/>
-    <col width="3.7109375" customWidth="1" style="9" min="3074" max="3074"/>
-    <col width="21.42578125" customWidth="1" style="9" min="3075" max="3075"/>
+    <col width="67.6640625" customWidth="1" style="9" min="2821" max="2821"/>
+    <col width="8.6640625" customWidth="1" style="9" min="2822" max="3073"/>
+    <col width="3.6640625" customWidth="1" style="9" min="3074" max="3074"/>
+    <col width="21.5" customWidth="1" style="9" min="3075" max="3075"/>
     <col width="12" customWidth="1" style="9" min="3076" max="3076"/>
-    <col width="67.7109375" customWidth="1" style="9" min="3077" max="3077"/>
-    <col width="8.7109375" customWidth="1" style="9" min="3078" max="3329"/>
-    <col width="3.7109375" customWidth="1" style="9" min="3330" max="3330"/>
-    <col width="21.42578125" customWidth="1" style="9" min="3331" max="3331"/>
+    <col width="67.6640625" customWidth="1" style="9" min="3077" max="3077"/>
+    <col width="8.6640625" customWidth="1" style="9" min="3078" max="3329"/>
+    <col width="3.6640625" customWidth="1" style="9" min="3330" max="3330"/>
+    <col width="21.5" customWidth="1" style="9" min="3331" max="3331"/>
     <col width="12" customWidth="1" style="9" min="3332" max="3332"/>
-    <col width="67.7109375" customWidth="1" style="9" min="3333" max="3333"/>
-    <col width="8.7109375" customWidth="1" style="9" min="3334" max="3585"/>
-    <col width="3.7109375" customWidth="1" style="9" min="3586" max="3586"/>
-    <col width="21.42578125" customWidth="1" style="9" min="3587" max="3587"/>
+    <col width="67.6640625" customWidth="1" style="9" min="3333" max="3333"/>
+    <col width="8.6640625" customWidth="1" style="9" min="3334" max="3585"/>
+    <col width="3.6640625" customWidth="1" style="9" min="3586" max="3586"/>
+    <col width="21.5" customWidth="1" style="9" min="3587" max="3587"/>
     <col width="12" customWidth="1" style="9" min="3588" max="3588"/>
-    <col width="67.7109375" customWidth="1" style="9" min="3589" max="3589"/>
-    <col width="8.7109375" customWidth="1" style="9" min="3590" max="3841"/>
-    <col width="3.7109375" customWidth="1" style="9" min="3842" max="3842"/>
-    <col width="21.42578125" customWidth="1" style="9" min="3843" max="3843"/>
+    <col width="67.6640625" customWidth="1" style="9" min="3589" max="3589"/>
+    <col width="8.6640625" customWidth="1" style="9" min="3590" max="3841"/>
+    <col width="3.6640625" customWidth="1" style="9" min="3842" max="3842"/>
+    <col width="21.5" customWidth="1" style="9" min="3843" max="3843"/>
     <col width="12" customWidth="1" style="9" min="3844" max="3844"/>
-    <col width="67.7109375" customWidth="1" style="9" min="3845" max="3845"/>
-    <col width="8.7109375" customWidth="1" style="9" min="3846" max="4097"/>
-    <col width="3.7109375" customWidth="1" style="9" min="4098" max="4098"/>
-    <col width="21.42578125" customWidth="1" style="9" min="4099" max="4099"/>
+    <col width="67.6640625" customWidth="1" style="9" min="3845" max="3845"/>
+    <col width="8.6640625" customWidth="1" style="9" min="3846" max="4097"/>
+    <col width="3.6640625" customWidth="1" style="9" min="4098" max="4098"/>
+    <col width="21.5" customWidth="1" style="9" min="4099" max="4099"/>
     <col width="12" customWidth="1" style="9" min="4100" max="4100"/>
-    <col width="67.7109375" customWidth="1" style="9" min="4101" max="4101"/>
-    <col width="8.7109375" customWidth="1" style="9" min="4102" max="4353"/>
-    <col width="3.7109375" customWidth="1" style="9" min="4354" max="4354"/>
-    <col width="21.42578125" customWidth="1" style="9" min="4355" max="4355"/>
+    <col width="67.6640625" customWidth="1" style="9" min="4101" max="4101"/>
+    <col width="8.6640625" customWidth="1" style="9" min="4102" max="4353"/>
+    <col width="3.6640625" customWidth="1" style="9" min="4354" max="4354"/>
+    <col width="21.5" customWidth="1" style="9" min="4355" max="4355"/>
     <col width="12" customWidth="1" style="9" min="4356" max="4356"/>
-    <col width="67.7109375" customWidth="1" style="9" min="4357" max="4357"/>
-    <col width="8.7109375" customWidth="1" style="9" min="4358" max="4609"/>
-    <col width="3.7109375" customWidth="1" style="9" min="4610" max="4610"/>
-    <col width="21.42578125" customWidth="1" style="9" min="4611" max="4611"/>
+    <col width="67.6640625" customWidth="1" style="9" min="4357" max="4357"/>
+    <col width="8.6640625" customWidth="1" style="9" min="4358" max="4609"/>
+    <col width="3.6640625" customWidth="1" style="9" min="4610" max="4610"/>
+    <col width="21.5" customWidth="1" style="9" min="4611" max="4611"/>
     <col width="12" customWidth="1" style="9" min="4612" max="4612"/>
-    <col width="67.7109375" customWidth="1" style="9" min="4613" max="4613"/>
-    <col width="8.7109375" customWidth="1" style="9" min="4614" max="4865"/>
-    <col width="3.7109375" customWidth="1" style="9" min="4866" max="4866"/>
-    <col width="21.42578125" customWidth="1" style="9" min="4867" max="4867"/>
+    <col width="67.6640625" customWidth="1" style="9" min="4613" max="4613"/>
+    <col width="8.6640625" customWidth="1" style="9" min="4614" max="4865"/>
+    <col width="3.6640625" customWidth="1" style="9" min="4866" max="4866"/>
+    <col width="21.5" customWidth="1" style="9" min="4867" max="4867"/>
     <col width="12" customWidth="1" style="9" min="4868" max="4868"/>
-    <col width="67.7109375" customWidth="1" style="9" min="4869" max="4869"/>
-    <col width="8.7109375" customWidth="1" style="9" min="4870" max="5121"/>
-    <col width="3.7109375" customWidth="1" style="9" min="5122" max="5122"/>
-    <col width="21.42578125" customWidth="1" style="9" min="5123" max="5123"/>
+    <col width="67.6640625" customWidth="1" style="9" min="4869" max="4869"/>
+    <col width="8.6640625" customWidth="1" style="9" min="4870" max="5121"/>
+    <col width="3.6640625" customWidth="1" style="9" min="5122" max="5122"/>
+    <col width="21.5" customWidth="1" style="9" min="5123" max="5123"/>
     <col width="12" customWidth="1" style="9" min="5124" max="5124"/>
-    <col width="67.7109375" customWidth="1" style="9" min="5125" max="5125"/>
-    <col width="8.7109375" customWidth="1" style="9" min="5126" max="5377"/>
-    <col width="3.7109375" customWidth="1" style="9" min="5378" max="5378"/>
-    <col width="21.42578125" customWidth="1" style="9" min="5379" max="5379"/>
+    <col width="67.6640625" customWidth="1" style="9" min="5125" max="5125"/>
+    <col width="8.6640625" customWidth="1" style="9" min="5126" max="5377"/>
+    <col width="3.6640625" customWidth="1" style="9" min="5378" max="5378"/>
+    <col width="21.5" customWidth="1" style="9" min="5379" max="5379"/>
     <col width="12" customWidth="1" style="9" min="5380" max="5380"/>
-    <col width="67.7109375" customWidth="1" style="9" min="5381" max="5381"/>
-    <col width="8.7109375" customWidth="1" style="9" min="5382" max="5633"/>
-    <col width="3.7109375" customWidth="1" style="9" min="5634" max="5634"/>
-    <col width="21.42578125" customWidth="1" style="9" min="5635" max="5635"/>
+    <col width="67.6640625" customWidth="1" style="9" min="5381" max="5381"/>
+    <col width="8.6640625" customWidth="1" style="9" min="5382" max="5633"/>
+    <col width="3.6640625" customWidth="1" style="9" min="5634" max="5634"/>
+    <col width="21.5" customWidth="1" style="9" min="5635" max="5635"/>
     <col width="12" customWidth="1" style="9" min="5636" max="5636"/>
-    <col width="67.7109375" customWidth="1" style="9" min="5637" max="5637"/>
-    <col width="8.7109375" customWidth="1" style="9" min="5638" max="5889"/>
-    <col width="3.7109375" customWidth="1" style="9" min="5890" max="5890"/>
-    <col width="21.42578125" customWidth="1" style="9" min="5891" max="5891"/>
+    <col width="67.6640625" customWidth="1" style="9" min="5637" max="5637"/>
+    <col width="8.6640625" customWidth="1" style="9" min="5638" max="5889"/>
+    <col width="3.6640625" customWidth="1" style="9" min="5890" max="5890"/>
+    <col width="21.5" customWidth="1" style="9" min="5891" max="5891"/>
     <col width="12" customWidth="1" style="9" min="5892" max="5892"/>
-    <col width="67.7109375" customWidth="1" style="9" min="5893" max="5893"/>
-    <col width="8.7109375" customWidth="1" style="9" min="5894" max="6145"/>
-    <col width="3.7109375" customWidth="1" style="9" min="6146" max="6146"/>
-    <col width="21.42578125" customWidth="1" style="9" min="6147" max="6147"/>
+    <col width="67.6640625" customWidth="1" style="9" min="5893" max="5893"/>
+    <col width="8.6640625" customWidth="1" style="9" min="5894" max="6145"/>
+    <col width="3.6640625" customWidth="1" style="9" min="6146" max="6146"/>
+    <col width="21.5" customWidth="1" style="9" min="6147" max="6147"/>
     <col width="12" customWidth="1" style="9" min="6148" max="6148"/>
-    <col width="67.7109375" customWidth="1" style="9" min="6149" max="6149"/>
-    <col width="8.7109375" customWidth="1" style="9" min="6150" max="6401"/>
-    <col width="3.7109375" customWidth="1" style="9" min="6402" max="6402"/>
-    <col width="21.42578125" customWidth="1" style="9" min="6403" max="6403"/>
+    <col width="67.6640625" customWidth="1" style="9" min="6149" max="6149"/>
+    <col width="8.6640625" customWidth="1" style="9" min="6150" max="6401"/>
+    <col width="3.6640625" customWidth="1" style="9" min="6402" max="6402"/>
+    <col width="21.5" customWidth="1" style="9" min="6403" max="6403"/>
     <col width="12" customWidth="1" style="9" min="6404" max="6404"/>
-    <col width="67.7109375" customWidth="1" style="9" min="6405" max="6405"/>
-    <col width="8.7109375" customWidth="1" style="9" min="6406" max="6657"/>
-    <col width="3.7109375" customWidth="1" style="9" min="6658" max="6658"/>
-    <col width="21.42578125" customWidth="1" style="9" min="6659" max="6659"/>
+    <col width="67.6640625" customWidth="1" style="9" min="6405" max="6405"/>
+    <col width="8.6640625" customWidth="1" style="9" min="6406" max="6657"/>
+    <col width="3.6640625" customWidth="1" style="9" min="6658" max="6658"/>
+    <col width="21.5" customWidth="1" style="9" min="6659" max="6659"/>
     <col width="12" customWidth="1" style="9" min="6660" max="6660"/>
-    <col width="67.7109375" customWidth="1" style="9" min="6661" max="6661"/>
-    <col width="8.7109375" customWidth="1" style="9" min="6662" max="6913"/>
-    <col width="3.7109375" customWidth="1" style="9" min="6914" max="6914"/>
-    <col width="21.42578125" customWidth="1" style="9" min="6915" max="6915"/>
+    <col width="67.6640625" customWidth="1" style="9" min="6661" max="6661"/>
+    <col width="8.6640625" customWidth="1" style="9" min="6662" max="6913"/>
+    <col width="3.6640625" customWidth="1" style="9" min="6914" max="6914"/>
+    <col width="21.5" customWidth="1" style="9" min="6915" max="6915"/>
     <col width="12" customWidth="1" style="9" min="6916" max="6916"/>
-    <col width="67.7109375" customWidth="1" style="9" min="6917" max="6917"/>
-    <col width="8.7109375" customWidth="1" style="9" min="6918" max="7169"/>
-    <col width="3.7109375" customWidth="1" style="9" min="7170" max="7170"/>
-    <col width="21.42578125" customWidth="1" style="9" min="7171" max="7171"/>
+    <col width="67.6640625" customWidth="1" style="9" min="6917" max="6917"/>
+    <col width="8.6640625" customWidth="1" style="9" min="6918" max="7169"/>
+    <col width="3.6640625" customWidth="1" style="9" min="7170" max="7170"/>
+    <col width="21.5" customWidth="1" style="9" min="7171" max="7171"/>
     <col width="12" customWidth="1" style="9" min="7172" max="7172"/>
-    <col width="67.7109375" customWidth="1" style="9" min="7173" max="7173"/>
-    <col width="8.7109375" customWidth="1" style="9" min="7174" max="7425"/>
-    <col width="3.7109375" customWidth="1" style="9" min="7426" max="7426"/>
-    <col width="21.42578125" customWidth="1" style="9" min="7427" max="7427"/>
+    <col width="67.6640625" customWidth="1" style="9" min="7173" max="7173"/>
+    <col width="8.6640625" customWidth="1" style="9" min="7174" max="7425"/>
+    <col width="3.6640625" customWidth="1" style="9" min="7426" max="7426"/>
+    <col width="21.5" customWidth="1" style="9" min="7427" max="7427"/>
     <col width="12" customWidth="1" style="9" min="7428" max="7428"/>
-    <col width="67.7109375" customWidth="1" style="9" min="7429" max="7429"/>
-    <col width="8.7109375" customWidth="1" style="9" min="7430" max="7681"/>
-    <col width="3.7109375" customWidth="1" style="9" min="7682" max="7682"/>
-    <col width="21.42578125" customWidth="1" style="9" min="7683" max="7683"/>
+    <col width="67.6640625" customWidth="1" style="9" min="7429" max="7429"/>
+    <col width="8.6640625" customWidth="1" style="9" min="7430" max="7681"/>
+    <col width="3.6640625" customWidth="1" style="9" min="7682" max="7682"/>
+    <col width="21.5" customWidth="1" style="9" min="7683" max="7683"/>
     <col width="12" customWidth="1" style="9" min="7684" max="7684"/>
-    <col width="67.7109375" customWidth="1" style="9" min="7685" max="7685"/>
-    <col width="8.7109375" customWidth="1" style="9" min="7686" max="7937"/>
-    <col width="3.7109375" customWidth="1" style="9" min="7938" max="7938"/>
-    <col width="21.42578125" customWidth="1" style="9" min="7939" max="7939"/>
+    <col width="67.6640625" customWidth="1" style="9" min="7685" max="7685"/>
+    <col width="8.6640625" customWidth="1" style="9" min="7686" max="7937"/>
+    <col width="3.6640625" customWidth="1" style="9" min="7938" max="7938"/>
+    <col width="21.5" customWidth="1" style="9" min="7939" max="7939"/>
     <col width="12" customWidth="1" style="9" min="7940" max="7940"/>
-    <col width="67.7109375" customWidth="1" style="9" min="7941" max="7941"/>
-    <col width="8.7109375" customWidth="1" style="9" min="7942" max="8193"/>
-    <col width="3.7109375" customWidth="1" style="9" min="8194" max="8194"/>
-    <col width="21.42578125" customWidth="1" style="9" min="8195" max="8195"/>
+    <col width="67.6640625" customWidth="1" style="9" min="7941" max="7941"/>
+    <col width="8.6640625" customWidth="1" style="9" min="7942" max="8193"/>
+    <col width="3.6640625" customWidth="1" style="9" min="8194" max="8194"/>
+    <col width="21.5" customWidth="1" style="9" min="8195" max="8195"/>
     <col width="12" customWidth="1" style="9" min="8196" max="8196"/>
-    <col width="67.7109375" customWidth="1" style="9" min="8197" max="8197"/>
-    <col width="8.7109375" customWidth="1" style="9" min="8198" max="8449"/>
-    <col width="3.7109375" customWidth="1" style="9" min="8450" max="8450"/>
-    <col width="21.42578125" customWidth="1" style="9" min="8451" max="8451"/>
+    <col width="67.6640625" customWidth="1" style="9" min="8197" max="8197"/>
+    <col width="8.6640625" customWidth="1" style="9" min="8198" max="8449"/>
+    <col width="3.6640625" customWidth="1" style="9" min="8450" max="8450"/>
+    <col width="21.5" customWidth="1" style="9" min="8451" max="8451"/>
     <col width="12" customWidth="1" style="9" min="8452" max="8452"/>
-    <col width="67.7109375" customWidth="1" style="9" min="8453" max="8453"/>
-    <col width="8.7109375" customWidth="1" style="9" min="8454" max="8705"/>
-    <col width="3.7109375" customWidth="1" style="9" min="8706" max="8706"/>
-    <col width="21.42578125" customWidth="1" style="9" min="8707" max="8707"/>
+    <col width="67.6640625" customWidth="1" style="9" min="8453" max="8453"/>
+    <col width="8.6640625" customWidth="1" style="9" min="8454" max="8705"/>
+    <col width="3.6640625" customWidth="1" style="9" min="8706" max="8706"/>
+    <col width="21.5" customWidth="1" style="9" min="8707" max="8707"/>
     <col width="12" customWidth="1" style="9" min="8708" max="8708"/>
-    <col width="67.7109375" customWidth="1" style="9" min="8709" max="8709"/>
-    <col width="8.7109375" customWidth="1" style="9" min="8710" max="8961"/>
-    <col width="3.7109375" customWidth="1" style="9" min="8962" max="8962"/>
-    <col width="21.42578125" customWidth="1" style="9" min="8963" max="8963"/>
+    <col width="67.6640625" customWidth="1" style="9" min="8709" max="8709"/>
+    <col width="8.6640625" customWidth="1" style="9" min="8710" max="8961"/>
+    <col width="3.6640625" customWidth="1" style="9" min="8962" max="8962"/>
+    <col width="21.5" customWidth="1" style="9" min="8963" max="8963"/>
     <col width="12" customWidth="1" style="9" min="8964" max="8964"/>
-    <col width="67.7109375" customWidth="1" style="9" min="8965" max="8965"/>
-    <col width="8.7109375" customWidth="1" style="9" min="8966" max="9217"/>
-    <col width="3.7109375" customWidth="1" style="9" min="9218" max="9218"/>
-    <col width="21.42578125" customWidth="1" style="9" min="9219" max="9219"/>
+    <col width="67.6640625" customWidth="1" style="9" min="8965" max="8965"/>
+    <col width="8.6640625" customWidth="1" style="9" min="8966" max="9217"/>
+    <col width="3.6640625" customWidth="1" style="9" min="9218" max="9218"/>
+    <col width="21.5" customWidth="1" style="9" min="9219" max="9219"/>
     <col width="12" customWidth="1" style="9" min="9220" max="9220"/>
-    <col width="67.7109375" customWidth="1" style="9" min="9221" max="9221"/>
-    <col width="8.7109375" customWidth="1" style="9" min="9222" max="9473"/>
-    <col width="3.7109375" customWidth="1" style="9" min="9474" max="9474"/>
-    <col width="21.42578125" customWidth="1" style="9" min="9475" max="9475"/>
+    <col width="67.6640625" customWidth="1" style="9" min="9221" max="9221"/>
+    <col width="8.6640625" customWidth="1" style="9" min="9222" max="9473"/>
+    <col width="3.6640625" customWidth="1" style="9" min="9474" max="9474"/>
+    <col width="21.5" customWidth="1" style="9" min="9475" max="9475"/>
     <col width="12" customWidth="1" style="9" min="9476" max="9476"/>
-    <col width="67.7109375" customWidth="1" style="9" min="9477" max="9477"/>
-    <col width="8.7109375" customWidth="1" style="9" min="9478" max="9729"/>
-    <col width="3.7109375" customWidth="1" style="9" min="9730" max="9730"/>
-    <col width="21.42578125" customWidth="1" style="9" min="9731" max="9731"/>
+    <col width="67.6640625" customWidth="1" style="9" min="9477" max="9477"/>
+    <col width="8.6640625" customWidth="1" style="9" min="9478" max="9729"/>
+    <col width="3.6640625" customWidth="1" style="9" min="9730" max="9730"/>
+    <col width="21.5" customWidth="1" style="9" min="9731" max="9731"/>
     <col width="12" customWidth="1" style="9" min="9732" max="9732"/>
-    <col width="67.7109375" customWidth="1" style="9" min="9733" max="9733"/>
-    <col width="8.7109375" customWidth="1" style="9" min="9734" max="9985"/>
-    <col width="3.7109375" customWidth="1" style="9" min="9986" max="9986"/>
-    <col width="21.42578125" customWidth="1" style="9" min="9987" max="9987"/>
+    <col width="67.6640625" customWidth="1" style="9" min="9733" max="9733"/>
+    <col width="8.6640625" customWidth="1" style="9" min="9734" max="9985"/>
+    <col width="3.6640625" customWidth="1" style="9" min="9986" max="9986"/>
+    <col width="21.5" customWidth="1" style="9" min="9987" max="9987"/>
     <col width="12" customWidth="1" style="9" min="9988" max="9988"/>
-    <col width="67.7109375" customWidth="1" style="9" min="9989" max="9989"/>
-    <col width="8.7109375" customWidth="1" style="9" min="9990" max="10241"/>
-    <col width="3.7109375" customWidth="1" style="9" min="10242" max="10242"/>
-    <col width="21.42578125" customWidth="1" style="9" min="10243" max="10243"/>
+    <col width="67.6640625" customWidth="1" style="9" min="9989" max="9989"/>
+    <col width="8.6640625" customWidth="1" style="9" min="9990" max="10241"/>
+    <col width="3.6640625" customWidth="1" style="9" min="10242" max="10242"/>
+    <col width="21.5" customWidth="1" style="9" min="10243" max="10243"/>
     <col width="12" customWidth="1" style="9" min="10244" max="10244"/>
-    <col width="67.7109375" customWidth="1" style="9" min="10245" max="10245"/>
-    <col width="8.7109375" customWidth="1" style="9" min="10246" max="10497"/>
-    <col width="3.7109375" customWidth="1" style="9" min="10498" max="10498"/>
-    <col width="21.42578125" customWidth="1" style="9" min="10499" max="10499"/>
+    <col width="67.6640625" customWidth="1" style="9" min="10245" max="10245"/>
+    <col width="8.6640625" customWidth="1" style="9" min="10246" max="10497"/>
+    <col width="3.6640625" customWidth="1" style="9" min="10498" max="10498"/>
+    <col width="21.5" customWidth="1" style="9" min="10499" max="10499"/>
     <col width="12" customWidth="1" style="9" min="10500" max="10500"/>
-    <col width="67.7109375" customWidth="1" style="9" min="10501" max="10501"/>
-    <col width="8.7109375" customWidth="1" style="9" min="10502" max="10753"/>
-    <col width="3.7109375" customWidth="1" style="9" min="10754" max="10754"/>
-    <col width="21.42578125" customWidth="1" style="9" min="10755" max="10755"/>
+    <col width="67.6640625" customWidth="1" style="9" min="10501" max="10501"/>
+    <col width="8.6640625" customWidth="1" style="9" min="10502" max="10753"/>
+    <col width="3.6640625" customWidth="1" style="9" min="10754" max="10754"/>
+    <col width="21.5" customWidth="1" style="9" min="10755" max="10755"/>
     <col width="12" customWidth="1" style="9" min="10756" max="10756"/>
-    <col width="67.7109375" customWidth="1" style="9" min="10757" max="10757"/>
-    <col width="8.7109375" customWidth="1" style="9" min="10758" max="11009"/>
-    <col width="3.7109375" customWidth="1" style="9" min="11010" max="11010"/>
-    <col width="21.42578125" customWidth="1" style="9" min="11011" max="11011"/>
+    <col width="67.6640625" customWidth="1" style="9" min="10757" max="10757"/>
+    <col width="8.6640625" customWidth="1" style="9" min="10758" max="11009"/>
+    <col width="3.6640625" customWidth="1" style="9" min="11010" max="11010"/>
+    <col width="21.5" customWidth="1" style="9" min="11011" max="11011"/>
     <col width="12" customWidth="1" style="9" min="11012" max="11012"/>
-    <col width="67.7109375" customWidth="1" style="9" min="11013" max="11013"/>
-    <col width="8.7109375" customWidth="1" style="9" min="11014" max="11265"/>
-    <col width="3.7109375" customWidth="1" style="9" min="11266" max="11266"/>
-    <col width="21.42578125" customWidth="1" style="9" min="11267" max="11267"/>
+    <col width="67.6640625" customWidth="1" style="9" min="11013" max="11013"/>
+    <col width="8.6640625" customWidth="1" style="9" min="11014" max="11265"/>
+    <col width="3.6640625" customWidth="1" style="9" min="11266" max="11266"/>
+    <col width="21.5" customWidth="1" style="9" min="11267" max="11267"/>
     <col width="12" customWidth="1" style="9" min="11268" max="11268"/>
-    <col width="67.7109375" customWidth="1" style="9" min="11269" max="11269"/>
-    <col width="8.7109375" customWidth="1" style="9" min="11270" max="11521"/>
-    <col width="3.7109375" customWidth="1" style="9" min="11522" max="11522"/>
-    <col width="21.42578125" customWidth="1" style="9" min="11523" max="11523"/>
+    <col width="67.6640625" customWidth="1" style="9" min="11269" max="11269"/>
+    <col width="8.6640625" customWidth="1" style="9" min="11270" max="11521"/>
+    <col width="3.6640625" customWidth="1" style="9" min="11522" max="11522"/>
+    <col width="21.5" customWidth="1" style="9" min="11523" max="11523"/>
     <col width="12" customWidth="1" style="9" min="11524" max="11524"/>
-    <col width="67.7109375" customWidth="1" style="9" min="11525" max="11525"/>
-    <col width="8.7109375" customWidth="1" style="9" min="11526" max="11777"/>
-    <col width="3.7109375" customWidth="1" style="9" min="11778" max="11778"/>
-    <col width="21.42578125" customWidth="1" style="9" min="11779" max="11779"/>
+    <col width="67.6640625" customWidth="1" style="9" min="11525" max="11525"/>
+    <col width="8.6640625" customWidth="1" style="9" min="11526" max="11777"/>
+    <col width="3.6640625" customWidth="1" style="9" min="11778" max="11778"/>
+    <col width="21.5" customWidth="1" style="9" min="11779" max="11779"/>
     <col width="12" customWidth="1" style="9" min="11780" max="11780"/>
-    <col width="67.7109375" customWidth="1" style="9" min="11781" max="11781"/>
-    <col width="8.7109375" customWidth="1" style="9" min="11782" max="12033"/>
-    <col width="3.7109375" customWidth="1" style="9" min="12034" max="12034"/>
-    <col width="21.42578125" customWidth="1" style="9" min="12035" max="12035"/>
+    <col width="67.6640625" customWidth="1" style="9" min="11781" max="11781"/>
+    <col width="8.6640625" customWidth="1" style="9" min="11782" max="12033"/>
+    <col width="3.6640625" customWidth="1" style="9" min="12034" max="12034"/>
+    <col width="21.5" customWidth="1" style="9" min="12035" max="12035"/>
     <col width="12" customWidth="1" style="9" min="12036" max="12036"/>
-    <col width="67.7109375" customWidth="1" style="9" min="12037" max="12037"/>
-    <col width="8.7109375" customWidth="1" style="9" min="12038" max="12289"/>
-    <col width="3.7109375" customWidth="1" style="9" min="12290" max="12290"/>
-    <col width="21.42578125" customWidth="1" style="9" min="12291" max="12291"/>
+    <col width="67.6640625" customWidth="1" style="9" min="12037" max="12037"/>
+    <col width="8.6640625" customWidth="1" style="9" min="12038" max="12289"/>
+    <col width="3.6640625" customWidth="1" style="9" min="12290" max="12290"/>
+    <col width="21.5" customWidth="1" style="9" min="12291" max="12291"/>
     <col width="12" customWidth="1" style="9" min="12292" max="12292"/>
-    <col width="67.7109375" customWidth="1" style="9" min="12293" max="12293"/>
-    <col width="8.7109375" customWidth="1" style="9" min="12294" max="12545"/>
-    <col width="3.7109375" customWidth="1" style="9" min="12546" max="12546"/>
-    <col width="21.42578125" customWidth="1" style="9" min="12547" max="12547"/>
+    <col width="67.6640625" customWidth="1" style="9" min="12293" max="12293"/>
+    <col width="8.6640625" customWidth="1" style="9" min="12294" max="12545"/>
+    <col width="3.6640625" customWidth="1" style="9" min="12546" max="12546"/>
+    <col width="21.5" customWidth="1" style="9" min="12547" max="12547"/>
     <col width="12" customWidth="1" style="9" min="12548" max="12548"/>
-    <col width="67.7109375" customWidth="1" style="9" min="12549" max="12549"/>
-    <col width="8.7109375" customWidth="1" style="9" min="12550" max="12801"/>
-    <col width="3.7109375" customWidth="1" style="9" min="12802" max="12802"/>
-    <col width="21.42578125" customWidth="1" style="9" min="12803" max="12803"/>
+    <col width="67.6640625" customWidth="1" style="9" min="12549" max="12549"/>
+    <col width="8.6640625" customWidth="1" style="9" min="12550" max="12801"/>
+    <col width="3.6640625" customWidth="1" style="9" min="12802" max="12802"/>
+    <col width="21.5" customWidth="1" style="9" min="12803" max="12803"/>
     <col width="12" customWidth="1" style="9" min="12804" max="12804"/>
-    <col width="67.7109375" customWidth="1" style="9" min="12805" max="12805"/>
-    <col width="8.7109375" customWidth="1" style="9" min="12806" max="13057"/>
-    <col width="3.7109375" customWidth="1" style="9" min="13058" max="13058"/>
-    <col width="21.42578125" customWidth="1" style="9" min="13059" max="13059"/>
+    <col width="67.6640625" customWidth="1" style="9" min="12805" max="12805"/>
+    <col width="8.6640625" customWidth="1" style="9" min="12806" max="13057"/>
+    <col width="3.6640625" customWidth="1" style="9" min="13058" max="13058"/>
+    <col width="21.5" customWidth="1" style="9" min="13059" max="13059"/>
     <col width="12" customWidth="1" style="9" min="13060" max="13060"/>
-    <col width="67.7109375" customWidth="1" style="9" min="13061" max="13061"/>
-    <col width="8.7109375" customWidth="1" style="9" min="13062" max="13313"/>
-    <col width="3.7109375" customWidth="1" style="9" min="13314" max="13314"/>
-    <col width="21.42578125" customWidth="1" style="9" min="13315" max="13315"/>
+    <col width="67.6640625" customWidth="1" style="9" min="13061" max="13061"/>
+    <col width="8.6640625" customWidth="1" style="9" min="13062" max="13313"/>
+    <col width="3.6640625" customWidth="1" style="9" min="13314" max="13314"/>
+    <col width="21.5" customWidth="1" style="9" min="13315" max="13315"/>
     <col width="12" customWidth="1" style="9" min="13316" max="13316"/>
-    <col width="67.7109375" customWidth="1" style="9" min="13317" max="13317"/>
-    <col width="8.7109375" customWidth="1" style="9" min="13318" max="13569"/>
-    <col width="3.7109375" customWidth="1" style="9" min="13570" max="13570"/>
-    <col width="21.42578125" customWidth="1" style="9" min="13571" max="13571"/>
+    <col width="67.6640625" customWidth="1" style="9" min="13317" max="13317"/>
+    <col width="8.6640625" customWidth="1" style="9" min="13318" max="13569"/>
+    <col width="3.6640625" customWidth="1" style="9" min="13570" max="13570"/>
+    <col width="21.5" customWidth="1" style="9" min="13571" max="13571"/>
     <col width="12" customWidth="1" style="9" min="13572" max="13572"/>
-    <col width="67.7109375" customWidth="1" style="9" min="13573" max="13573"/>
-    <col width="8.7109375" customWidth="1" style="9" min="13574" max="13825"/>
-    <col width="3.7109375" customWidth="1" style="9" min="13826" max="13826"/>
-    <col width="21.42578125" customWidth="1" style="9" min="13827" max="13827"/>
+    <col width="67.6640625" customWidth="1" style="9" min="13573" max="13573"/>
+    <col width="8.6640625" customWidth="1" style="9" min="13574" max="13825"/>
+    <col width="3.6640625" customWidth="1" style="9" min="13826" max="13826"/>
+    <col width="21.5" customWidth="1" style="9" min="13827" max="13827"/>
     <col width="12" customWidth="1" style="9" min="13828" max="13828"/>
-    <col width="67.7109375" customWidth="1" style="9" min="13829" max="13829"/>
-    <col width="8.7109375" customWidth="1" style="9" min="13830" max="14081"/>
-    <col width="3.7109375" customWidth="1" style="9" min="14082" max="14082"/>
-    <col width="21.42578125" customWidth="1" style="9" min="14083" max="14083"/>
+    <col width="67.6640625" customWidth="1" style="9" min="13829" max="13829"/>
+    <col width="8.6640625" customWidth="1" style="9" min="13830" max="14081"/>
+    <col width="3.6640625" customWidth="1" style="9" min="14082" max="14082"/>
+    <col width="21.5" customWidth="1" style="9" min="14083" max="14083"/>
     <col width="12" customWidth="1" style="9" min="14084" max="14084"/>
-    <col width="67.7109375" customWidth="1" style="9" min="14085" max="14085"/>
-    <col width="8.7109375" customWidth="1" style="9" min="14086" max="14337"/>
-    <col width="3.7109375" customWidth="1" style="9" min="14338" max="14338"/>
-    <col width="21.42578125" customWidth="1" style="9" min="14339" max="14339"/>
+    <col width="67.6640625" customWidth="1" style="9" min="14085" max="14085"/>
+    <col width="8.6640625" customWidth="1" style="9" min="14086" max="14337"/>
+    <col width="3.6640625" customWidth="1" style="9" min="14338" max="14338"/>
+    <col width="21.5" customWidth="1" style="9" min="14339" max="14339"/>
     <col width="12" customWidth="1" style="9" min="14340" max="14340"/>
-    <col width="67.7109375" customWidth="1" style="9" min="14341" max="14341"/>
-    <col width="8.7109375" customWidth="1" style="9" min="14342" max="14593"/>
-    <col width="3.7109375" customWidth="1" style="9" min="14594" max="14594"/>
-    <col width="21.42578125" customWidth="1" style="9" min="14595" max="14595"/>
+    <col width="67.6640625" customWidth="1" style="9" min="14341" max="14341"/>
+    <col width="8.6640625" customWidth="1" style="9" min="14342" max="14593"/>
+    <col width="3.6640625" customWidth="1" style="9" min="14594" max="14594"/>
+    <col width="21.5" customWidth="1" style="9" min="14595" max="14595"/>
     <col width="12" customWidth="1" style="9" min="14596" max="14596"/>
-    <col width="67.7109375" customWidth="1" style="9" min="14597" max="14597"/>
-    <col width="8.7109375" customWidth="1" style="9" min="14598" max="14849"/>
-    <col width="3.7109375" customWidth="1" style="9" min="14850" max="14850"/>
-    <col width="21.42578125" customWidth="1" style="9" min="14851" max="14851"/>
+    <col width="67.6640625" customWidth="1" style="9" min="14597" max="14597"/>
+    <col width="8.6640625" customWidth="1" style="9" min="14598" max="14849"/>
+    <col width="3.6640625" customWidth="1" style="9" min="14850" max="14850"/>
+    <col width="21.5" customWidth="1" style="9" min="14851" max="14851"/>
     <col width="12" customWidth="1" style="9" min="14852" max="14852"/>
-    <col width="67.7109375" customWidth="1" style="9" min="14853" max="14853"/>
-    <col width="8.7109375" customWidth="1" style="9" min="14854" max="15105"/>
-    <col width="3.7109375" customWidth="1" style="9" min="15106" max="15106"/>
-    <col width="21.42578125" customWidth="1" style="9" min="15107" max="15107"/>
+    <col width="67.6640625" customWidth="1" style="9" min="14853" max="14853"/>
+    <col width="8.6640625" customWidth="1" style="9" min="14854" max="15105"/>
+    <col width="3.6640625" customWidth="1" style="9" min="15106" max="15106"/>
+    <col width="21.5" customWidth="1" style="9" min="15107" max="15107"/>
     <col width="12" customWidth="1" style="9" min="15108" max="15108"/>
-    <col width="67.7109375" customWidth="1" style="9" min="15109" max="15109"/>
-    <col width="8.7109375" customWidth="1" style="9" min="15110" max="15361"/>
-    <col width="3.7109375" customWidth="1" style="9" min="15362" max="15362"/>
-    <col width="21.42578125" customWidth="1" style="9" min="15363" max="15363"/>
+    <col width="67.6640625" customWidth="1" style="9" min="15109" max="15109"/>
+    <col width="8.6640625" customWidth="1" style="9" min="15110" max="15361"/>
+    <col width="3.6640625" customWidth="1" style="9" min="15362" max="15362"/>
+    <col width="21.5" customWidth="1" style="9" min="15363" max="15363"/>
     <col width="12" customWidth="1" style="9" min="15364" max="15364"/>
-    <col width="67.7109375" customWidth="1" style="9" min="15365" max="15365"/>
-    <col width="8.7109375" customWidth="1" style="9" min="15366" max="15617"/>
-    <col width="3.7109375" customWidth="1" style="9" min="15618" max="15618"/>
-    <col width="21.42578125" customWidth="1" style="9" min="15619" max="15619"/>
+    <col width="67.6640625" customWidth="1" style="9" min="15365" max="15365"/>
+    <col width="8.6640625" customWidth="1" style="9" min="15366" max="15617"/>
+    <col width="3.6640625" customWidth="1" style="9" min="15618" max="15618"/>
+    <col width="21.5" customWidth="1" style="9" min="15619" max="15619"/>
     <col width="12" customWidth="1" style="9" min="15620" max="15620"/>
-    <col width="67.7109375" customWidth="1" style="9" min="15621" max="15621"/>
-    <col width="8.7109375" customWidth="1" style="9" min="15622" max="15873"/>
-    <col width="3.7109375" customWidth="1" style="9" min="15874" max="15874"/>
-    <col width="21.42578125" customWidth="1" style="9" min="15875" max="15875"/>
+    <col width="67.6640625" customWidth="1" style="9" min="15621" max="15621"/>
+    <col width="8.6640625" customWidth="1" style="9" min="15622" max="15873"/>
+    <col width="3.6640625" customWidth="1" style="9" min="15874" max="15874"/>
+    <col width="21.5" customWidth="1" style="9" min="15875" max="15875"/>
     <col width="12" customWidth="1" style="9" min="15876" max="15876"/>
-    <col width="67.7109375" customWidth="1" style="9" min="15877" max="15877"/>
-    <col width="8.7109375" customWidth="1" style="9" min="15878" max="16129"/>
-    <col width="3.7109375" customWidth="1" style="9" min="16130" max="16130"/>
-    <col width="21.42578125" customWidth="1" style="9" min="16131" max="16131"/>
+    <col width="67.6640625" customWidth="1" style="9" min="15877" max="15877"/>
+    <col width="8.6640625" customWidth="1" style="9" min="15878" max="16129"/>
+    <col width="3.6640625" customWidth="1" style="9" min="16130" max="16130"/>
+    <col width="21.5" customWidth="1" style="9" min="16131" max="16131"/>
     <col width="12" customWidth="1" style="9" min="16132" max="16132"/>
-    <col width="67.7109375" customWidth="1" style="9" min="16133" max="16133"/>
-    <col width="8.7109375" customWidth="1" style="9" min="16134" max="16384"/>
+    <col width="67.6640625" customWidth="1" style="9" min="16133" max="16133"/>
+    <col width="8.6640625" customWidth="1" style="9" min="16134" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customFormat="1" customHeight="1" s="2">
@@ -2988,7 +2988,7 @@
       </c>
     </row>
     <row r="5" ht="19.5" customFormat="1" customHeight="1" s="8">
-      <c r="B5" s="192" t="n">
+      <c r="B5" s="196" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="205" t="inlineStr">
@@ -2997,7 +2997,7 @@
 Xem xét mức độ kiến thức, năng suất, chất lượng giải quyết công việc, tinh thần trách nhiệm được thể hiện qua một quá trình làm việc</t>
         </is>
       </c>
-      <c r="D5" s="193" t="inlineStr">
+      <c r="D5" s="197" t="inlineStr">
         <is>
           <t>1 điểm</t>
         </is>
@@ -3015,7 +3015,7 @@
     <row r="6" ht="76.5" customFormat="1" customHeight="1" s="8">
       <c r="B6" s="206" t="n"/>
       <c r="C6" s="206" t="n"/>
-      <c r="D6" s="193" t="inlineStr">
+      <c r="D6" s="197" t="inlineStr">
         <is>
           <t>2 điểm</t>
         </is>
@@ -3033,7 +3033,7 @@
     <row r="7" ht="84.75" customFormat="1" customHeight="1" s="8">
       <c r="B7" s="206" t="n"/>
       <c r="C7" s="206" t="n"/>
-      <c r="D7" s="193" t="inlineStr">
+      <c r="D7" s="197" t="inlineStr">
         <is>
           <t>3 điểm</t>
         </is>
@@ -3052,7 +3052,7 @@
     <row r="8" ht="94.5" customFormat="1" customHeight="1" s="8">
       <c r="B8" s="206" t="n"/>
       <c r="C8" s="206" t="n"/>
-      <c r="D8" s="193" t="inlineStr">
+      <c r="D8" s="197" t="inlineStr">
         <is>
           <t>4 điểm</t>
         </is>
@@ -3071,7 +3071,7 @@
     <row r="9" ht="97.5" customFormat="1" customHeight="1" s="8">
       <c r="B9" s="207" t="n"/>
       <c r="C9" s="207" t="n"/>
-      <c r="D9" s="193" t="inlineStr">
+      <c r="D9" s="197" t="inlineStr">
         <is>
           <t>5 điểm</t>
         </is>
@@ -3095,7 +3095,7 @@
       <c r="E10" s="18" t="n"/>
     </row>
     <row r="11" ht="70.5" customFormat="1" customHeight="1" s="8">
-      <c r="B11" s="192" t="n">
+      <c r="B11" s="196" t="n">
         <v>2</v>
       </c>
       <c r="C11" s="205" t="inlineStr">
@@ -3104,7 +3104,7 @@
 Khả năng nhận định và phân tích vấn đề, khả năng đưa ra những cách thức giải quyết vấn đề sáng tạo và hiệu quả</t>
         </is>
       </c>
-      <c r="D11" s="193" t="inlineStr">
+      <c r="D11" s="197" t="inlineStr">
         <is>
           <t>1 điểm</t>
         </is>
@@ -3122,7 +3122,7 @@
     <row r="12" ht="89.25" customFormat="1" customHeight="1" s="8">
       <c r="B12" s="206" t="n"/>
       <c r="C12" s="206" t="n"/>
-      <c r="D12" s="193" t="inlineStr">
+      <c r="D12" s="197" t="inlineStr">
         <is>
           <t>2 điểm</t>
         </is>
@@ -3141,7 +3141,7 @@
     <row r="13" ht="87" customFormat="1" customHeight="1" s="8">
       <c r="B13" s="206" t="n"/>
       <c r="C13" s="206" t="n"/>
-      <c r="D13" s="193" t="inlineStr">
+      <c r="D13" s="197" t="inlineStr">
         <is>
           <t>3 điểm</t>
         </is>
@@ -3159,7 +3159,7 @@
     <row r="14" ht="70.5" customFormat="1" customHeight="1" s="8">
       <c r="B14" s="206" t="n"/>
       <c r="C14" s="206" t="n"/>
-      <c r="D14" s="193" t="inlineStr">
+      <c r="D14" s="197" t="inlineStr">
         <is>
           <t>4 điểm</t>
         </is>
@@ -3176,7 +3176,7 @@
     <row r="15" ht="87.75" customFormat="1" customHeight="1" s="8">
       <c r="B15" s="207" t="n"/>
       <c r="C15" s="207" t="n"/>
-      <c r="D15" s="193" t="inlineStr">
+      <c r="D15" s="197" t="inlineStr">
         <is>
           <t>5 điểm</t>
         </is>
@@ -3198,7 +3198,7 @@
       <c r="E16" s="18" t="n"/>
     </row>
     <row r="17" ht="60" customFormat="1" customHeight="1" s="8">
-      <c r="B17" s="192" t="n">
+      <c r="B17" s="196" t="n">
         <v>3</v>
       </c>
       <c r="C17" s="205" t="inlineStr">
@@ -3207,7 +3207,7 @@
 Nhận diện và đáp ứng nhu cầu hiện tại và tương lai của khách hàng, cung cấp các dịch vụ có chất lượng tốt nhất cho khách hàng nội bộ và khách hàng bên ngoài</t>
         </is>
       </c>
-      <c r="D17" s="193" t="inlineStr">
+      <c r="D17" s="197" t="inlineStr">
         <is>
           <t>1 điểm</t>
         </is>
@@ -3224,7 +3224,7 @@
     <row r="18" ht="89.25" customFormat="1" customHeight="1" s="8">
       <c r="B18" s="206" t="n"/>
       <c r="C18" s="206" t="n"/>
-      <c r="D18" s="193" t="inlineStr">
+      <c r="D18" s="197" t="inlineStr">
         <is>
           <t>2 điểm</t>
         </is>
@@ -3243,7 +3243,7 @@
     <row r="19" ht="87" customFormat="1" customHeight="1" s="8">
       <c r="B19" s="206" t="n"/>
       <c r="C19" s="206" t="n"/>
-      <c r="D19" s="193" t="inlineStr">
+      <c r="D19" s="197" t="inlineStr">
         <is>
           <t>3 điểm</t>
         </is>
@@ -3261,7 +3261,7 @@
     <row r="20" ht="73.5" customFormat="1" customHeight="1" s="8">
       <c r="B20" s="206" t="n"/>
       <c r="C20" s="206" t="n"/>
-      <c r="D20" s="193" t="inlineStr">
+      <c r="D20" s="197" t="inlineStr">
         <is>
           <t>4 điểm</t>
         </is>
@@ -3279,7 +3279,7 @@
     <row r="21" ht="69.75" customFormat="1" customHeight="1" s="8">
       <c r="B21" s="207" t="n"/>
       <c r="C21" s="207" t="n"/>
-      <c r="D21" s="193" t="inlineStr">
+      <c r="D21" s="197" t="inlineStr">
         <is>
           <t>5 điểm</t>
         </is>
@@ -3301,16 +3301,16 @@
       <c r="E22" s="18" t="n"/>
     </row>
     <row r="23" ht="57.75" customFormat="1" customHeight="1" s="8">
-      <c r="B23" s="192" t="n">
+      <c r="B23" s="196" t="n">
         <v>4</v>
       </c>
-      <c r="C23" s="193" t="inlineStr">
+      <c r="C23" s="197" t="inlineStr">
         <is>
           <t>Làm việc nhóm
 Cộng tác với đồng nghiệp để đạt được các mục tiêu chung</t>
         </is>
       </c>
-      <c r="D23" s="193" t="inlineStr">
+      <c r="D23" s="197" t="inlineStr">
         <is>
           <t>1 điểm</t>
         </is>
@@ -3327,7 +3327,7 @@
     <row r="24" ht="68.25" customFormat="1" customHeight="1" s="8">
       <c r="B24" s="206" t="n"/>
       <c r="C24" s="206" t="n"/>
-      <c r="D24" s="193" t="inlineStr">
+      <c r="D24" s="197" t="inlineStr">
         <is>
           <t>2 điểm</t>
         </is>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="77.25" customFormat="1" customHeight="1" s="8">
+    <row r="25" ht="84" customFormat="1" customHeight="1" s="8">
       <c r="B25" s="206" t="n"/>
       <c r="C25" s="206" t="n"/>
-      <c r="D25" s="193" t="inlineStr">
+      <c r="D25" s="197" t="inlineStr">
         <is>
           <t>3 điểm</t>
         </is>
@@ -3364,7 +3364,7 @@
     <row r="26" ht="122.25" customFormat="1" customHeight="1" s="8">
       <c r="B26" s="206" t="n"/>
       <c r="C26" s="206" t="n"/>
-      <c r="D26" s="193" t="inlineStr">
+      <c r="D26" s="197" t="inlineStr">
         <is>
           <t>4 điểm</t>
         </is>
@@ -3386,7 +3386,7 @@
     <row r="27" ht="108" customFormat="1" customHeight="1" s="8">
       <c r="B27" s="207" t="n"/>
       <c r="C27" s="207" t="n"/>
-      <c r="D27" s="193" t="inlineStr">
+      <c r="D27" s="197" t="inlineStr">
         <is>
           <t>5 điểm</t>
         </is>
@@ -3410,15 +3410,15 @@
       <c r="E28" s="18" t="n"/>
     </row>
     <row r="29" ht="27.75" customFormat="1" customHeight="1" s="8">
-      <c r="B29" s="192" t="n">
+      <c r="B29" s="196" t="n">
         <v>5</v>
       </c>
-      <c r="C29" s="193" t="inlineStr">
+      <c r="C29" s="197" t="inlineStr">
         <is>
           <t>Tính tuân thủ</t>
         </is>
       </c>
-      <c r="D29" s="193" t="inlineStr">
+      <c r="D29" s="197" t="inlineStr">
         <is>
           <t>1 điểm</t>
         </is>
@@ -3432,7 +3432,7 @@
     <row r="30" ht="27.75" customFormat="1" customHeight="1" s="8">
       <c r="B30" s="206" t="n"/>
       <c r="C30" s="206" t="n"/>
-      <c r="D30" s="193" t="inlineStr">
+      <c r="D30" s="197" t="inlineStr">
         <is>
           <t>2 điểm</t>
         </is>
@@ -3446,7 +3446,7 @@
     <row r="31" ht="27.75" customFormat="1" customHeight="1" s="8">
       <c r="B31" s="206" t="n"/>
       <c r="C31" s="206" t="n"/>
-      <c r="D31" s="193" t="inlineStr">
+      <c r="D31" s="197" t="inlineStr">
         <is>
           <t>3 điểm</t>
         </is>
@@ -3460,7 +3460,7 @@
     <row r="32" ht="27.75" customFormat="1" customHeight="1" s="8">
       <c r="B32" s="206" t="n"/>
       <c r="C32" s="206" t="n"/>
-      <c r="D32" s="193" t="inlineStr">
+      <c r="D32" s="197" t="inlineStr">
         <is>
           <t>4 điểm</t>
         </is>
@@ -3474,7 +3474,7 @@
     <row r="33" ht="27.75" customFormat="1" customHeight="1" s="8">
       <c r="B33" s="207" t="n"/>
       <c r="C33" s="207" t="n"/>
-      <c r="D33" s="193" t="inlineStr">
+      <c r="D33" s="197" t="inlineStr">
         <is>
           <t>5 điểm</t>
         </is>
@@ -3500,7 +3500,7 @@
   </mergeCells>
   <pageMargins left="0.32" right="0.17" top="0.29" bottom="0.33" header="0.24" footer="0.3"/>
   <pageSetup orientation="portrait" scale="77" fitToHeight="0"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3516,647 +3516,647 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col hidden="1" width="1.140625" customWidth="1" style="32" min="1" max="1"/>
-    <col width="3.42578125" customWidth="1" style="32" min="2" max="2"/>
+    <col hidden="1" width="1.1640625" customWidth="1" style="32" min="1" max="1"/>
+    <col width="3.5" customWidth="1" style="32" min="2" max="2"/>
     <col width="53" customWidth="1" style="32" min="3" max="3"/>
-    <col width="8.42578125" customWidth="1" style="32" min="4" max="4"/>
-    <col width="10.5703125" customWidth="1" style="32" min="5" max="5"/>
-    <col width="31.42578125" customWidth="1" style="33" min="6" max="6"/>
-    <col width="9.140625" customWidth="1" style="32" min="7" max="7"/>
-    <col width="11.140625" customWidth="1" style="32" min="8" max="8"/>
-    <col width="9.7109375" customWidth="1" style="32" min="9" max="9"/>
-    <col width="10.140625" customWidth="1" style="32" min="10" max="11"/>
-    <col width="16.5703125" customWidth="1" style="33" min="12" max="12"/>
-    <col width="11.28515625" customWidth="1" style="32" min="13" max="13"/>
-    <col width="6.7109375" customWidth="1" style="32" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15" max="233"/>
+    <col width="8.5" customWidth="1" style="32" min="4" max="4"/>
+    <col width="10.5" customWidth="1" style="32" min="5" max="5"/>
+    <col width="31.5" customWidth="1" style="33" min="6" max="6"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7" max="7"/>
+    <col width="11.1640625" customWidth="1" style="32" min="8" max="8"/>
+    <col width="9.6640625" customWidth="1" style="32" min="9" max="9"/>
+    <col width="10.1640625" customWidth="1" style="32" min="10" max="11"/>
+    <col width="16.5" customWidth="1" style="33" min="12" max="12"/>
+    <col width="11.33203125" customWidth="1" style="32" min="13" max="13"/>
+    <col width="6.6640625" customWidth="1" style="32" min="14" max="14"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15" max="233"/>
     <col width="5" customWidth="1" style="32" min="234" max="234"/>
-    <col width="33.28515625" customWidth="1" style="32" min="235" max="235"/>
-    <col width="6.42578125" customWidth="1" style="32" min="236" max="236"/>
-    <col width="29.42578125" customWidth="1" style="32" min="237" max="237"/>
-    <col width="23.7109375" customWidth="1" style="32" min="238" max="238"/>
+    <col width="33.33203125" customWidth="1" style="32" min="235" max="235"/>
+    <col width="6.5" customWidth="1" style="32" min="236" max="236"/>
+    <col width="29.5" customWidth="1" style="32" min="237" max="237"/>
+    <col width="23.6640625" customWidth="1" style="32" min="238" max="238"/>
     <col width="8" customWidth="1" style="32" min="239" max="239"/>
-    <col width="9.140625" customWidth="1" style="32" min="240" max="240"/>
-    <col width="13.7109375" customWidth="1" style="32" min="241" max="241"/>
-    <col width="13.42578125" customWidth="1" style="32" min="242" max="242"/>
-    <col width="8.7109375" customWidth="1" style="32" min="243" max="489"/>
+    <col width="9.1640625" customWidth="1" style="32" min="240" max="240"/>
+    <col width="13.6640625" customWidth="1" style="32" min="241" max="241"/>
+    <col width="13.5" customWidth="1" style="32" min="242" max="242"/>
+    <col width="8.6640625" customWidth="1" style="32" min="243" max="489"/>
     <col width="5" customWidth="1" style="32" min="490" max="490"/>
-    <col width="33.28515625" customWidth="1" style="32" min="491" max="491"/>
-    <col width="6.42578125" customWidth="1" style="32" min="492" max="492"/>
-    <col width="29.42578125" customWidth="1" style="32" min="493" max="493"/>
-    <col width="23.7109375" customWidth="1" style="32" min="494" max="494"/>
+    <col width="33.33203125" customWidth="1" style="32" min="491" max="491"/>
+    <col width="6.5" customWidth="1" style="32" min="492" max="492"/>
+    <col width="29.5" customWidth="1" style="32" min="493" max="493"/>
+    <col width="23.6640625" customWidth="1" style="32" min="494" max="494"/>
     <col width="8" customWidth="1" style="32" min="495" max="495"/>
-    <col width="9.140625" customWidth="1" style="32" min="496" max="496"/>
-    <col width="13.7109375" customWidth="1" style="32" min="497" max="497"/>
-    <col width="13.42578125" customWidth="1" style="32" min="498" max="498"/>
-    <col width="8.7109375" customWidth="1" style="32" min="499" max="745"/>
+    <col width="9.1640625" customWidth="1" style="32" min="496" max="496"/>
+    <col width="13.6640625" customWidth="1" style="32" min="497" max="497"/>
+    <col width="13.5" customWidth="1" style="32" min="498" max="498"/>
+    <col width="8.6640625" customWidth="1" style="32" min="499" max="745"/>
     <col width="5" customWidth="1" style="32" min="746" max="746"/>
-    <col width="33.28515625" customWidth="1" style="32" min="747" max="747"/>
-    <col width="6.42578125" customWidth="1" style="32" min="748" max="748"/>
-    <col width="29.42578125" customWidth="1" style="32" min="749" max="749"/>
-    <col width="23.7109375" customWidth="1" style="32" min="750" max="750"/>
+    <col width="33.33203125" customWidth="1" style="32" min="747" max="747"/>
+    <col width="6.5" customWidth="1" style="32" min="748" max="748"/>
+    <col width="29.5" customWidth="1" style="32" min="749" max="749"/>
+    <col width="23.6640625" customWidth="1" style="32" min="750" max="750"/>
     <col width="8" customWidth="1" style="32" min="751" max="751"/>
-    <col width="9.140625" customWidth="1" style="32" min="752" max="752"/>
-    <col width="13.7109375" customWidth="1" style="32" min="753" max="753"/>
-    <col width="13.42578125" customWidth="1" style="32" min="754" max="754"/>
-    <col width="8.7109375" customWidth="1" style="32" min="755" max="1001"/>
+    <col width="9.1640625" customWidth="1" style="32" min="752" max="752"/>
+    <col width="13.6640625" customWidth="1" style="32" min="753" max="753"/>
+    <col width="13.5" customWidth="1" style="32" min="754" max="754"/>
+    <col width="8.6640625" customWidth="1" style="32" min="755" max="1001"/>
     <col width="5" customWidth="1" style="32" min="1002" max="1002"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1003" max="1003"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1004" max="1004"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1005" max="1005"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1006" max="1006"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1003" max="1003"/>
+    <col width="6.5" customWidth="1" style="32" min="1004" max="1004"/>
+    <col width="29.5" customWidth="1" style="32" min="1005" max="1005"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1006" max="1006"/>
     <col width="8" customWidth="1" style="32" min="1007" max="1007"/>
-    <col width="9.140625" customWidth="1" style="32" min="1008" max="1008"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1009" max="1009"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1010" max="1010"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1011" max="1257"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1008" max="1008"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1009" max="1009"/>
+    <col width="13.5" customWidth="1" style="32" min="1010" max="1010"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1011" max="1257"/>
     <col width="5" customWidth="1" style="32" min="1258" max="1258"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1259" max="1259"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1260" max="1260"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1261" max="1261"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1262" max="1262"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1259" max="1259"/>
+    <col width="6.5" customWidth="1" style="32" min="1260" max="1260"/>
+    <col width="29.5" customWidth="1" style="32" min="1261" max="1261"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1262" max="1262"/>
     <col width="8" customWidth="1" style="32" min="1263" max="1263"/>
-    <col width="9.140625" customWidth="1" style="32" min="1264" max="1264"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1265" max="1265"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1266" max="1266"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1267" max="1513"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1264" max="1264"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1265" max="1265"/>
+    <col width="13.5" customWidth="1" style="32" min="1266" max="1266"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1267" max="1513"/>
     <col width="5" customWidth="1" style="32" min="1514" max="1514"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1515" max="1515"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1516" max="1516"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1517" max="1517"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1518" max="1518"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1515" max="1515"/>
+    <col width="6.5" customWidth="1" style="32" min="1516" max="1516"/>
+    <col width="29.5" customWidth="1" style="32" min="1517" max="1517"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1518" max="1518"/>
     <col width="8" customWidth="1" style="32" min="1519" max="1519"/>
-    <col width="9.140625" customWidth="1" style="32" min="1520" max="1520"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1521" max="1521"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1522" max="1522"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1523" max="1769"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1520" max="1520"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1521" max="1521"/>
+    <col width="13.5" customWidth="1" style="32" min="1522" max="1522"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1523" max="1769"/>
     <col width="5" customWidth="1" style="32" min="1770" max="1770"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1771" max="1771"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1772" max="1772"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1773" max="1773"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1774" max="1774"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1771" max="1771"/>
+    <col width="6.5" customWidth="1" style="32" min="1772" max="1772"/>
+    <col width="29.5" customWidth="1" style="32" min="1773" max="1773"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1774" max="1774"/>
     <col width="8" customWidth="1" style="32" min="1775" max="1775"/>
-    <col width="9.140625" customWidth="1" style="32" min="1776" max="1776"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1777" max="1777"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1778" max="1778"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1779" max="2025"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1776" max="1776"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1777" max="1777"/>
+    <col width="13.5" customWidth="1" style="32" min="1778" max="1778"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1779" max="2025"/>
     <col width="5" customWidth="1" style="32" min="2026" max="2026"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2027" max="2027"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2028" max="2028"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2029" max="2029"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2030" max="2030"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2027" max="2027"/>
+    <col width="6.5" customWidth="1" style="32" min="2028" max="2028"/>
+    <col width="29.5" customWidth="1" style="32" min="2029" max="2029"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2030" max="2030"/>
     <col width="8" customWidth="1" style="32" min="2031" max="2031"/>
-    <col width="9.140625" customWidth="1" style="32" min="2032" max="2032"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2033" max="2033"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2034" max="2034"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2035" max="2281"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2032" max="2032"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2033" max="2033"/>
+    <col width="13.5" customWidth="1" style="32" min="2034" max="2034"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2035" max="2281"/>
     <col width="5" customWidth="1" style="32" min="2282" max="2282"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2283" max="2283"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2284" max="2284"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2285" max="2285"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2286" max="2286"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2283" max="2283"/>
+    <col width="6.5" customWidth="1" style="32" min="2284" max="2284"/>
+    <col width="29.5" customWidth="1" style="32" min="2285" max="2285"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2286" max="2286"/>
     <col width="8" customWidth="1" style="32" min="2287" max="2287"/>
-    <col width="9.140625" customWidth="1" style="32" min="2288" max="2288"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2289" max="2289"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2290" max="2290"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2291" max="2537"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2288" max="2288"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2289" max="2289"/>
+    <col width="13.5" customWidth="1" style="32" min="2290" max="2290"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2291" max="2537"/>
     <col width="5" customWidth="1" style="32" min="2538" max="2538"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2539" max="2539"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2540" max="2540"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2541" max="2541"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2542" max="2542"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2539" max="2539"/>
+    <col width="6.5" customWidth="1" style="32" min="2540" max="2540"/>
+    <col width="29.5" customWidth="1" style="32" min="2541" max="2541"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2542" max="2542"/>
     <col width="8" customWidth="1" style="32" min="2543" max="2543"/>
-    <col width="9.140625" customWidth="1" style="32" min="2544" max="2544"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2545" max="2545"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2546" max="2546"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2547" max="2793"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2544" max="2544"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2545" max="2545"/>
+    <col width="13.5" customWidth="1" style="32" min="2546" max="2546"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2547" max="2793"/>
     <col width="5" customWidth="1" style="32" min="2794" max="2794"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2795" max="2795"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2796" max="2796"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2797" max="2797"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2798" max="2798"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2795" max="2795"/>
+    <col width="6.5" customWidth="1" style="32" min="2796" max="2796"/>
+    <col width="29.5" customWidth="1" style="32" min="2797" max="2797"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2798" max="2798"/>
     <col width="8" customWidth="1" style="32" min="2799" max="2799"/>
-    <col width="9.140625" customWidth="1" style="32" min="2800" max="2800"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2801" max="2801"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2802" max="2802"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2803" max="3049"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2800" max="2800"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2801" max="2801"/>
+    <col width="13.5" customWidth="1" style="32" min="2802" max="2802"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2803" max="3049"/>
     <col width="5" customWidth="1" style="32" min="3050" max="3050"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3051" max="3051"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3052" max="3052"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3053" max="3053"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3054" max="3054"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3051" max="3051"/>
+    <col width="6.5" customWidth="1" style="32" min="3052" max="3052"/>
+    <col width="29.5" customWidth="1" style="32" min="3053" max="3053"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3054" max="3054"/>
     <col width="8" customWidth="1" style="32" min="3055" max="3055"/>
-    <col width="9.140625" customWidth="1" style="32" min="3056" max="3056"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3057" max="3057"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3058" max="3058"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3059" max="3305"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3056" max="3056"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3057" max="3057"/>
+    <col width="13.5" customWidth="1" style="32" min="3058" max="3058"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3059" max="3305"/>
     <col width="5" customWidth="1" style="32" min="3306" max="3306"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3307" max="3307"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3308" max="3308"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3309" max="3309"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3310" max="3310"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3307" max="3307"/>
+    <col width="6.5" customWidth="1" style="32" min="3308" max="3308"/>
+    <col width="29.5" customWidth="1" style="32" min="3309" max="3309"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3310" max="3310"/>
     <col width="8" customWidth="1" style="32" min="3311" max="3311"/>
-    <col width="9.140625" customWidth="1" style="32" min="3312" max="3312"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3313" max="3313"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3314" max="3314"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3315" max="3561"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3312" max="3312"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3313" max="3313"/>
+    <col width="13.5" customWidth="1" style="32" min="3314" max="3314"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3315" max="3561"/>
     <col width="5" customWidth="1" style="32" min="3562" max="3562"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3563" max="3563"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3564" max="3564"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3565" max="3565"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3566" max="3566"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3563" max="3563"/>
+    <col width="6.5" customWidth="1" style="32" min="3564" max="3564"/>
+    <col width="29.5" customWidth="1" style="32" min="3565" max="3565"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3566" max="3566"/>
     <col width="8" customWidth="1" style="32" min="3567" max="3567"/>
-    <col width="9.140625" customWidth="1" style="32" min="3568" max="3568"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3569" max="3569"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3570" max="3570"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3571" max="3817"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3568" max="3568"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3569" max="3569"/>
+    <col width="13.5" customWidth="1" style="32" min="3570" max="3570"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3571" max="3817"/>
     <col width="5" customWidth="1" style="32" min="3818" max="3818"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3819" max="3819"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3820" max="3820"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3821" max="3821"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3822" max="3822"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3819" max="3819"/>
+    <col width="6.5" customWidth="1" style="32" min="3820" max="3820"/>
+    <col width="29.5" customWidth="1" style="32" min="3821" max="3821"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3822" max="3822"/>
     <col width="8" customWidth="1" style="32" min="3823" max="3823"/>
-    <col width="9.140625" customWidth="1" style="32" min="3824" max="3824"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3825" max="3825"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3826" max="3826"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3827" max="4073"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3824" max="3824"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3825" max="3825"/>
+    <col width="13.5" customWidth="1" style="32" min="3826" max="3826"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3827" max="4073"/>
     <col width="5" customWidth="1" style="32" min="4074" max="4074"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4075" max="4075"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4076" max="4076"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4077" max="4077"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4078" max="4078"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4075" max="4075"/>
+    <col width="6.5" customWidth="1" style="32" min="4076" max="4076"/>
+    <col width="29.5" customWidth="1" style="32" min="4077" max="4077"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4078" max="4078"/>
     <col width="8" customWidth="1" style="32" min="4079" max="4079"/>
-    <col width="9.140625" customWidth="1" style="32" min="4080" max="4080"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4081" max="4081"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4082" max="4082"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4083" max="4329"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4080" max="4080"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4081" max="4081"/>
+    <col width="13.5" customWidth="1" style="32" min="4082" max="4082"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4083" max="4329"/>
     <col width="5" customWidth="1" style="32" min="4330" max="4330"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4331" max="4331"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4332" max="4332"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4333" max="4333"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4334" max="4334"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4331" max="4331"/>
+    <col width="6.5" customWidth="1" style="32" min="4332" max="4332"/>
+    <col width="29.5" customWidth="1" style="32" min="4333" max="4333"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4334" max="4334"/>
     <col width="8" customWidth="1" style="32" min="4335" max="4335"/>
-    <col width="9.140625" customWidth="1" style="32" min="4336" max="4336"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4337" max="4337"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4338" max="4338"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4339" max="4585"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4336" max="4336"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4337" max="4337"/>
+    <col width="13.5" customWidth="1" style="32" min="4338" max="4338"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4339" max="4585"/>
     <col width="5" customWidth="1" style="32" min="4586" max="4586"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4587" max="4587"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4588" max="4588"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4589" max="4589"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4590" max="4590"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4587" max="4587"/>
+    <col width="6.5" customWidth="1" style="32" min="4588" max="4588"/>
+    <col width="29.5" customWidth="1" style="32" min="4589" max="4589"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4590" max="4590"/>
     <col width="8" customWidth="1" style="32" min="4591" max="4591"/>
-    <col width="9.140625" customWidth="1" style="32" min="4592" max="4592"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4593" max="4593"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4594" max="4594"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4595" max="4841"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4592" max="4592"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4593" max="4593"/>
+    <col width="13.5" customWidth="1" style="32" min="4594" max="4594"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4595" max="4841"/>
     <col width="5" customWidth="1" style="32" min="4842" max="4842"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4843" max="4843"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4844" max="4844"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4845" max="4845"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4846" max="4846"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4843" max="4843"/>
+    <col width="6.5" customWidth="1" style="32" min="4844" max="4844"/>
+    <col width="29.5" customWidth="1" style="32" min="4845" max="4845"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4846" max="4846"/>
     <col width="8" customWidth="1" style="32" min="4847" max="4847"/>
-    <col width="9.140625" customWidth="1" style="32" min="4848" max="4848"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4849" max="4849"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4850" max="4850"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4851" max="5097"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4848" max="4848"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4849" max="4849"/>
+    <col width="13.5" customWidth="1" style="32" min="4850" max="4850"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4851" max="5097"/>
     <col width="5" customWidth="1" style="32" min="5098" max="5098"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5099" max="5099"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5100" max="5100"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5101" max="5101"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5102" max="5102"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5099" max="5099"/>
+    <col width="6.5" customWidth="1" style="32" min="5100" max="5100"/>
+    <col width="29.5" customWidth="1" style="32" min="5101" max="5101"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5102" max="5102"/>
     <col width="8" customWidth="1" style="32" min="5103" max="5103"/>
-    <col width="9.140625" customWidth="1" style="32" min="5104" max="5104"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5105" max="5105"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5106" max="5106"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5107" max="5353"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5104" max="5104"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5105" max="5105"/>
+    <col width="13.5" customWidth="1" style="32" min="5106" max="5106"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5107" max="5353"/>
     <col width="5" customWidth="1" style="32" min="5354" max="5354"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5355" max="5355"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5356" max="5356"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5357" max="5357"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5358" max="5358"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5355" max="5355"/>
+    <col width="6.5" customWidth="1" style="32" min="5356" max="5356"/>
+    <col width="29.5" customWidth="1" style="32" min="5357" max="5357"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5358" max="5358"/>
     <col width="8" customWidth="1" style="32" min="5359" max="5359"/>
-    <col width="9.140625" customWidth="1" style="32" min="5360" max="5360"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5361" max="5361"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5362" max="5362"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5363" max="5609"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5360" max="5360"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5361" max="5361"/>
+    <col width="13.5" customWidth="1" style="32" min="5362" max="5362"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5363" max="5609"/>
     <col width="5" customWidth="1" style="32" min="5610" max="5610"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5611" max="5611"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5612" max="5612"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5613" max="5613"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5614" max="5614"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5611" max="5611"/>
+    <col width="6.5" customWidth="1" style="32" min="5612" max="5612"/>
+    <col width="29.5" customWidth="1" style="32" min="5613" max="5613"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5614" max="5614"/>
     <col width="8" customWidth="1" style="32" min="5615" max="5615"/>
-    <col width="9.140625" customWidth="1" style="32" min="5616" max="5616"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5617" max="5617"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5618" max="5618"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5619" max="5865"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5616" max="5616"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5617" max="5617"/>
+    <col width="13.5" customWidth="1" style="32" min="5618" max="5618"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5619" max="5865"/>
     <col width="5" customWidth="1" style="32" min="5866" max="5866"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5867" max="5867"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5868" max="5868"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5869" max="5869"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5870" max="5870"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5867" max="5867"/>
+    <col width="6.5" customWidth="1" style="32" min="5868" max="5868"/>
+    <col width="29.5" customWidth="1" style="32" min="5869" max="5869"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5870" max="5870"/>
     <col width="8" customWidth="1" style="32" min="5871" max="5871"/>
-    <col width="9.140625" customWidth="1" style="32" min="5872" max="5872"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5873" max="5873"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5874" max="5874"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5875" max="6121"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5872" max="5872"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5873" max="5873"/>
+    <col width="13.5" customWidth="1" style="32" min="5874" max="5874"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5875" max="6121"/>
     <col width="5" customWidth="1" style="32" min="6122" max="6122"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6123" max="6123"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6124" max="6124"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6125" max="6125"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6126" max="6126"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6123" max="6123"/>
+    <col width="6.5" customWidth="1" style="32" min="6124" max="6124"/>
+    <col width="29.5" customWidth="1" style="32" min="6125" max="6125"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6126" max="6126"/>
     <col width="8" customWidth="1" style="32" min="6127" max="6127"/>
-    <col width="9.140625" customWidth="1" style="32" min="6128" max="6128"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6129" max="6129"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6130" max="6130"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6131" max="6377"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6128" max="6128"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6129" max="6129"/>
+    <col width="13.5" customWidth="1" style="32" min="6130" max="6130"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6131" max="6377"/>
     <col width="5" customWidth="1" style="32" min="6378" max="6378"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6379" max="6379"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6380" max="6380"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6381" max="6381"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6382" max="6382"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6379" max="6379"/>
+    <col width="6.5" customWidth="1" style="32" min="6380" max="6380"/>
+    <col width="29.5" customWidth="1" style="32" min="6381" max="6381"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6382" max="6382"/>
     <col width="8" customWidth="1" style="32" min="6383" max="6383"/>
-    <col width="9.140625" customWidth="1" style="32" min="6384" max="6384"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6385" max="6385"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6386" max="6386"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6387" max="6633"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6384" max="6384"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6385" max="6385"/>
+    <col width="13.5" customWidth="1" style="32" min="6386" max="6386"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6387" max="6633"/>
     <col width="5" customWidth="1" style="32" min="6634" max="6634"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6635" max="6635"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6636" max="6636"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6637" max="6637"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6638" max="6638"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6635" max="6635"/>
+    <col width="6.5" customWidth="1" style="32" min="6636" max="6636"/>
+    <col width="29.5" customWidth="1" style="32" min="6637" max="6637"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6638" max="6638"/>
     <col width="8" customWidth="1" style="32" min="6639" max="6639"/>
-    <col width="9.140625" customWidth="1" style="32" min="6640" max="6640"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6641" max="6641"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6642" max="6642"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6643" max="6889"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6640" max="6640"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6641" max="6641"/>
+    <col width="13.5" customWidth="1" style="32" min="6642" max="6642"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6643" max="6889"/>
     <col width="5" customWidth="1" style="32" min="6890" max="6890"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6891" max="6891"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6892" max="6892"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6893" max="6893"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6894" max="6894"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6891" max="6891"/>
+    <col width="6.5" customWidth="1" style="32" min="6892" max="6892"/>
+    <col width="29.5" customWidth="1" style="32" min="6893" max="6893"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6894" max="6894"/>
     <col width="8" customWidth="1" style="32" min="6895" max="6895"/>
-    <col width="9.140625" customWidth="1" style="32" min="6896" max="6896"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6897" max="6897"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6898" max="6898"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6899" max="7145"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6896" max="6896"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6897" max="6897"/>
+    <col width="13.5" customWidth="1" style="32" min="6898" max="6898"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6899" max="7145"/>
     <col width="5" customWidth="1" style="32" min="7146" max="7146"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7147" max="7147"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7148" max="7148"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7149" max="7149"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7150" max="7150"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7147" max="7147"/>
+    <col width="6.5" customWidth="1" style="32" min="7148" max="7148"/>
+    <col width="29.5" customWidth="1" style="32" min="7149" max="7149"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7150" max="7150"/>
     <col width="8" customWidth="1" style="32" min="7151" max="7151"/>
-    <col width="9.140625" customWidth="1" style="32" min="7152" max="7152"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7153" max="7153"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7154" max="7154"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7155" max="7401"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7152" max="7152"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7153" max="7153"/>
+    <col width="13.5" customWidth="1" style="32" min="7154" max="7154"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7155" max="7401"/>
     <col width="5" customWidth="1" style="32" min="7402" max="7402"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7403" max="7403"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7404" max="7404"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7405" max="7405"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7406" max="7406"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7403" max="7403"/>
+    <col width="6.5" customWidth="1" style="32" min="7404" max="7404"/>
+    <col width="29.5" customWidth="1" style="32" min="7405" max="7405"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7406" max="7406"/>
     <col width="8" customWidth="1" style="32" min="7407" max="7407"/>
-    <col width="9.140625" customWidth="1" style="32" min="7408" max="7408"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7409" max="7409"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7410" max="7410"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7411" max="7657"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7408" max="7408"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7409" max="7409"/>
+    <col width="13.5" customWidth="1" style="32" min="7410" max="7410"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7411" max="7657"/>
     <col width="5" customWidth="1" style="32" min="7658" max="7658"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7659" max="7659"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7660" max="7660"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7661" max="7661"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7662" max="7662"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7659" max="7659"/>
+    <col width="6.5" customWidth="1" style="32" min="7660" max="7660"/>
+    <col width="29.5" customWidth="1" style="32" min="7661" max="7661"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7662" max="7662"/>
     <col width="8" customWidth="1" style="32" min="7663" max="7663"/>
-    <col width="9.140625" customWidth="1" style="32" min="7664" max="7664"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7665" max="7665"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7666" max="7666"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7667" max="7913"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7664" max="7664"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7665" max="7665"/>
+    <col width="13.5" customWidth="1" style="32" min="7666" max="7666"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7667" max="7913"/>
     <col width="5" customWidth="1" style="32" min="7914" max="7914"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7915" max="7915"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7916" max="7916"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7917" max="7917"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7918" max="7918"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7915" max="7915"/>
+    <col width="6.5" customWidth="1" style="32" min="7916" max="7916"/>
+    <col width="29.5" customWidth="1" style="32" min="7917" max="7917"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7918" max="7918"/>
     <col width="8" customWidth="1" style="32" min="7919" max="7919"/>
-    <col width="9.140625" customWidth="1" style="32" min="7920" max="7920"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7921" max="7921"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7922" max="7922"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7923" max="8169"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7920" max="7920"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7921" max="7921"/>
+    <col width="13.5" customWidth="1" style="32" min="7922" max="7922"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7923" max="8169"/>
     <col width="5" customWidth="1" style="32" min="8170" max="8170"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8171" max="8171"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8172" max="8172"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8173" max="8173"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8174" max="8174"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8171" max="8171"/>
+    <col width="6.5" customWidth="1" style="32" min="8172" max="8172"/>
+    <col width="29.5" customWidth="1" style="32" min="8173" max="8173"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8174" max="8174"/>
     <col width="8" customWidth="1" style="32" min="8175" max="8175"/>
-    <col width="9.140625" customWidth="1" style="32" min="8176" max="8176"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8177" max="8177"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8178" max="8178"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8179" max="8425"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8176" max="8176"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8177" max="8177"/>
+    <col width="13.5" customWidth="1" style="32" min="8178" max="8178"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8179" max="8425"/>
     <col width="5" customWidth="1" style="32" min="8426" max="8426"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8427" max="8427"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8428" max="8428"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8429" max="8429"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8430" max="8430"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8427" max="8427"/>
+    <col width="6.5" customWidth="1" style="32" min="8428" max="8428"/>
+    <col width="29.5" customWidth="1" style="32" min="8429" max="8429"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8430" max="8430"/>
     <col width="8" customWidth="1" style="32" min="8431" max="8431"/>
-    <col width="9.140625" customWidth="1" style="32" min="8432" max="8432"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8433" max="8433"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8434" max="8434"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8435" max="8681"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8432" max="8432"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8433" max="8433"/>
+    <col width="13.5" customWidth="1" style="32" min="8434" max="8434"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8435" max="8681"/>
     <col width="5" customWidth="1" style="32" min="8682" max="8682"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8683" max="8683"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8684" max="8684"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8685" max="8685"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8686" max="8686"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8683" max="8683"/>
+    <col width="6.5" customWidth="1" style="32" min="8684" max="8684"/>
+    <col width="29.5" customWidth="1" style="32" min="8685" max="8685"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8686" max="8686"/>
     <col width="8" customWidth="1" style="32" min="8687" max="8687"/>
-    <col width="9.140625" customWidth="1" style="32" min="8688" max="8688"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8689" max="8689"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8690" max="8690"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8691" max="8937"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8688" max="8688"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8689" max="8689"/>
+    <col width="13.5" customWidth="1" style="32" min="8690" max="8690"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8691" max="8937"/>
     <col width="5" customWidth="1" style="32" min="8938" max="8938"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8939" max="8939"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8940" max="8940"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8941" max="8941"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8942" max="8942"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8939" max="8939"/>
+    <col width="6.5" customWidth="1" style="32" min="8940" max="8940"/>
+    <col width="29.5" customWidth="1" style="32" min="8941" max="8941"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8942" max="8942"/>
     <col width="8" customWidth="1" style="32" min="8943" max="8943"/>
-    <col width="9.140625" customWidth="1" style="32" min="8944" max="8944"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8945" max="8945"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8946" max="8946"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8947" max="9193"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8944" max="8944"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8945" max="8945"/>
+    <col width="13.5" customWidth="1" style="32" min="8946" max="8946"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8947" max="9193"/>
     <col width="5" customWidth="1" style="32" min="9194" max="9194"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9195" max="9195"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9196" max="9196"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9197" max="9197"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9198" max="9198"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9195" max="9195"/>
+    <col width="6.5" customWidth="1" style="32" min="9196" max="9196"/>
+    <col width="29.5" customWidth="1" style="32" min="9197" max="9197"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9198" max="9198"/>
     <col width="8" customWidth="1" style="32" min="9199" max="9199"/>
-    <col width="9.140625" customWidth="1" style="32" min="9200" max="9200"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9201" max="9201"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9202" max="9202"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9203" max="9449"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9200" max="9200"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9201" max="9201"/>
+    <col width="13.5" customWidth="1" style="32" min="9202" max="9202"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9203" max="9449"/>
     <col width="5" customWidth="1" style="32" min="9450" max="9450"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9451" max="9451"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9452" max="9452"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9453" max="9453"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9454" max="9454"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9451" max="9451"/>
+    <col width="6.5" customWidth="1" style="32" min="9452" max="9452"/>
+    <col width="29.5" customWidth="1" style="32" min="9453" max="9453"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9454" max="9454"/>
     <col width="8" customWidth="1" style="32" min="9455" max="9455"/>
-    <col width="9.140625" customWidth="1" style="32" min="9456" max="9456"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9457" max="9457"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9458" max="9458"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9459" max="9705"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9456" max="9456"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9457" max="9457"/>
+    <col width="13.5" customWidth="1" style="32" min="9458" max="9458"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9459" max="9705"/>
     <col width="5" customWidth="1" style="32" min="9706" max="9706"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9707" max="9707"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9708" max="9708"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9709" max="9709"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9710" max="9710"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9707" max="9707"/>
+    <col width="6.5" customWidth="1" style="32" min="9708" max="9708"/>
+    <col width="29.5" customWidth="1" style="32" min="9709" max="9709"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9710" max="9710"/>
     <col width="8" customWidth="1" style="32" min="9711" max="9711"/>
-    <col width="9.140625" customWidth="1" style="32" min="9712" max="9712"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9713" max="9713"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9714" max="9714"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9715" max="9961"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9712" max="9712"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9713" max="9713"/>
+    <col width="13.5" customWidth="1" style="32" min="9714" max="9714"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9715" max="9961"/>
     <col width="5" customWidth="1" style="32" min="9962" max="9962"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9963" max="9963"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9964" max="9964"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9965" max="9965"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9966" max="9966"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9963" max="9963"/>
+    <col width="6.5" customWidth="1" style="32" min="9964" max="9964"/>
+    <col width="29.5" customWidth="1" style="32" min="9965" max="9965"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9966" max="9966"/>
     <col width="8" customWidth="1" style="32" min="9967" max="9967"/>
-    <col width="9.140625" customWidth="1" style="32" min="9968" max="9968"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9969" max="9969"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9970" max="9970"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9971" max="10217"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9968" max="9968"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9969" max="9969"/>
+    <col width="13.5" customWidth="1" style="32" min="9970" max="9970"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9971" max="10217"/>
     <col width="5" customWidth="1" style="32" min="10218" max="10218"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10219" max="10219"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10220" max="10220"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10221" max="10221"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10222" max="10222"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10219" max="10219"/>
+    <col width="6.5" customWidth="1" style="32" min="10220" max="10220"/>
+    <col width="29.5" customWidth="1" style="32" min="10221" max="10221"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10222" max="10222"/>
     <col width="8" customWidth="1" style="32" min="10223" max="10223"/>
-    <col width="9.140625" customWidth="1" style="32" min="10224" max="10224"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10225" max="10225"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10226" max="10226"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10227" max="10473"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10224" max="10224"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10225" max="10225"/>
+    <col width="13.5" customWidth="1" style="32" min="10226" max="10226"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10227" max="10473"/>
     <col width="5" customWidth="1" style="32" min="10474" max="10474"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10475" max="10475"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10476" max="10476"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10477" max="10477"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10478" max="10478"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10475" max="10475"/>
+    <col width="6.5" customWidth="1" style="32" min="10476" max="10476"/>
+    <col width="29.5" customWidth="1" style="32" min="10477" max="10477"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10478" max="10478"/>
     <col width="8" customWidth="1" style="32" min="10479" max="10479"/>
-    <col width="9.140625" customWidth="1" style="32" min="10480" max="10480"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10481" max="10481"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10482" max="10482"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10483" max="10729"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10480" max="10480"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10481" max="10481"/>
+    <col width="13.5" customWidth="1" style="32" min="10482" max="10482"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10483" max="10729"/>
     <col width="5" customWidth="1" style="32" min="10730" max="10730"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10731" max="10731"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10732" max="10732"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10733" max="10733"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10734" max="10734"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10731" max="10731"/>
+    <col width="6.5" customWidth="1" style="32" min="10732" max="10732"/>
+    <col width="29.5" customWidth="1" style="32" min="10733" max="10733"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10734" max="10734"/>
     <col width="8" customWidth="1" style="32" min="10735" max="10735"/>
-    <col width="9.140625" customWidth="1" style="32" min="10736" max="10736"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10737" max="10737"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10738" max="10738"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10739" max="10985"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10736" max="10736"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10737" max="10737"/>
+    <col width="13.5" customWidth="1" style="32" min="10738" max="10738"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10739" max="10985"/>
     <col width="5" customWidth="1" style="32" min="10986" max="10986"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10987" max="10987"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10988" max="10988"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10989" max="10989"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10990" max="10990"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10987" max="10987"/>
+    <col width="6.5" customWidth="1" style="32" min="10988" max="10988"/>
+    <col width="29.5" customWidth="1" style="32" min="10989" max="10989"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10990" max="10990"/>
     <col width="8" customWidth="1" style="32" min="10991" max="10991"/>
-    <col width="9.140625" customWidth="1" style="32" min="10992" max="10992"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10993" max="10993"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10994" max="10994"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10995" max="11241"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10992" max="10992"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10993" max="10993"/>
+    <col width="13.5" customWidth="1" style="32" min="10994" max="10994"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10995" max="11241"/>
     <col width="5" customWidth="1" style="32" min="11242" max="11242"/>
-    <col width="33.28515625" customWidth="1" style="32" min="11243" max="11243"/>
-    <col width="6.42578125" customWidth="1" style="32" min="11244" max="11244"/>
-    <col width="29.42578125" customWidth="1" style="32" min="11245" max="11245"/>
-    <col width="23.7109375" customWidth="1" style="32" min="11246" max="11246"/>
+    <col width="33.33203125" customWidth="1" style="32" min="11243" max="11243"/>
+    <col width="6.5" customWidth="1" style="32" min="11244" max="11244"/>
+    <col width="29.5" customWidth="1" style="32" min="11245" max="11245"/>
+    <col width="23.6640625" customWidth="1" style="32" min="11246" max="11246"/>
     <col width="8" customWidth="1" style="32" min="11247" max="11247"/>
-    <col width="9.140625" customWidth="1" style="32" min="11248" max="11248"/>
-    <col width="13.7109375" customWidth="1" style="32" min="11249" max="11249"/>
-    <col width="13.42578125" customWidth="1" style="32" min="11250" max="11250"/>
-    <col width="8.7109375" customWidth="1" style="32" min="11251" max="11497"/>
+    <col width="9.1640625" customWidth="1" style="32" min="11248" max="11248"/>
+    <col width="13.6640625" customWidth="1" style="32" min="11249" max="11249"/>
+    <col width="13.5" customWidth="1" style="32" min="11250" max="11250"/>
+    <col width="8.6640625" customWidth="1" style="32" min="11251" max="11497"/>
     <col width="5" customWidth="1" style="32" min="11498" max="11498"/>
-    <col width="33.28515625" customWidth="1" style="32" min="11499" max="11499"/>
-    <col width="6.42578125" customWidth="1" style="32" min="11500" max="11500"/>
-    <col width="29.42578125" customWidth="1" style="32" min="11501" max="11501"/>
-    <col width="23.7109375" customWidth="1" style="32" min="11502" max="11502"/>
+    <col width="33.33203125" customWidth="1" style="32" min="11499" max="11499"/>
+    <col width="6.5" customWidth="1" style="32" min="11500" max="11500"/>
+    <col width="29.5" customWidth="1" style="32" min="11501" max="11501"/>
+    <col width="23.6640625" customWidth="1" style="32" min="11502" max="11502"/>
     <col width="8" customWidth="1" style="32" min="11503" max="11503"/>
-    <col width="9.140625" customWidth="1" style="32" min="11504" max="11504"/>
-    <col width="13.7109375" customWidth="1" style="32" min="11505" max="11505"/>
-    <col width="13.42578125" customWidth="1" style="32" min="11506" max="11506"/>
-    <col width="8.7109375" customWidth="1" style="32" min="11507" max="11753"/>
+    <col width="9.1640625" customWidth="1" style="32" min="11504" max="11504"/>
+    <col width="13.6640625" customWidth="1" style="32" min="11505" max="11505"/>
+    <col width="13.5" customWidth="1" style="32" min="11506" max="11506"/>
+    <col width="8.6640625" customWidth="1" style="32" min="11507" max="11753"/>
     <col width="5" customWidth="1" style="32" min="11754" max="11754"/>
-    <col width="33.28515625" customWidth="1" style="32" min="11755" max="11755"/>
-    <col width="6.42578125" customWidth="1" style="32" min="11756" max="11756"/>
-    <col width="29.42578125" customWidth="1" style="32" min="11757" max="11757"/>
-    <col width="23.7109375" customWidth="1" style="32" min="11758" max="11758"/>
+    <col width="33.33203125" customWidth="1" style="32" min="11755" max="11755"/>
+    <col width="6.5" customWidth="1" style="32" min="11756" max="11756"/>
+    <col width="29.5" customWidth="1" style="32" min="11757" max="11757"/>
+    <col width="23.6640625" customWidth="1" style="32" min="11758" max="11758"/>
     <col width="8" customWidth="1" style="32" min="11759" max="11759"/>
-    <col width="9.140625" customWidth="1" style="32" min="11760" max="11760"/>
-    <col width="13.7109375" customWidth="1" style="32" min="11761" max="11761"/>
-    <col width="13.42578125" customWidth="1" style="32" min="11762" max="11762"/>
-    <col width="8.7109375" customWidth="1" style="32" min="11763" max="12009"/>
+    <col width="9.1640625" customWidth="1" style="32" min="11760" max="11760"/>
+    <col width="13.6640625" customWidth="1" style="32" min="11761" max="11761"/>
+    <col width="13.5" customWidth="1" style="32" min="11762" max="11762"/>
+    <col width="8.6640625" customWidth="1" style="32" min="11763" max="12009"/>
     <col width="5" customWidth="1" style="32" min="12010" max="12010"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12011" max="12011"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12012" max="12012"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12013" max="12013"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12014" max="12014"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12011" max="12011"/>
+    <col width="6.5" customWidth="1" style="32" min="12012" max="12012"/>
+    <col width="29.5" customWidth="1" style="32" min="12013" max="12013"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12014" max="12014"/>
     <col width="8" customWidth="1" style="32" min="12015" max="12015"/>
-    <col width="9.140625" customWidth="1" style="32" min="12016" max="12016"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12017" max="12017"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12018" max="12018"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12019" max="12265"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12016" max="12016"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12017" max="12017"/>
+    <col width="13.5" customWidth="1" style="32" min="12018" max="12018"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12019" max="12265"/>
     <col width="5" customWidth="1" style="32" min="12266" max="12266"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12267" max="12267"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12268" max="12268"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12269" max="12269"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12270" max="12270"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12267" max="12267"/>
+    <col width="6.5" customWidth="1" style="32" min="12268" max="12268"/>
+    <col width="29.5" customWidth="1" style="32" min="12269" max="12269"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12270" max="12270"/>
     <col width="8" customWidth="1" style="32" min="12271" max="12271"/>
-    <col width="9.140625" customWidth="1" style="32" min="12272" max="12272"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12273" max="12273"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12274" max="12274"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12275" max="12521"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12272" max="12272"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12273" max="12273"/>
+    <col width="13.5" customWidth="1" style="32" min="12274" max="12274"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12275" max="12521"/>
     <col width="5" customWidth="1" style="32" min="12522" max="12522"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12523" max="12523"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12524" max="12524"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12525" max="12525"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12526" max="12526"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12523" max="12523"/>
+    <col width="6.5" customWidth="1" style="32" min="12524" max="12524"/>
+    <col width="29.5" customWidth="1" style="32" min="12525" max="12525"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12526" max="12526"/>
     <col width="8" customWidth="1" style="32" min="12527" max="12527"/>
-    <col width="9.140625" customWidth="1" style="32" min="12528" max="12528"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12529" max="12529"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12530" max="12530"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12531" max="12777"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12528" max="12528"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12529" max="12529"/>
+    <col width="13.5" customWidth="1" style="32" min="12530" max="12530"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12531" max="12777"/>
     <col width="5" customWidth="1" style="32" min="12778" max="12778"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12779" max="12779"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12780" max="12780"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12781" max="12781"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12782" max="12782"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12779" max="12779"/>
+    <col width="6.5" customWidth="1" style="32" min="12780" max="12780"/>
+    <col width="29.5" customWidth="1" style="32" min="12781" max="12781"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12782" max="12782"/>
     <col width="8" customWidth="1" style="32" min="12783" max="12783"/>
-    <col width="9.140625" customWidth="1" style="32" min="12784" max="12784"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12785" max="12785"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12786" max="12786"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12787" max="13033"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12784" max="12784"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12785" max="12785"/>
+    <col width="13.5" customWidth="1" style="32" min="12786" max="12786"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12787" max="13033"/>
     <col width="5" customWidth="1" style="32" min="13034" max="13034"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13035" max="13035"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13036" max="13036"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13037" max="13037"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13038" max="13038"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13035" max="13035"/>
+    <col width="6.5" customWidth="1" style="32" min="13036" max="13036"/>
+    <col width="29.5" customWidth="1" style="32" min="13037" max="13037"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13038" max="13038"/>
     <col width="8" customWidth="1" style="32" min="13039" max="13039"/>
-    <col width="9.140625" customWidth="1" style="32" min="13040" max="13040"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13041" max="13041"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13042" max="13042"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13043" max="13289"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13040" max="13040"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13041" max="13041"/>
+    <col width="13.5" customWidth="1" style="32" min="13042" max="13042"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13043" max="13289"/>
     <col width="5" customWidth="1" style="32" min="13290" max="13290"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13291" max="13291"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13292" max="13292"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13293" max="13293"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13294" max="13294"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13291" max="13291"/>
+    <col width="6.5" customWidth="1" style="32" min="13292" max="13292"/>
+    <col width="29.5" customWidth="1" style="32" min="13293" max="13293"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13294" max="13294"/>
     <col width="8" customWidth="1" style="32" min="13295" max="13295"/>
-    <col width="9.140625" customWidth="1" style="32" min="13296" max="13296"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13297" max="13297"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13298" max="13298"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13299" max="13545"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13296" max="13296"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13297" max="13297"/>
+    <col width="13.5" customWidth="1" style="32" min="13298" max="13298"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13299" max="13545"/>
     <col width="5" customWidth="1" style="32" min="13546" max="13546"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13547" max="13547"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13548" max="13548"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13549" max="13549"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13550" max="13550"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13547" max="13547"/>
+    <col width="6.5" customWidth="1" style="32" min="13548" max="13548"/>
+    <col width="29.5" customWidth="1" style="32" min="13549" max="13549"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13550" max="13550"/>
     <col width="8" customWidth="1" style="32" min="13551" max="13551"/>
-    <col width="9.140625" customWidth="1" style="32" min="13552" max="13552"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13553" max="13553"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13554" max="13554"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13555" max="13801"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13552" max="13552"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13553" max="13553"/>
+    <col width="13.5" customWidth="1" style="32" min="13554" max="13554"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13555" max="13801"/>
     <col width="5" customWidth="1" style="32" min="13802" max="13802"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13803" max="13803"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13804" max="13804"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13805" max="13805"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13806" max="13806"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13803" max="13803"/>
+    <col width="6.5" customWidth="1" style="32" min="13804" max="13804"/>
+    <col width="29.5" customWidth="1" style="32" min="13805" max="13805"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13806" max="13806"/>
     <col width="8" customWidth="1" style="32" min="13807" max="13807"/>
-    <col width="9.140625" customWidth="1" style="32" min="13808" max="13808"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13809" max="13809"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13810" max="13810"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13811" max="14057"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13808" max="13808"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13809" max="13809"/>
+    <col width="13.5" customWidth="1" style="32" min="13810" max="13810"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13811" max="14057"/>
     <col width="5" customWidth="1" style="32" min="14058" max="14058"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14059" max="14059"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14060" max="14060"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14061" max="14061"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14062" max="14062"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14059" max="14059"/>
+    <col width="6.5" customWidth="1" style="32" min="14060" max="14060"/>
+    <col width="29.5" customWidth="1" style="32" min="14061" max="14061"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14062" max="14062"/>
     <col width="8" customWidth="1" style="32" min="14063" max="14063"/>
-    <col width="9.140625" customWidth="1" style="32" min="14064" max="14064"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14065" max="14065"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14066" max="14066"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14067" max="14313"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14064" max="14064"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14065" max="14065"/>
+    <col width="13.5" customWidth="1" style="32" min="14066" max="14066"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14067" max="14313"/>
     <col width="5" customWidth="1" style="32" min="14314" max="14314"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14315" max="14315"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14316" max="14316"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14317" max="14317"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14318" max="14318"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14315" max="14315"/>
+    <col width="6.5" customWidth="1" style="32" min="14316" max="14316"/>
+    <col width="29.5" customWidth="1" style="32" min="14317" max="14317"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14318" max="14318"/>
     <col width="8" customWidth="1" style="32" min="14319" max="14319"/>
-    <col width="9.140625" customWidth="1" style="32" min="14320" max="14320"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14321" max="14321"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14322" max="14322"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14323" max="14569"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14320" max="14320"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14321" max="14321"/>
+    <col width="13.5" customWidth="1" style="32" min="14322" max="14322"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14323" max="14569"/>
     <col width="5" customWidth="1" style="32" min="14570" max="14570"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14571" max="14571"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14572" max="14572"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14573" max="14573"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14574" max="14574"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14571" max="14571"/>
+    <col width="6.5" customWidth="1" style="32" min="14572" max="14572"/>
+    <col width="29.5" customWidth="1" style="32" min="14573" max="14573"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14574" max="14574"/>
     <col width="8" customWidth="1" style="32" min="14575" max="14575"/>
-    <col width="9.140625" customWidth="1" style="32" min="14576" max="14576"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14577" max="14577"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14578" max="14578"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14579" max="14825"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14576" max="14576"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14577" max="14577"/>
+    <col width="13.5" customWidth="1" style="32" min="14578" max="14578"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14579" max="14825"/>
     <col width="5" customWidth="1" style="32" min="14826" max="14826"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14827" max="14827"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14828" max="14828"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14829" max="14829"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14830" max="14830"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14827" max="14827"/>
+    <col width="6.5" customWidth="1" style="32" min="14828" max="14828"/>
+    <col width="29.5" customWidth="1" style="32" min="14829" max="14829"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14830" max="14830"/>
     <col width="8" customWidth="1" style="32" min="14831" max="14831"/>
-    <col width="9.140625" customWidth="1" style="32" min="14832" max="14832"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14833" max="14833"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14834" max="14834"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14835" max="15081"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14832" max="14832"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14833" max="14833"/>
+    <col width="13.5" customWidth="1" style="32" min="14834" max="14834"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14835" max="15081"/>
     <col width="5" customWidth="1" style="32" min="15082" max="15082"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15083" max="15083"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15084" max="15084"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15085" max="15085"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15086" max="15086"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15083" max="15083"/>
+    <col width="6.5" customWidth="1" style="32" min="15084" max="15084"/>
+    <col width="29.5" customWidth="1" style="32" min="15085" max="15085"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15086" max="15086"/>
     <col width="8" customWidth="1" style="32" min="15087" max="15087"/>
-    <col width="9.140625" customWidth="1" style="32" min="15088" max="15088"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15089" max="15089"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15090" max="15090"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15091" max="15337"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15088" max="15088"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15089" max="15089"/>
+    <col width="13.5" customWidth="1" style="32" min="15090" max="15090"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15091" max="15337"/>
     <col width="5" customWidth="1" style="32" min="15338" max="15338"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15339" max="15339"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15340" max="15340"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15341" max="15341"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15342" max="15342"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15339" max="15339"/>
+    <col width="6.5" customWidth="1" style="32" min="15340" max="15340"/>
+    <col width="29.5" customWidth="1" style="32" min="15341" max="15341"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15342" max="15342"/>
     <col width="8" customWidth="1" style="32" min="15343" max="15343"/>
-    <col width="9.140625" customWidth="1" style="32" min="15344" max="15344"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15345" max="15345"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15346" max="15346"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15347" max="15593"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15344" max="15344"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15345" max="15345"/>
+    <col width="13.5" customWidth="1" style="32" min="15346" max="15346"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15347" max="15593"/>
     <col width="5" customWidth="1" style="32" min="15594" max="15594"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15595" max="15595"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15596" max="15596"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15597" max="15597"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15598" max="15598"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15595" max="15595"/>
+    <col width="6.5" customWidth="1" style="32" min="15596" max="15596"/>
+    <col width="29.5" customWidth="1" style="32" min="15597" max="15597"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15598" max="15598"/>
     <col width="8" customWidth="1" style="32" min="15599" max="15599"/>
-    <col width="9.140625" customWidth="1" style="32" min="15600" max="15600"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15601" max="15601"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15602" max="15602"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15603" max="15849"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15600" max="15600"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15601" max="15601"/>
+    <col width="13.5" customWidth="1" style="32" min="15602" max="15602"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15603" max="15849"/>
     <col width="5" customWidth="1" style="32" min="15850" max="15850"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15851" max="15851"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15852" max="15852"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15853" max="15853"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15854" max="15854"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15851" max="15851"/>
+    <col width="6.5" customWidth="1" style="32" min="15852" max="15852"/>
+    <col width="29.5" customWidth="1" style="32" min="15853" max="15853"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15854" max="15854"/>
     <col width="8" customWidth="1" style="32" min="15855" max="15855"/>
-    <col width="9.140625" customWidth="1" style="32" min="15856" max="15856"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15857" max="15857"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15858" max="15858"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15859" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15856" max="15856"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15857" max="15857"/>
+    <col width="13.5" customWidth="1" style="32" min="15858" max="15858"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15859" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="75" customFormat="1" customHeight="1" s="21">
       <c r="C1" s="21" t="n"/>
-      <c r="D1" s="179" t="inlineStr">
+      <c r="D1" s="136" t="inlineStr">
         <is>
           <t>KPI NĂM CỦA NHÂN VIÊN 
 NĂM 2020</t>
@@ -4164,24 +4164,24 @@
       </c>
     </row>
     <row r="2" ht="23.25" customFormat="1" customHeight="1" s="22">
-      <c r="B2" s="203" t="inlineStr">
+      <c r="B2" s="137" t="inlineStr">
         <is>
           <t>Họ và tên:</t>
         </is>
       </c>
-      <c r="D2" s="188" t="inlineStr">
+      <c r="D2" s="147" t="inlineStr">
         <is>
           <t>HUỲNH HỮU DANH</t>
         </is>
       </c>
       <c r="E2" s="208" t="n"/>
       <c r="F2" s="208" t="n"/>
-      <c r="G2" s="201" t="inlineStr">
+      <c r="G2" s="132" t="inlineStr">
         <is>
           <t>Chức danh:</t>
         </is>
       </c>
-      <c r="J2" s="189" t="inlineStr">
+      <c r="J2" s="131" t="inlineStr">
         <is>
           <t>Bác sĩ</t>
         </is>
@@ -4190,24 +4190,24 @@
       <c r="L2" s="209" t="n"/>
     </row>
     <row r="3" ht="23.25" customFormat="1" customHeight="1" s="22">
-      <c r="B3" s="203" t="inlineStr">
+      <c r="B3" s="137" t="inlineStr">
         <is>
           <t>Mã nhân viên:</t>
         </is>
       </c>
-      <c r="D3" s="189" t="inlineStr">
+      <c r="D3" s="131" t="inlineStr">
         <is>
           <t>00086</t>
         </is>
       </c>
       <c r="E3" s="209" t="n"/>
       <c r="F3" s="209" t="n"/>
-      <c r="G3" s="202" t="inlineStr">
+      <c r="G3" s="134" t="inlineStr">
         <is>
           <t>Phòng ban/ Bộ phận:</t>
         </is>
       </c>
-      <c r="J3" s="189" t="inlineStr">
+      <c r="J3" s="131" t="inlineStr">
         <is>
           <t>Ngoại thần kinh</t>
         </is>
@@ -4228,7 +4228,7 @@
       <c r="K4" s="28" t="n"/>
       <c r="L4" s="27" t="n"/>
     </row>
-    <row r="5" ht="19.9" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
+    <row r="5" ht="20" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
       <c r="B5" s="77" t="inlineStr">
         <is>
           <t xml:space="preserve">I </t>
@@ -4246,7 +4246,7 @@
       <c r="H5" s="66" t="n"/>
       <c r="I5" s="66" t="n"/>
       <c r="J5" s="65" t="n"/>
-      <c r="K5" s="151" t="n"/>
+      <c r="K5" s="130" t="n"/>
       <c r="L5" s="78">
         <f>L7+L8</f>
         <v/>
@@ -4258,7 +4258,7 @@
           <t>Stt</t>
         </is>
       </c>
-      <c r="C6" s="183" t="inlineStr">
+      <c r="C6" s="142" t="inlineStr">
         <is>
           <t>Nội dung</t>
         </is>
@@ -4266,12 +4266,12 @@
       <c r="D6" s="210" t="n"/>
       <c r="E6" s="210" t="n"/>
       <c r="F6" s="210" t="n"/>
-      <c r="G6" s="172" t="inlineStr">
+      <c r="G6" s="148" t="inlineStr">
         <is>
           <t>Trọng số</t>
         </is>
       </c>
-      <c r="H6" s="183" t="inlineStr">
+      <c r="H6" s="142" t="inlineStr">
         <is>
           <t>Kế hoạch</t>
         </is>
@@ -4281,12 +4281,12 @@
           <t>Thực hiện</t>
         </is>
       </c>
-      <c r="J6" s="183" t="inlineStr">
+      <c r="J6" s="142" t="inlineStr">
         <is>
           <t>Hoàn thành</t>
         </is>
       </c>
-      <c r="K6" s="183" t="inlineStr">
+      <c r="K6" s="142" t="inlineStr">
         <is>
           <t>Ghi chú</t>
         </is>
@@ -4297,7 +4297,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="19.9" customHeight="1">
+    <row r="7" ht="20" customHeight="1">
       <c r="B7" s="81" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="74" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="J7" s="41">
         <f>I7/H7</f>
@@ -4328,7 +4328,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="19.9" customHeight="1" thickBot="1">
+    <row r="8" ht="20" customHeight="1" thickBot="1">
       <c r="B8" s="83" t="n">
         <v>2</v>
       </c>
@@ -4374,10 +4374,10 @@
       <c r="E9" s="62" t="n"/>
       <c r="F9" s="64" t="n"/>
       <c r="G9" s="62" t="n"/>
-      <c r="H9" s="151" t="n"/>
+      <c r="H9" s="130" t="n"/>
       <c r="I9" s="217" t="n"/>
       <c r="J9" s="65" t="n"/>
-      <c r="K9" s="151" t="n"/>
+      <c r="K9" s="130" t="n"/>
       <c r="L9" s="85">
         <f>SUM(L10:L12)</f>
         <v/>
@@ -4399,7 +4399,7 @@
           <t>Trọng số</t>
         </is>
       </c>
-      <c r="E10" s="183" t="inlineStr">
+      <c r="E10" s="142" t="inlineStr">
         <is>
           <t>Tiêu chí đánh giá</t>
         </is>
@@ -4498,7 +4498,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="19.9" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
+    <row r="13" ht="20" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
       <c r="B13" s="77" t="inlineStr">
         <is>
           <t>III</t>
@@ -4513,22 +4513,22 @@
       <c r="E13" s="100" t="n"/>
       <c r="F13" s="99" t="n"/>
       <c r="G13" s="100" t="n"/>
-      <c r="H13" s="151" t="n"/>
+      <c r="H13" s="130" t="n"/>
       <c r="I13" s="217" t="n"/>
       <c r="J13" s="65" t="n"/>
-      <c r="K13" s="151" t="n"/>
+      <c r="K13" s="130" t="n"/>
       <c r="L13" s="78">
         <f>SUM(L15:L22)</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="25.9" customFormat="1" customHeight="1" s="34" thickTop="1">
+    <row r="14" ht="26" customFormat="1" customHeight="1" s="34" thickTop="1">
       <c r="B14" s="88" t="inlineStr">
         <is>
           <t>Stt</t>
         </is>
       </c>
-      <c r="C14" s="172" t="inlineStr">
+      <c r="C14" s="148" t="inlineStr">
         <is>
           <t xml:space="preserve">               Các tiêu chí mong đợi</t>
         </is>
@@ -4536,7 +4536,7 @@
       <c r="D14" s="222" t="n"/>
       <c r="E14" s="222" t="n"/>
       <c r="F14" s="222" t="n"/>
-      <c r="G14" s="172" t="inlineStr">
+      <c r="G14" s="148" t="inlineStr">
         <is>
           <t>Cần cải thiện</t>
         </is>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="15" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B15" s="90" t="n">
         <v>1</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="16" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B16" s="91">
         <f>B15+1</f>
         <v/>
@@ -4634,7 +4634,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="17" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B17" s="91">
         <f>B16+1</f>
         <v/>
@@ -4666,7 +4666,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="18" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B18" s="91">
         <f>B17+1</f>
         <v/>
@@ -4698,7 +4698,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="19" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B19" s="91">
         <f>B18+1</f>
         <v/>
@@ -4730,7 +4730,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="20" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B20" s="91">
         <f>B19+1</f>
         <v/>
@@ -4762,7 +4762,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="21" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B21" s="91">
         <f>B20+1</f>
         <v/>
@@ -4794,7 +4794,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" ht="43.9" customFormat="1" customHeight="1" s="36" thickBot="1">
+    <row r="22" ht="44" customFormat="1" customHeight="1" s="36" thickBot="1">
       <c r="B22" s="92">
         <f>B21+1</f>
         <v/>
@@ -4826,7 +4826,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" ht="19.9" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
+    <row r="23" ht="20" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
       <c r="B23" s="77" t="inlineStr">
         <is>
           <t>IV</t>
@@ -4841,10 +4841,10 @@
       <c r="E23" s="62" t="n"/>
       <c r="F23" s="64" t="n"/>
       <c r="G23" s="62" t="n"/>
-      <c r="H23" s="151" t="n"/>
+      <c r="H23" s="130" t="n"/>
       <c r="I23" s="217" t="n"/>
       <c r="J23" s="65" t="n"/>
-      <c r="K23" s="151" t="n"/>
+      <c r="K23" s="130" t="n"/>
       <c r="L23" s="93">
         <f>SUM(I25:I27)</f>
         <v/>
@@ -4856,7 +4856,7 @@
           <t>Stt</t>
         </is>
       </c>
-      <c r="C24" s="154" t="inlineStr">
+      <c r="C24" s="192" t="inlineStr">
         <is>
           <t>Nội dung</t>
         </is>
@@ -4864,7 +4864,7 @@
       <c r="D24" s="222" t="n"/>
       <c r="E24" s="222" t="n"/>
       <c r="F24" s="222" t="n"/>
-      <c r="G24" s="172" t="inlineStr">
+      <c r="G24" s="148" t="inlineStr">
         <is>
           <t>Tổng điểm</t>
         </is>
@@ -4879,7 +4879,7 @@
           <t>Kết quả KPI</t>
         </is>
       </c>
-      <c r="J24" s="153" t="inlineStr">
+      <c r="J24" s="191" t="inlineStr">
         <is>
           <t>Danh hiệu</t>
         </is>
@@ -4887,7 +4887,7 @@
       <c r="K24" s="232" t="n"/>
       <c r="L24" s="233" t="n"/>
     </row>
-    <row r="25" ht="19.9" customFormat="1" customHeight="1" s="36" thickTop="1">
+    <row r="25" ht="20" customFormat="1" customHeight="1" s="36" thickTop="1">
       <c r="B25" s="90" t="n">
         <v>1</v>
       </c>
@@ -4917,7 +4917,7 @@
       <c r="K25" s="236" t="n"/>
       <c r="L25" s="237" t="n"/>
     </row>
-    <row r="26" ht="19.9" customFormat="1" customHeight="1" s="36">
+    <row r="26" ht="20" customFormat="1" customHeight="1" s="36">
       <c r="B26" s="91">
         <f>B25+1</f>
         <v/>
@@ -4944,7 +4944,7 @@
       <c r="J26" s="239" t="n"/>
       <c r="L26" s="240" t="n"/>
     </row>
-    <row r="27" ht="19.9" customFormat="1" customHeight="1" s="36" thickBot="1">
+    <row r="27" ht="20" customFormat="1" customHeight="1" s="36" thickBot="1">
       <c r="B27" s="92">
         <f>B26+1</f>
         <v/>
@@ -4972,7 +4972,7 @@
       <c r="K27" s="232" t="n"/>
       <c r="L27" s="233" t="n"/>
     </row>
-    <row r="28" ht="19.9" customFormat="1" customHeight="1" s="60" thickTop="1">
+    <row r="28" ht="20" customFormat="1" customHeight="1" s="60" thickTop="1">
       <c r="B28" s="94" t="inlineStr">
         <is>
           <t>V</t>
@@ -4993,7 +4993,7 @@
       <c r="K28" s="68" t="n"/>
       <c r="L28" s="95" t="n"/>
     </row>
-    <row r="29" ht="76.90000000000001" customFormat="1" customHeight="1" s="44">
+    <row r="29" ht="77" customFormat="1" customHeight="1" s="44">
       <c r="B29" s="96" t="n">
         <v>1</v>
       </c>
@@ -5016,7 +5016,7 @@
       <c r="K29" s="247" t="n"/>
       <c r="L29" s="248" t="n"/>
     </row>
-    <row r="30" ht="79.15000000000001" customFormat="1" customHeight="1" s="44">
+    <row r="30" ht="79.25" customFormat="1" customHeight="1" s="44">
       <c r="B30" s="97" t="n">
         <v>2</v>
       </c>
@@ -5164,27 +5164,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="J25:L27"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="I38:L38"/>
     <mergeCell ref="C32:E32"/>
@@ -5195,15 +5183,27 @@
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="G30:L30"/>
     <mergeCell ref="G29:L29"/>
-    <mergeCell ref="J25:L27"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.15748031496063" top="0.29" bottom="0.17" header="0.18" footer="0.22"/>
@@ -5223,647 +5223,647 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col hidden="1" width="1.140625" customWidth="1" style="32" min="1" max="1"/>
-    <col width="3.42578125" customWidth="1" style="32" min="2" max="2"/>
+    <col hidden="1" width="1.1640625" customWidth="1" style="32" min="1" max="1"/>
+    <col width="3.5" customWidth="1" style="32" min="2" max="2"/>
     <col width="53" customWidth="1" style="32" min="3" max="3"/>
-    <col width="8.42578125" customWidth="1" style="32" min="4" max="4"/>
-    <col width="10.5703125" customWidth="1" style="32" min="5" max="5"/>
-    <col width="31.42578125" customWidth="1" style="33" min="6" max="6"/>
-    <col width="9.140625" customWidth="1" style="32" min="7" max="7"/>
-    <col width="11.140625" customWidth="1" style="32" min="8" max="8"/>
-    <col width="9.7109375" customWidth="1" style="32" min="9" max="9"/>
-    <col width="10.140625" customWidth="1" style="32" min="10" max="11"/>
-    <col width="16.5703125" customWidth="1" style="33" min="12" max="12"/>
-    <col width="11.28515625" customWidth="1" style="32" min="13" max="13"/>
-    <col width="6.7109375" customWidth="1" style="32" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15" max="233"/>
+    <col width="8.5" customWidth="1" style="32" min="4" max="4"/>
+    <col width="10.5" customWidth="1" style="32" min="5" max="5"/>
+    <col width="31.5" customWidth="1" style="33" min="6" max="6"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7" max="7"/>
+    <col width="11.1640625" customWidth="1" style="32" min="8" max="8"/>
+    <col width="9.6640625" customWidth="1" style="32" min="9" max="9"/>
+    <col width="10.1640625" customWidth="1" style="32" min="10" max="11"/>
+    <col width="16.5" customWidth="1" style="33" min="12" max="12"/>
+    <col width="11.33203125" customWidth="1" style="32" min="13" max="13"/>
+    <col width="6.6640625" customWidth="1" style="32" min="14" max="14"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15" max="233"/>
     <col width="5" customWidth="1" style="32" min="234" max="234"/>
-    <col width="33.28515625" customWidth="1" style="32" min="235" max="235"/>
-    <col width="6.42578125" customWidth="1" style="32" min="236" max="236"/>
-    <col width="29.42578125" customWidth="1" style="32" min="237" max="237"/>
-    <col width="23.7109375" customWidth="1" style="32" min="238" max="238"/>
+    <col width="33.33203125" customWidth="1" style="32" min="235" max="235"/>
+    <col width="6.5" customWidth="1" style="32" min="236" max="236"/>
+    <col width="29.5" customWidth="1" style="32" min="237" max="237"/>
+    <col width="23.6640625" customWidth="1" style="32" min="238" max="238"/>
     <col width="8" customWidth="1" style="32" min="239" max="239"/>
-    <col width="9.140625" customWidth="1" style="32" min="240" max="240"/>
-    <col width="13.7109375" customWidth="1" style="32" min="241" max="241"/>
-    <col width="13.42578125" customWidth="1" style="32" min="242" max="242"/>
-    <col width="8.7109375" customWidth="1" style="32" min="243" max="489"/>
+    <col width="9.1640625" customWidth="1" style="32" min="240" max="240"/>
+    <col width="13.6640625" customWidth="1" style="32" min="241" max="241"/>
+    <col width="13.5" customWidth="1" style="32" min="242" max="242"/>
+    <col width="8.6640625" customWidth="1" style="32" min="243" max="489"/>
     <col width="5" customWidth="1" style="32" min="490" max="490"/>
-    <col width="33.28515625" customWidth="1" style="32" min="491" max="491"/>
-    <col width="6.42578125" customWidth="1" style="32" min="492" max="492"/>
-    <col width="29.42578125" customWidth="1" style="32" min="493" max="493"/>
-    <col width="23.7109375" customWidth="1" style="32" min="494" max="494"/>
+    <col width="33.33203125" customWidth="1" style="32" min="491" max="491"/>
+    <col width="6.5" customWidth="1" style="32" min="492" max="492"/>
+    <col width="29.5" customWidth="1" style="32" min="493" max="493"/>
+    <col width="23.6640625" customWidth="1" style="32" min="494" max="494"/>
     <col width="8" customWidth="1" style="32" min="495" max="495"/>
-    <col width="9.140625" customWidth="1" style="32" min="496" max="496"/>
-    <col width="13.7109375" customWidth="1" style="32" min="497" max="497"/>
-    <col width="13.42578125" customWidth="1" style="32" min="498" max="498"/>
-    <col width="8.7109375" customWidth="1" style="32" min="499" max="745"/>
+    <col width="9.1640625" customWidth="1" style="32" min="496" max="496"/>
+    <col width="13.6640625" customWidth="1" style="32" min="497" max="497"/>
+    <col width="13.5" customWidth="1" style="32" min="498" max="498"/>
+    <col width="8.6640625" customWidth="1" style="32" min="499" max="745"/>
     <col width="5" customWidth="1" style="32" min="746" max="746"/>
-    <col width="33.28515625" customWidth="1" style="32" min="747" max="747"/>
-    <col width="6.42578125" customWidth="1" style="32" min="748" max="748"/>
-    <col width="29.42578125" customWidth="1" style="32" min="749" max="749"/>
-    <col width="23.7109375" customWidth="1" style="32" min="750" max="750"/>
+    <col width="33.33203125" customWidth="1" style="32" min="747" max="747"/>
+    <col width="6.5" customWidth="1" style="32" min="748" max="748"/>
+    <col width="29.5" customWidth="1" style="32" min="749" max="749"/>
+    <col width="23.6640625" customWidth="1" style="32" min="750" max="750"/>
     <col width="8" customWidth="1" style="32" min="751" max="751"/>
-    <col width="9.140625" customWidth="1" style="32" min="752" max="752"/>
-    <col width="13.7109375" customWidth="1" style="32" min="753" max="753"/>
-    <col width="13.42578125" customWidth="1" style="32" min="754" max="754"/>
-    <col width="8.7109375" customWidth="1" style="32" min="755" max="1001"/>
+    <col width="9.1640625" customWidth="1" style="32" min="752" max="752"/>
+    <col width="13.6640625" customWidth="1" style="32" min="753" max="753"/>
+    <col width="13.5" customWidth="1" style="32" min="754" max="754"/>
+    <col width="8.6640625" customWidth="1" style="32" min="755" max="1001"/>
     <col width="5" customWidth="1" style="32" min="1002" max="1002"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1003" max="1003"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1004" max="1004"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1005" max="1005"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1006" max="1006"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1003" max="1003"/>
+    <col width="6.5" customWidth="1" style="32" min="1004" max="1004"/>
+    <col width="29.5" customWidth="1" style="32" min="1005" max="1005"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1006" max="1006"/>
     <col width="8" customWidth="1" style="32" min="1007" max="1007"/>
-    <col width="9.140625" customWidth="1" style="32" min="1008" max="1008"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1009" max="1009"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1010" max="1010"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1011" max="1257"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1008" max="1008"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1009" max="1009"/>
+    <col width="13.5" customWidth="1" style="32" min="1010" max="1010"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1011" max="1257"/>
     <col width="5" customWidth="1" style="32" min="1258" max="1258"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1259" max="1259"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1260" max="1260"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1261" max="1261"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1262" max="1262"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1259" max="1259"/>
+    <col width="6.5" customWidth="1" style="32" min="1260" max="1260"/>
+    <col width="29.5" customWidth="1" style="32" min="1261" max="1261"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1262" max="1262"/>
     <col width="8" customWidth="1" style="32" min="1263" max="1263"/>
-    <col width="9.140625" customWidth="1" style="32" min="1264" max="1264"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1265" max="1265"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1266" max="1266"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1267" max="1513"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1264" max="1264"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1265" max="1265"/>
+    <col width="13.5" customWidth="1" style="32" min="1266" max="1266"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1267" max="1513"/>
     <col width="5" customWidth="1" style="32" min="1514" max="1514"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1515" max="1515"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1516" max="1516"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1517" max="1517"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1518" max="1518"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1515" max="1515"/>
+    <col width="6.5" customWidth="1" style="32" min="1516" max="1516"/>
+    <col width="29.5" customWidth="1" style="32" min="1517" max="1517"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1518" max="1518"/>
     <col width="8" customWidth="1" style="32" min="1519" max="1519"/>
-    <col width="9.140625" customWidth="1" style="32" min="1520" max="1520"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1521" max="1521"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1522" max="1522"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1523" max="1769"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1520" max="1520"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1521" max="1521"/>
+    <col width="13.5" customWidth="1" style="32" min="1522" max="1522"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1523" max="1769"/>
     <col width="5" customWidth="1" style="32" min="1770" max="1770"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1771" max="1771"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1772" max="1772"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1773" max="1773"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1774" max="1774"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1771" max="1771"/>
+    <col width="6.5" customWidth="1" style="32" min="1772" max="1772"/>
+    <col width="29.5" customWidth="1" style="32" min="1773" max="1773"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1774" max="1774"/>
     <col width="8" customWidth="1" style="32" min="1775" max="1775"/>
-    <col width="9.140625" customWidth="1" style="32" min="1776" max="1776"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1777" max="1777"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1778" max="1778"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1779" max="2025"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1776" max="1776"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1777" max="1777"/>
+    <col width="13.5" customWidth="1" style="32" min="1778" max="1778"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1779" max="2025"/>
     <col width="5" customWidth="1" style="32" min="2026" max="2026"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2027" max="2027"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2028" max="2028"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2029" max="2029"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2030" max="2030"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2027" max="2027"/>
+    <col width="6.5" customWidth="1" style="32" min="2028" max="2028"/>
+    <col width="29.5" customWidth="1" style="32" min="2029" max="2029"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2030" max="2030"/>
     <col width="8" customWidth="1" style="32" min="2031" max="2031"/>
-    <col width="9.140625" customWidth="1" style="32" min="2032" max="2032"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2033" max="2033"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2034" max="2034"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2035" max="2281"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2032" max="2032"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2033" max="2033"/>
+    <col width="13.5" customWidth="1" style="32" min="2034" max="2034"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2035" max="2281"/>
     <col width="5" customWidth="1" style="32" min="2282" max="2282"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2283" max="2283"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2284" max="2284"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2285" max="2285"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2286" max="2286"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2283" max="2283"/>
+    <col width="6.5" customWidth="1" style="32" min="2284" max="2284"/>
+    <col width="29.5" customWidth="1" style="32" min="2285" max="2285"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2286" max="2286"/>
     <col width="8" customWidth="1" style="32" min="2287" max="2287"/>
-    <col width="9.140625" customWidth="1" style="32" min="2288" max="2288"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2289" max="2289"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2290" max="2290"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2291" max="2537"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2288" max="2288"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2289" max="2289"/>
+    <col width="13.5" customWidth="1" style="32" min="2290" max="2290"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2291" max="2537"/>
     <col width="5" customWidth="1" style="32" min="2538" max="2538"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2539" max="2539"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2540" max="2540"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2541" max="2541"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2542" max="2542"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2539" max="2539"/>
+    <col width="6.5" customWidth="1" style="32" min="2540" max="2540"/>
+    <col width="29.5" customWidth="1" style="32" min="2541" max="2541"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2542" max="2542"/>
     <col width="8" customWidth="1" style="32" min="2543" max="2543"/>
-    <col width="9.140625" customWidth="1" style="32" min="2544" max="2544"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2545" max="2545"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2546" max="2546"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2547" max="2793"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2544" max="2544"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2545" max="2545"/>
+    <col width="13.5" customWidth="1" style="32" min="2546" max="2546"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2547" max="2793"/>
     <col width="5" customWidth="1" style="32" min="2794" max="2794"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2795" max="2795"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2796" max="2796"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2797" max="2797"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2798" max="2798"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2795" max="2795"/>
+    <col width="6.5" customWidth="1" style="32" min="2796" max="2796"/>
+    <col width="29.5" customWidth="1" style="32" min="2797" max="2797"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2798" max="2798"/>
     <col width="8" customWidth="1" style="32" min="2799" max="2799"/>
-    <col width="9.140625" customWidth="1" style="32" min="2800" max="2800"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2801" max="2801"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2802" max="2802"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2803" max="3049"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2800" max="2800"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2801" max="2801"/>
+    <col width="13.5" customWidth="1" style="32" min="2802" max="2802"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2803" max="3049"/>
     <col width="5" customWidth="1" style="32" min="3050" max="3050"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3051" max="3051"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3052" max="3052"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3053" max="3053"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3054" max="3054"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3051" max="3051"/>
+    <col width="6.5" customWidth="1" style="32" min="3052" max="3052"/>
+    <col width="29.5" customWidth="1" style="32" min="3053" max="3053"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3054" max="3054"/>
     <col width="8" customWidth="1" style="32" min="3055" max="3055"/>
-    <col width="9.140625" customWidth="1" style="32" min="3056" max="3056"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3057" max="3057"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3058" max="3058"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3059" max="3305"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3056" max="3056"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3057" max="3057"/>
+    <col width="13.5" customWidth="1" style="32" min="3058" max="3058"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3059" max="3305"/>
     <col width="5" customWidth="1" style="32" min="3306" max="3306"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3307" max="3307"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3308" max="3308"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3309" max="3309"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3310" max="3310"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3307" max="3307"/>
+    <col width="6.5" customWidth="1" style="32" min="3308" max="3308"/>
+    <col width="29.5" customWidth="1" style="32" min="3309" max="3309"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3310" max="3310"/>
     <col width="8" customWidth="1" style="32" min="3311" max="3311"/>
-    <col width="9.140625" customWidth="1" style="32" min="3312" max="3312"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3313" max="3313"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3314" max="3314"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3315" max="3561"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3312" max="3312"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3313" max="3313"/>
+    <col width="13.5" customWidth="1" style="32" min="3314" max="3314"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3315" max="3561"/>
     <col width="5" customWidth="1" style="32" min="3562" max="3562"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3563" max="3563"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3564" max="3564"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3565" max="3565"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3566" max="3566"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3563" max="3563"/>
+    <col width="6.5" customWidth="1" style="32" min="3564" max="3564"/>
+    <col width="29.5" customWidth="1" style="32" min="3565" max="3565"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3566" max="3566"/>
     <col width="8" customWidth="1" style="32" min="3567" max="3567"/>
-    <col width="9.140625" customWidth="1" style="32" min="3568" max="3568"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3569" max="3569"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3570" max="3570"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3571" max="3817"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3568" max="3568"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3569" max="3569"/>
+    <col width="13.5" customWidth="1" style="32" min="3570" max="3570"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3571" max="3817"/>
     <col width="5" customWidth="1" style="32" min="3818" max="3818"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3819" max="3819"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3820" max="3820"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3821" max="3821"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3822" max="3822"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3819" max="3819"/>
+    <col width="6.5" customWidth="1" style="32" min="3820" max="3820"/>
+    <col width="29.5" customWidth="1" style="32" min="3821" max="3821"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3822" max="3822"/>
     <col width="8" customWidth="1" style="32" min="3823" max="3823"/>
-    <col width="9.140625" customWidth="1" style="32" min="3824" max="3824"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3825" max="3825"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3826" max="3826"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3827" max="4073"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3824" max="3824"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3825" max="3825"/>
+    <col width="13.5" customWidth="1" style="32" min="3826" max="3826"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3827" max="4073"/>
     <col width="5" customWidth="1" style="32" min="4074" max="4074"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4075" max="4075"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4076" max="4076"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4077" max="4077"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4078" max="4078"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4075" max="4075"/>
+    <col width="6.5" customWidth="1" style="32" min="4076" max="4076"/>
+    <col width="29.5" customWidth="1" style="32" min="4077" max="4077"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4078" max="4078"/>
     <col width="8" customWidth="1" style="32" min="4079" max="4079"/>
-    <col width="9.140625" customWidth="1" style="32" min="4080" max="4080"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4081" max="4081"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4082" max="4082"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4083" max="4329"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4080" max="4080"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4081" max="4081"/>
+    <col width="13.5" customWidth="1" style="32" min="4082" max="4082"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4083" max="4329"/>
     <col width="5" customWidth="1" style="32" min="4330" max="4330"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4331" max="4331"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4332" max="4332"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4333" max="4333"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4334" max="4334"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4331" max="4331"/>
+    <col width="6.5" customWidth="1" style="32" min="4332" max="4332"/>
+    <col width="29.5" customWidth="1" style="32" min="4333" max="4333"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4334" max="4334"/>
     <col width="8" customWidth="1" style="32" min="4335" max="4335"/>
-    <col width="9.140625" customWidth="1" style="32" min="4336" max="4336"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4337" max="4337"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4338" max="4338"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4339" max="4585"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4336" max="4336"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4337" max="4337"/>
+    <col width="13.5" customWidth="1" style="32" min="4338" max="4338"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4339" max="4585"/>
     <col width="5" customWidth="1" style="32" min="4586" max="4586"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4587" max="4587"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4588" max="4588"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4589" max="4589"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4590" max="4590"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4587" max="4587"/>
+    <col width="6.5" customWidth="1" style="32" min="4588" max="4588"/>
+    <col width="29.5" customWidth="1" style="32" min="4589" max="4589"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4590" max="4590"/>
     <col width="8" customWidth="1" style="32" min="4591" max="4591"/>
-    <col width="9.140625" customWidth="1" style="32" min="4592" max="4592"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4593" max="4593"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4594" max="4594"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4595" max="4841"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4592" max="4592"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4593" max="4593"/>
+    <col width="13.5" customWidth="1" style="32" min="4594" max="4594"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4595" max="4841"/>
     <col width="5" customWidth="1" style="32" min="4842" max="4842"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4843" max="4843"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4844" max="4844"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4845" max="4845"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4846" max="4846"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4843" max="4843"/>
+    <col width="6.5" customWidth="1" style="32" min="4844" max="4844"/>
+    <col width="29.5" customWidth="1" style="32" min="4845" max="4845"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4846" max="4846"/>
     <col width="8" customWidth="1" style="32" min="4847" max="4847"/>
-    <col width="9.140625" customWidth="1" style="32" min="4848" max="4848"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4849" max="4849"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4850" max="4850"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4851" max="5097"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4848" max="4848"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4849" max="4849"/>
+    <col width="13.5" customWidth="1" style="32" min="4850" max="4850"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4851" max="5097"/>
     <col width="5" customWidth="1" style="32" min="5098" max="5098"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5099" max="5099"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5100" max="5100"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5101" max="5101"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5102" max="5102"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5099" max="5099"/>
+    <col width="6.5" customWidth="1" style="32" min="5100" max="5100"/>
+    <col width="29.5" customWidth="1" style="32" min="5101" max="5101"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5102" max="5102"/>
     <col width="8" customWidth="1" style="32" min="5103" max="5103"/>
-    <col width="9.140625" customWidth="1" style="32" min="5104" max="5104"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5105" max="5105"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5106" max="5106"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5107" max="5353"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5104" max="5104"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5105" max="5105"/>
+    <col width="13.5" customWidth="1" style="32" min="5106" max="5106"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5107" max="5353"/>
     <col width="5" customWidth="1" style="32" min="5354" max="5354"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5355" max="5355"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5356" max="5356"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5357" max="5357"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5358" max="5358"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5355" max="5355"/>
+    <col width="6.5" customWidth="1" style="32" min="5356" max="5356"/>
+    <col width="29.5" customWidth="1" style="32" min="5357" max="5357"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5358" max="5358"/>
     <col width="8" customWidth="1" style="32" min="5359" max="5359"/>
-    <col width="9.140625" customWidth="1" style="32" min="5360" max="5360"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5361" max="5361"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5362" max="5362"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5363" max="5609"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5360" max="5360"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5361" max="5361"/>
+    <col width="13.5" customWidth="1" style="32" min="5362" max="5362"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5363" max="5609"/>
     <col width="5" customWidth="1" style="32" min="5610" max="5610"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5611" max="5611"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5612" max="5612"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5613" max="5613"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5614" max="5614"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5611" max="5611"/>
+    <col width="6.5" customWidth="1" style="32" min="5612" max="5612"/>
+    <col width="29.5" customWidth="1" style="32" min="5613" max="5613"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5614" max="5614"/>
     <col width="8" customWidth="1" style="32" min="5615" max="5615"/>
-    <col width="9.140625" customWidth="1" style="32" min="5616" max="5616"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5617" max="5617"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5618" max="5618"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5619" max="5865"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5616" max="5616"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5617" max="5617"/>
+    <col width="13.5" customWidth="1" style="32" min="5618" max="5618"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5619" max="5865"/>
     <col width="5" customWidth="1" style="32" min="5866" max="5866"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5867" max="5867"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5868" max="5868"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5869" max="5869"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5870" max="5870"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5867" max="5867"/>
+    <col width="6.5" customWidth="1" style="32" min="5868" max="5868"/>
+    <col width="29.5" customWidth="1" style="32" min="5869" max="5869"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5870" max="5870"/>
     <col width="8" customWidth="1" style="32" min="5871" max="5871"/>
-    <col width="9.140625" customWidth="1" style="32" min="5872" max="5872"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5873" max="5873"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5874" max="5874"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5875" max="6121"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5872" max="5872"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5873" max="5873"/>
+    <col width="13.5" customWidth="1" style="32" min="5874" max="5874"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5875" max="6121"/>
     <col width="5" customWidth="1" style="32" min="6122" max="6122"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6123" max="6123"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6124" max="6124"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6125" max="6125"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6126" max="6126"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6123" max="6123"/>
+    <col width="6.5" customWidth="1" style="32" min="6124" max="6124"/>
+    <col width="29.5" customWidth="1" style="32" min="6125" max="6125"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6126" max="6126"/>
     <col width="8" customWidth="1" style="32" min="6127" max="6127"/>
-    <col width="9.140625" customWidth="1" style="32" min="6128" max="6128"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6129" max="6129"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6130" max="6130"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6131" max="6377"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6128" max="6128"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6129" max="6129"/>
+    <col width="13.5" customWidth="1" style="32" min="6130" max="6130"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6131" max="6377"/>
     <col width="5" customWidth="1" style="32" min="6378" max="6378"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6379" max="6379"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6380" max="6380"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6381" max="6381"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6382" max="6382"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6379" max="6379"/>
+    <col width="6.5" customWidth="1" style="32" min="6380" max="6380"/>
+    <col width="29.5" customWidth="1" style="32" min="6381" max="6381"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6382" max="6382"/>
     <col width="8" customWidth="1" style="32" min="6383" max="6383"/>
-    <col width="9.140625" customWidth="1" style="32" min="6384" max="6384"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6385" max="6385"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6386" max="6386"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6387" max="6633"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6384" max="6384"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6385" max="6385"/>
+    <col width="13.5" customWidth="1" style="32" min="6386" max="6386"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6387" max="6633"/>
     <col width="5" customWidth="1" style="32" min="6634" max="6634"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6635" max="6635"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6636" max="6636"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6637" max="6637"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6638" max="6638"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6635" max="6635"/>
+    <col width="6.5" customWidth="1" style="32" min="6636" max="6636"/>
+    <col width="29.5" customWidth="1" style="32" min="6637" max="6637"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6638" max="6638"/>
     <col width="8" customWidth="1" style="32" min="6639" max="6639"/>
-    <col width="9.140625" customWidth="1" style="32" min="6640" max="6640"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6641" max="6641"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6642" max="6642"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6643" max="6889"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6640" max="6640"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6641" max="6641"/>
+    <col width="13.5" customWidth="1" style="32" min="6642" max="6642"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6643" max="6889"/>
     <col width="5" customWidth="1" style="32" min="6890" max="6890"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6891" max="6891"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6892" max="6892"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6893" max="6893"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6894" max="6894"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6891" max="6891"/>
+    <col width="6.5" customWidth="1" style="32" min="6892" max="6892"/>
+    <col width="29.5" customWidth="1" style="32" min="6893" max="6893"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6894" max="6894"/>
     <col width="8" customWidth="1" style="32" min="6895" max="6895"/>
-    <col width="9.140625" customWidth="1" style="32" min="6896" max="6896"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6897" max="6897"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6898" max="6898"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6899" max="7145"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6896" max="6896"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6897" max="6897"/>
+    <col width="13.5" customWidth="1" style="32" min="6898" max="6898"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6899" max="7145"/>
     <col width="5" customWidth="1" style="32" min="7146" max="7146"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7147" max="7147"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7148" max="7148"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7149" max="7149"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7150" max="7150"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7147" max="7147"/>
+    <col width="6.5" customWidth="1" style="32" min="7148" max="7148"/>
+    <col width="29.5" customWidth="1" style="32" min="7149" max="7149"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7150" max="7150"/>
     <col width="8" customWidth="1" style="32" min="7151" max="7151"/>
-    <col width="9.140625" customWidth="1" style="32" min="7152" max="7152"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7153" max="7153"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7154" max="7154"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7155" max="7401"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7152" max="7152"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7153" max="7153"/>
+    <col width="13.5" customWidth="1" style="32" min="7154" max="7154"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7155" max="7401"/>
     <col width="5" customWidth="1" style="32" min="7402" max="7402"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7403" max="7403"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7404" max="7404"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7405" max="7405"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7406" max="7406"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7403" max="7403"/>
+    <col width="6.5" customWidth="1" style="32" min="7404" max="7404"/>
+    <col width="29.5" customWidth="1" style="32" min="7405" max="7405"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7406" max="7406"/>
     <col width="8" customWidth="1" style="32" min="7407" max="7407"/>
-    <col width="9.140625" customWidth="1" style="32" min="7408" max="7408"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7409" max="7409"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7410" max="7410"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7411" max="7657"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7408" max="7408"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7409" max="7409"/>
+    <col width="13.5" customWidth="1" style="32" min="7410" max="7410"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7411" max="7657"/>
     <col width="5" customWidth="1" style="32" min="7658" max="7658"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7659" max="7659"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7660" max="7660"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7661" max="7661"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7662" max="7662"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7659" max="7659"/>
+    <col width="6.5" customWidth="1" style="32" min="7660" max="7660"/>
+    <col width="29.5" customWidth="1" style="32" min="7661" max="7661"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7662" max="7662"/>
     <col width="8" customWidth="1" style="32" min="7663" max="7663"/>
-    <col width="9.140625" customWidth="1" style="32" min="7664" max="7664"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7665" max="7665"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7666" max="7666"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7667" max="7913"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7664" max="7664"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7665" max="7665"/>
+    <col width="13.5" customWidth="1" style="32" min="7666" max="7666"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7667" max="7913"/>
     <col width="5" customWidth="1" style="32" min="7914" max="7914"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7915" max="7915"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7916" max="7916"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7917" max="7917"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7918" max="7918"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7915" max="7915"/>
+    <col width="6.5" customWidth="1" style="32" min="7916" max="7916"/>
+    <col width="29.5" customWidth="1" style="32" min="7917" max="7917"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7918" max="7918"/>
     <col width="8" customWidth="1" style="32" min="7919" max="7919"/>
-    <col width="9.140625" customWidth="1" style="32" min="7920" max="7920"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7921" max="7921"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7922" max="7922"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7923" max="8169"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7920" max="7920"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7921" max="7921"/>
+    <col width="13.5" customWidth="1" style="32" min="7922" max="7922"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7923" max="8169"/>
     <col width="5" customWidth="1" style="32" min="8170" max="8170"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8171" max="8171"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8172" max="8172"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8173" max="8173"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8174" max="8174"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8171" max="8171"/>
+    <col width="6.5" customWidth="1" style="32" min="8172" max="8172"/>
+    <col width="29.5" customWidth="1" style="32" min="8173" max="8173"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8174" max="8174"/>
     <col width="8" customWidth="1" style="32" min="8175" max="8175"/>
-    <col width="9.140625" customWidth="1" style="32" min="8176" max="8176"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8177" max="8177"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8178" max="8178"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8179" max="8425"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8176" max="8176"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8177" max="8177"/>
+    <col width="13.5" customWidth="1" style="32" min="8178" max="8178"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8179" max="8425"/>
     <col width="5" customWidth="1" style="32" min="8426" max="8426"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8427" max="8427"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8428" max="8428"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8429" max="8429"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8430" max="8430"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8427" max="8427"/>
+    <col width="6.5" customWidth="1" style="32" min="8428" max="8428"/>
+    <col width="29.5" customWidth="1" style="32" min="8429" max="8429"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8430" max="8430"/>
     <col width="8" customWidth="1" style="32" min="8431" max="8431"/>
-    <col width="9.140625" customWidth="1" style="32" min="8432" max="8432"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8433" max="8433"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8434" max="8434"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8435" max="8681"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8432" max="8432"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8433" max="8433"/>
+    <col width="13.5" customWidth="1" style="32" min="8434" max="8434"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8435" max="8681"/>
     <col width="5" customWidth="1" style="32" min="8682" max="8682"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8683" max="8683"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8684" max="8684"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8685" max="8685"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8686" max="8686"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8683" max="8683"/>
+    <col width="6.5" customWidth="1" style="32" min="8684" max="8684"/>
+    <col width="29.5" customWidth="1" style="32" min="8685" max="8685"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8686" max="8686"/>
     <col width="8" customWidth="1" style="32" min="8687" max="8687"/>
-    <col width="9.140625" customWidth="1" style="32" min="8688" max="8688"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8689" max="8689"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8690" max="8690"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8691" max="8937"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8688" max="8688"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8689" max="8689"/>
+    <col width="13.5" customWidth="1" style="32" min="8690" max="8690"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8691" max="8937"/>
     <col width="5" customWidth="1" style="32" min="8938" max="8938"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8939" max="8939"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8940" max="8940"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8941" max="8941"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8942" max="8942"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8939" max="8939"/>
+    <col width="6.5" customWidth="1" style="32" min="8940" max="8940"/>
+    <col width="29.5" customWidth="1" style="32" min="8941" max="8941"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8942" max="8942"/>
     <col width="8" customWidth="1" style="32" min="8943" max="8943"/>
-    <col width="9.140625" customWidth="1" style="32" min="8944" max="8944"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8945" max="8945"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8946" max="8946"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8947" max="9193"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8944" max="8944"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8945" max="8945"/>
+    <col width="13.5" customWidth="1" style="32" min="8946" max="8946"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8947" max="9193"/>
     <col width="5" customWidth="1" style="32" min="9194" max="9194"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9195" max="9195"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9196" max="9196"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9197" max="9197"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9198" max="9198"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9195" max="9195"/>
+    <col width="6.5" customWidth="1" style="32" min="9196" max="9196"/>
+    <col width="29.5" customWidth="1" style="32" min="9197" max="9197"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9198" max="9198"/>
     <col width="8" customWidth="1" style="32" min="9199" max="9199"/>
-    <col width="9.140625" customWidth="1" style="32" min="9200" max="9200"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9201" max="9201"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9202" max="9202"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9203" max="9449"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9200" max="9200"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9201" max="9201"/>
+    <col width="13.5" customWidth="1" style="32" min="9202" max="9202"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9203" max="9449"/>
     <col width="5" customWidth="1" style="32" min="9450" max="9450"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9451" max="9451"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9452" max="9452"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9453" max="9453"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9454" max="9454"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9451" max="9451"/>
+    <col width="6.5" customWidth="1" style="32" min="9452" max="9452"/>
+    <col width="29.5" customWidth="1" style="32" min="9453" max="9453"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9454" max="9454"/>
     <col width="8" customWidth="1" style="32" min="9455" max="9455"/>
-    <col width="9.140625" customWidth="1" style="32" min="9456" max="9456"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9457" max="9457"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9458" max="9458"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9459" max="9705"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9456" max="9456"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9457" max="9457"/>
+    <col width="13.5" customWidth="1" style="32" min="9458" max="9458"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9459" max="9705"/>
     <col width="5" customWidth="1" style="32" min="9706" max="9706"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9707" max="9707"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9708" max="9708"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9709" max="9709"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9710" max="9710"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9707" max="9707"/>
+    <col width="6.5" customWidth="1" style="32" min="9708" max="9708"/>
+    <col width="29.5" customWidth="1" style="32" min="9709" max="9709"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9710" max="9710"/>
     <col width="8" customWidth="1" style="32" min="9711" max="9711"/>
-    <col width="9.140625" customWidth="1" style="32" min="9712" max="9712"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9713" max="9713"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9714" max="9714"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9715" max="9961"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9712" max="9712"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9713" max="9713"/>
+    <col width="13.5" customWidth="1" style="32" min="9714" max="9714"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9715" max="9961"/>
     <col width="5" customWidth="1" style="32" min="9962" max="9962"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9963" max="9963"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9964" max="9964"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9965" max="9965"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9966" max="9966"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9963" max="9963"/>
+    <col width="6.5" customWidth="1" style="32" min="9964" max="9964"/>
+    <col width="29.5" customWidth="1" style="32" min="9965" max="9965"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9966" max="9966"/>
     <col width="8" customWidth="1" style="32" min="9967" max="9967"/>
-    <col width="9.140625" customWidth="1" style="32" min="9968" max="9968"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9969" max="9969"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9970" max="9970"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9971" max="10217"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9968" max="9968"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9969" max="9969"/>
+    <col width="13.5" customWidth="1" style="32" min="9970" max="9970"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9971" max="10217"/>
     <col width="5" customWidth="1" style="32" min="10218" max="10218"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10219" max="10219"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10220" max="10220"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10221" max="10221"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10222" max="10222"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10219" max="10219"/>
+    <col width="6.5" customWidth="1" style="32" min="10220" max="10220"/>
+    <col width="29.5" customWidth="1" style="32" min="10221" max="10221"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10222" max="10222"/>
     <col width="8" customWidth="1" style="32" min="10223" max="10223"/>
-    <col width="9.140625" customWidth="1" style="32" min="10224" max="10224"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10225" max="10225"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10226" max="10226"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10227" max="10473"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10224" max="10224"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10225" max="10225"/>
+    <col width="13.5" customWidth="1" style="32" min="10226" max="10226"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10227" max="10473"/>
     <col width="5" customWidth="1" style="32" min="10474" max="10474"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10475" max="10475"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10476" max="10476"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10477" max="10477"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10478" max="10478"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10475" max="10475"/>
+    <col width="6.5" customWidth="1" style="32" min="10476" max="10476"/>
+    <col width="29.5" customWidth="1" style="32" min="10477" max="10477"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10478" max="10478"/>
     <col width="8" customWidth="1" style="32" min="10479" max="10479"/>
-    <col width="9.140625" customWidth="1" style="32" min="10480" max="10480"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10481" max="10481"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10482" max="10482"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10483" max="10729"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10480" max="10480"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10481" max="10481"/>
+    <col width="13.5" customWidth="1" style="32" min="10482" max="10482"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10483" max="10729"/>
     <col width="5" customWidth="1" style="32" min="10730" max="10730"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10731" max="10731"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10732" max="10732"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10733" max="10733"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10734" max="10734"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10731" max="10731"/>
+    <col width="6.5" customWidth="1" style="32" min="10732" max="10732"/>
+    <col width="29.5" customWidth="1" style="32" min="10733" max="10733"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10734" max="10734"/>
     <col width="8" customWidth="1" style="32" min="10735" max="10735"/>
-    <col width="9.140625" customWidth="1" style="32" min="10736" max="10736"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10737" max="10737"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10738" max="10738"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10739" max="10985"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10736" max="10736"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10737" max="10737"/>
+    <col width="13.5" customWidth="1" style="32" min="10738" max="10738"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10739" max="10985"/>
     <col width="5" customWidth="1" style="32" min="10986" max="10986"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10987" max="10987"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10988" max="10988"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10989" max="10989"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10990" max="10990"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10987" max="10987"/>
+    <col width="6.5" customWidth="1" style="32" min="10988" max="10988"/>
+    <col width="29.5" customWidth="1" style="32" min="10989" max="10989"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10990" max="10990"/>
     <col width="8" customWidth="1" style="32" min="10991" max="10991"/>
-    <col width="9.140625" customWidth="1" style="32" min="10992" max="10992"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10993" max="10993"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10994" max="10994"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10995" max="11241"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10992" max="10992"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10993" max="10993"/>
+    <col width="13.5" customWidth="1" style="32" min="10994" max="10994"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10995" max="11241"/>
     <col width="5" customWidth="1" style="32" min="11242" max="11242"/>
-    <col width="33.28515625" customWidth="1" style="32" min="11243" max="11243"/>
-    <col width="6.42578125" customWidth="1" style="32" min="11244" max="11244"/>
-    <col width="29.42578125" customWidth="1" style="32" min="11245" max="11245"/>
-    <col width="23.7109375" customWidth="1" style="32" min="11246" max="11246"/>
+    <col width="33.33203125" customWidth="1" style="32" min="11243" max="11243"/>
+    <col width="6.5" customWidth="1" style="32" min="11244" max="11244"/>
+    <col width="29.5" customWidth="1" style="32" min="11245" max="11245"/>
+    <col width="23.6640625" customWidth="1" style="32" min="11246" max="11246"/>
     <col width="8" customWidth="1" style="32" min="11247" max="11247"/>
-    <col width="9.140625" customWidth="1" style="32" min="11248" max="11248"/>
-    <col width="13.7109375" customWidth="1" style="32" min="11249" max="11249"/>
-    <col width="13.42578125" customWidth="1" style="32" min="11250" max="11250"/>
-    <col width="8.7109375" customWidth="1" style="32" min="11251" max="11497"/>
+    <col width="9.1640625" customWidth="1" style="32" min="11248" max="11248"/>
+    <col width="13.6640625" customWidth="1" style="32" min="11249" max="11249"/>
+    <col width="13.5" customWidth="1" style="32" min="11250" max="11250"/>
+    <col width="8.6640625" customWidth="1" style="32" min="11251" max="11497"/>
     <col width="5" customWidth="1" style="32" min="11498" max="11498"/>
-    <col width="33.28515625" customWidth="1" style="32" min="11499" max="11499"/>
-    <col width="6.42578125" customWidth="1" style="32" min="11500" max="11500"/>
-    <col width="29.42578125" customWidth="1" style="32" min="11501" max="11501"/>
-    <col width="23.7109375" customWidth="1" style="32" min="11502" max="11502"/>
+    <col width="33.33203125" customWidth="1" style="32" min="11499" max="11499"/>
+    <col width="6.5" customWidth="1" style="32" min="11500" max="11500"/>
+    <col width="29.5" customWidth="1" style="32" min="11501" max="11501"/>
+    <col width="23.6640625" customWidth="1" style="32" min="11502" max="11502"/>
     <col width="8" customWidth="1" style="32" min="11503" max="11503"/>
-    <col width="9.140625" customWidth="1" style="32" min="11504" max="11504"/>
-    <col width="13.7109375" customWidth="1" style="32" min="11505" max="11505"/>
-    <col width="13.42578125" customWidth="1" style="32" min="11506" max="11506"/>
-    <col width="8.7109375" customWidth="1" style="32" min="11507" max="11753"/>
+    <col width="9.1640625" customWidth="1" style="32" min="11504" max="11504"/>
+    <col width="13.6640625" customWidth="1" style="32" min="11505" max="11505"/>
+    <col width="13.5" customWidth="1" style="32" min="11506" max="11506"/>
+    <col width="8.6640625" customWidth="1" style="32" min="11507" max="11753"/>
     <col width="5" customWidth="1" style="32" min="11754" max="11754"/>
-    <col width="33.28515625" customWidth="1" style="32" min="11755" max="11755"/>
-    <col width="6.42578125" customWidth="1" style="32" min="11756" max="11756"/>
-    <col width="29.42578125" customWidth="1" style="32" min="11757" max="11757"/>
-    <col width="23.7109375" customWidth="1" style="32" min="11758" max="11758"/>
+    <col width="33.33203125" customWidth="1" style="32" min="11755" max="11755"/>
+    <col width="6.5" customWidth="1" style="32" min="11756" max="11756"/>
+    <col width="29.5" customWidth="1" style="32" min="11757" max="11757"/>
+    <col width="23.6640625" customWidth="1" style="32" min="11758" max="11758"/>
     <col width="8" customWidth="1" style="32" min="11759" max="11759"/>
-    <col width="9.140625" customWidth="1" style="32" min="11760" max="11760"/>
-    <col width="13.7109375" customWidth="1" style="32" min="11761" max="11761"/>
-    <col width="13.42578125" customWidth="1" style="32" min="11762" max="11762"/>
-    <col width="8.7109375" customWidth="1" style="32" min="11763" max="12009"/>
+    <col width="9.1640625" customWidth="1" style="32" min="11760" max="11760"/>
+    <col width="13.6640625" customWidth="1" style="32" min="11761" max="11761"/>
+    <col width="13.5" customWidth="1" style="32" min="11762" max="11762"/>
+    <col width="8.6640625" customWidth="1" style="32" min="11763" max="12009"/>
     <col width="5" customWidth="1" style="32" min="12010" max="12010"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12011" max="12011"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12012" max="12012"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12013" max="12013"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12014" max="12014"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12011" max="12011"/>
+    <col width="6.5" customWidth="1" style="32" min="12012" max="12012"/>
+    <col width="29.5" customWidth="1" style="32" min="12013" max="12013"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12014" max="12014"/>
     <col width="8" customWidth="1" style="32" min="12015" max="12015"/>
-    <col width="9.140625" customWidth="1" style="32" min="12016" max="12016"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12017" max="12017"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12018" max="12018"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12019" max="12265"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12016" max="12016"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12017" max="12017"/>
+    <col width="13.5" customWidth="1" style="32" min="12018" max="12018"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12019" max="12265"/>
     <col width="5" customWidth="1" style="32" min="12266" max="12266"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12267" max="12267"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12268" max="12268"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12269" max="12269"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12270" max="12270"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12267" max="12267"/>
+    <col width="6.5" customWidth="1" style="32" min="12268" max="12268"/>
+    <col width="29.5" customWidth="1" style="32" min="12269" max="12269"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12270" max="12270"/>
     <col width="8" customWidth="1" style="32" min="12271" max="12271"/>
-    <col width="9.140625" customWidth="1" style="32" min="12272" max="12272"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12273" max="12273"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12274" max="12274"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12275" max="12521"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12272" max="12272"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12273" max="12273"/>
+    <col width="13.5" customWidth="1" style="32" min="12274" max="12274"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12275" max="12521"/>
     <col width="5" customWidth="1" style="32" min="12522" max="12522"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12523" max="12523"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12524" max="12524"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12525" max="12525"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12526" max="12526"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12523" max="12523"/>
+    <col width="6.5" customWidth="1" style="32" min="12524" max="12524"/>
+    <col width="29.5" customWidth="1" style="32" min="12525" max="12525"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12526" max="12526"/>
     <col width="8" customWidth="1" style="32" min="12527" max="12527"/>
-    <col width="9.140625" customWidth="1" style="32" min="12528" max="12528"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12529" max="12529"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12530" max="12530"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12531" max="12777"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12528" max="12528"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12529" max="12529"/>
+    <col width="13.5" customWidth="1" style="32" min="12530" max="12530"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12531" max="12777"/>
     <col width="5" customWidth="1" style="32" min="12778" max="12778"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12779" max="12779"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12780" max="12780"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12781" max="12781"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12782" max="12782"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12779" max="12779"/>
+    <col width="6.5" customWidth="1" style="32" min="12780" max="12780"/>
+    <col width="29.5" customWidth="1" style="32" min="12781" max="12781"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12782" max="12782"/>
     <col width="8" customWidth="1" style="32" min="12783" max="12783"/>
-    <col width="9.140625" customWidth="1" style="32" min="12784" max="12784"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12785" max="12785"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12786" max="12786"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12787" max="13033"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12784" max="12784"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12785" max="12785"/>
+    <col width="13.5" customWidth="1" style="32" min="12786" max="12786"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12787" max="13033"/>
     <col width="5" customWidth="1" style="32" min="13034" max="13034"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13035" max="13035"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13036" max="13036"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13037" max="13037"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13038" max="13038"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13035" max="13035"/>
+    <col width="6.5" customWidth="1" style="32" min="13036" max="13036"/>
+    <col width="29.5" customWidth="1" style="32" min="13037" max="13037"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13038" max="13038"/>
     <col width="8" customWidth="1" style="32" min="13039" max="13039"/>
-    <col width="9.140625" customWidth="1" style="32" min="13040" max="13040"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13041" max="13041"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13042" max="13042"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13043" max="13289"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13040" max="13040"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13041" max="13041"/>
+    <col width="13.5" customWidth="1" style="32" min="13042" max="13042"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13043" max="13289"/>
     <col width="5" customWidth="1" style="32" min="13290" max="13290"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13291" max="13291"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13292" max="13292"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13293" max="13293"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13294" max="13294"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13291" max="13291"/>
+    <col width="6.5" customWidth="1" style="32" min="13292" max="13292"/>
+    <col width="29.5" customWidth="1" style="32" min="13293" max="13293"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13294" max="13294"/>
     <col width="8" customWidth="1" style="32" min="13295" max="13295"/>
-    <col width="9.140625" customWidth="1" style="32" min="13296" max="13296"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13297" max="13297"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13298" max="13298"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13299" max="13545"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13296" max="13296"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13297" max="13297"/>
+    <col width="13.5" customWidth="1" style="32" min="13298" max="13298"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13299" max="13545"/>
     <col width="5" customWidth="1" style="32" min="13546" max="13546"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13547" max="13547"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13548" max="13548"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13549" max="13549"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13550" max="13550"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13547" max="13547"/>
+    <col width="6.5" customWidth="1" style="32" min="13548" max="13548"/>
+    <col width="29.5" customWidth="1" style="32" min="13549" max="13549"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13550" max="13550"/>
     <col width="8" customWidth="1" style="32" min="13551" max="13551"/>
-    <col width="9.140625" customWidth="1" style="32" min="13552" max="13552"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13553" max="13553"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13554" max="13554"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13555" max="13801"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13552" max="13552"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13553" max="13553"/>
+    <col width="13.5" customWidth="1" style="32" min="13554" max="13554"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13555" max="13801"/>
     <col width="5" customWidth="1" style="32" min="13802" max="13802"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13803" max="13803"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13804" max="13804"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13805" max="13805"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13806" max="13806"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13803" max="13803"/>
+    <col width="6.5" customWidth="1" style="32" min="13804" max="13804"/>
+    <col width="29.5" customWidth="1" style="32" min="13805" max="13805"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13806" max="13806"/>
     <col width="8" customWidth="1" style="32" min="13807" max="13807"/>
-    <col width="9.140625" customWidth="1" style="32" min="13808" max="13808"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13809" max="13809"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13810" max="13810"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13811" max="14057"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13808" max="13808"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13809" max="13809"/>
+    <col width="13.5" customWidth="1" style="32" min="13810" max="13810"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13811" max="14057"/>
     <col width="5" customWidth="1" style="32" min="14058" max="14058"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14059" max="14059"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14060" max="14060"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14061" max="14061"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14062" max="14062"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14059" max="14059"/>
+    <col width="6.5" customWidth="1" style="32" min="14060" max="14060"/>
+    <col width="29.5" customWidth="1" style="32" min="14061" max="14061"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14062" max="14062"/>
     <col width="8" customWidth="1" style="32" min="14063" max="14063"/>
-    <col width="9.140625" customWidth="1" style="32" min="14064" max="14064"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14065" max="14065"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14066" max="14066"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14067" max="14313"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14064" max="14064"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14065" max="14065"/>
+    <col width="13.5" customWidth="1" style="32" min="14066" max="14066"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14067" max="14313"/>
     <col width="5" customWidth="1" style="32" min="14314" max="14314"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14315" max="14315"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14316" max="14316"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14317" max="14317"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14318" max="14318"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14315" max="14315"/>
+    <col width="6.5" customWidth="1" style="32" min="14316" max="14316"/>
+    <col width="29.5" customWidth="1" style="32" min="14317" max="14317"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14318" max="14318"/>
     <col width="8" customWidth="1" style="32" min="14319" max="14319"/>
-    <col width="9.140625" customWidth="1" style="32" min="14320" max="14320"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14321" max="14321"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14322" max="14322"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14323" max="14569"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14320" max="14320"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14321" max="14321"/>
+    <col width="13.5" customWidth="1" style="32" min="14322" max="14322"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14323" max="14569"/>
     <col width="5" customWidth="1" style="32" min="14570" max="14570"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14571" max="14571"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14572" max="14572"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14573" max="14573"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14574" max="14574"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14571" max="14571"/>
+    <col width="6.5" customWidth="1" style="32" min="14572" max="14572"/>
+    <col width="29.5" customWidth="1" style="32" min="14573" max="14573"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14574" max="14574"/>
     <col width="8" customWidth="1" style="32" min="14575" max="14575"/>
-    <col width="9.140625" customWidth="1" style="32" min="14576" max="14576"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14577" max="14577"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14578" max="14578"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14579" max="14825"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14576" max="14576"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14577" max="14577"/>
+    <col width="13.5" customWidth="1" style="32" min="14578" max="14578"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14579" max="14825"/>
     <col width="5" customWidth="1" style="32" min="14826" max="14826"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14827" max="14827"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14828" max="14828"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14829" max="14829"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14830" max="14830"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14827" max="14827"/>
+    <col width="6.5" customWidth="1" style="32" min="14828" max="14828"/>
+    <col width="29.5" customWidth="1" style="32" min="14829" max="14829"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14830" max="14830"/>
     <col width="8" customWidth="1" style="32" min="14831" max="14831"/>
-    <col width="9.140625" customWidth="1" style="32" min="14832" max="14832"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14833" max="14833"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14834" max="14834"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14835" max="15081"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14832" max="14832"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14833" max="14833"/>
+    <col width="13.5" customWidth="1" style="32" min="14834" max="14834"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14835" max="15081"/>
     <col width="5" customWidth="1" style="32" min="15082" max="15082"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15083" max="15083"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15084" max="15084"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15085" max="15085"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15086" max="15086"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15083" max="15083"/>
+    <col width="6.5" customWidth="1" style="32" min="15084" max="15084"/>
+    <col width="29.5" customWidth="1" style="32" min="15085" max="15085"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15086" max="15086"/>
     <col width="8" customWidth="1" style="32" min="15087" max="15087"/>
-    <col width="9.140625" customWidth="1" style="32" min="15088" max="15088"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15089" max="15089"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15090" max="15090"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15091" max="15337"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15088" max="15088"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15089" max="15089"/>
+    <col width="13.5" customWidth="1" style="32" min="15090" max="15090"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15091" max="15337"/>
     <col width="5" customWidth="1" style="32" min="15338" max="15338"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15339" max="15339"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15340" max="15340"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15341" max="15341"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15342" max="15342"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15339" max="15339"/>
+    <col width="6.5" customWidth="1" style="32" min="15340" max="15340"/>
+    <col width="29.5" customWidth="1" style="32" min="15341" max="15341"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15342" max="15342"/>
     <col width="8" customWidth="1" style="32" min="15343" max="15343"/>
-    <col width="9.140625" customWidth="1" style="32" min="15344" max="15344"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15345" max="15345"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15346" max="15346"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15347" max="15593"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15344" max="15344"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15345" max="15345"/>
+    <col width="13.5" customWidth="1" style="32" min="15346" max="15346"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15347" max="15593"/>
     <col width="5" customWidth="1" style="32" min="15594" max="15594"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15595" max="15595"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15596" max="15596"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15597" max="15597"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15598" max="15598"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15595" max="15595"/>
+    <col width="6.5" customWidth="1" style="32" min="15596" max="15596"/>
+    <col width="29.5" customWidth="1" style="32" min="15597" max="15597"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15598" max="15598"/>
     <col width="8" customWidth="1" style="32" min="15599" max="15599"/>
-    <col width="9.140625" customWidth="1" style="32" min="15600" max="15600"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15601" max="15601"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15602" max="15602"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15603" max="15849"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15600" max="15600"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15601" max="15601"/>
+    <col width="13.5" customWidth="1" style="32" min="15602" max="15602"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15603" max="15849"/>
     <col width="5" customWidth="1" style="32" min="15850" max="15850"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15851" max="15851"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15852" max="15852"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15853" max="15853"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15854" max="15854"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15851" max="15851"/>
+    <col width="6.5" customWidth="1" style="32" min="15852" max="15852"/>
+    <col width="29.5" customWidth="1" style="32" min="15853" max="15853"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15854" max="15854"/>
     <col width="8" customWidth="1" style="32" min="15855" max="15855"/>
-    <col width="9.140625" customWidth="1" style="32" min="15856" max="15856"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15857" max="15857"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15858" max="15858"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15859" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15856" max="15856"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15857" max="15857"/>
+    <col width="13.5" customWidth="1" style="32" min="15858" max="15858"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15859" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="75" customFormat="1" customHeight="1" s="21">
       <c r="C1" s="21" t="n"/>
-      <c r="D1" s="179" t="inlineStr">
+      <c r="D1" s="136" t="inlineStr">
         <is>
           <t>KPI NĂM CỦA NHÂN VIÊN 
 NĂM 2020</t>
@@ -5871,24 +5871,24 @@
       </c>
     </row>
     <row r="2" ht="23.25" customFormat="1" customHeight="1" s="22">
-      <c r="B2" s="203" t="inlineStr">
+      <c r="B2" s="137" t="inlineStr">
         <is>
           <t>Họ và tên:</t>
         </is>
       </c>
-      <c r="D2" s="188" t="inlineStr">
+      <c r="D2" s="147" t="inlineStr">
         <is>
           <t>VƯƠNG KIẾN THANH</t>
         </is>
       </c>
       <c r="E2" s="208" t="n"/>
       <c r="F2" s="208" t="n"/>
-      <c r="G2" s="201" t="inlineStr">
+      <c r="G2" s="132" t="inlineStr">
         <is>
           <t>Chức danh:</t>
         </is>
       </c>
-      <c r="J2" s="189" t="inlineStr">
+      <c r="J2" s="131" t="inlineStr">
         <is>
           <t>Bác sĩ</t>
         </is>
@@ -5897,24 +5897,24 @@
       <c r="L2" s="209" t="n"/>
     </row>
     <row r="3" ht="23.25" customFormat="1" customHeight="1" s="22">
-      <c r="B3" s="203" t="inlineStr">
+      <c r="B3" s="137" t="inlineStr">
         <is>
           <t>Mã nhân viên:</t>
         </is>
       </c>
-      <c r="D3" s="189" t="inlineStr">
+      <c r="D3" s="131" t="inlineStr">
         <is>
           <t>00698</t>
         </is>
       </c>
       <c r="E3" s="209" t="n"/>
       <c r="F3" s="209" t="n"/>
-      <c r="G3" s="202" t="inlineStr">
+      <c r="G3" s="134" t="inlineStr">
         <is>
           <t>Phòng ban/ Bộ phận:</t>
         </is>
       </c>
-      <c r="J3" s="189" t="inlineStr">
+      <c r="J3" s="131" t="inlineStr">
         <is>
           <t>Ngoại thần kinh</t>
         </is>
@@ -5935,7 +5935,7 @@
       <c r="K4" s="28" t="n"/>
       <c r="L4" s="27" t="n"/>
     </row>
-    <row r="5" ht="19.9" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
+    <row r="5" ht="20" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
       <c r="B5" s="77" t="inlineStr">
         <is>
           <t xml:space="preserve">I </t>
@@ -5953,7 +5953,7 @@
       <c r="H5" s="66" t="n"/>
       <c r="I5" s="66" t="n"/>
       <c r="J5" s="65" t="n"/>
-      <c r="K5" s="151" t="n"/>
+      <c r="K5" s="130" t="n"/>
       <c r="L5" s="78">
         <f>L7+L8</f>
         <v/>
@@ -5965,7 +5965,7 @@
           <t>Stt</t>
         </is>
       </c>
-      <c r="C6" s="183" t="inlineStr">
+      <c r="C6" s="142" t="inlineStr">
         <is>
           <t>Nội dung</t>
         </is>
@@ -5973,12 +5973,12 @@
       <c r="D6" s="210" t="n"/>
       <c r="E6" s="210" t="n"/>
       <c r="F6" s="210" t="n"/>
-      <c r="G6" s="172" t="inlineStr">
+      <c r="G6" s="148" t="inlineStr">
         <is>
           <t>Trọng số</t>
         </is>
       </c>
-      <c r="H6" s="183" t="inlineStr">
+      <c r="H6" s="142" t="inlineStr">
         <is>
           <t>Kế hoạch</t>
         </is>
@@ -5988,12 +5988,12 @@
           <t>Thực hiện</t>
         </is>
       </c>
-      <c r="J6" s="183" t="inlineStr">
+      <c r="J6" s="142" t="inlineStr">
         <is>
           <t>Hoàn thành</t>
         </is>
       </c>
-      <c r="K6" s="183" t="inlineStr">
+      <c r="K6" s="142" t="inlineStr">
         <is>
           <t>Ghi chú</t>
         </is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="19.9" customHeight="1">
+    <row r="7" ht="20" customHeight="1">
       <c r="B7" s="81" t="n">
         <v>1</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="74" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="J7" s="41">
         <f>I7/H7</f>
@@ -6035,7 +6035,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="19.9" customHeight="1" thickBot="1">
+    <row r="8" ht="20" customHeight="1" thickBot="1">
       <c r="B8" s="83" t="n">
         <v>2</v>
       </c>
@@ -6081,10 +6081,10 @@
       <c r="E9" s="62" t="n"/>
       <c r="F9" s="64" t="n"/>
       <c r="G9" s="62" t="n"/>
-      <c r="H9" s="151" t="n"/>
+      <c r="H9" s="130" t="n"/>
       <c r="I9" s="217" t="n"/>
       <c r="J9" s="65" t="n"/>
-      <c r="K9" s="151" t="n"/>
+      <c r="K9" s="130" t="n"/>
       <c r="L9" s="85">
         <f>SUM(L10:L12)</f>
         <v/>
@@ -6106,7 +6106,7 @@
           <t>Trọng số</t>
         </is>
       </c>
-      <c r="E10" s="183" t="inlineStr">
+      <c r="E10" s="142" t="inlineStr">
         <is>
           <t>Tiêu chí đánh giá</t>
         </is>
@@ -6205,7 +6205,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="19.9" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
+    <row r="13" ht="20" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
       <c r="B13" s="77" t="inlineStr">
         <is>
           <t>III</t>
@@ -6220,22 +6220,22 @@
       <c r="E13" s="100" t="n"/>
       <c r="F13" s="99" t="n"/>
       <c r="G13" s="100" t="n"/>
-      <c r="H13" s="151" t="n"/>
+      <c r="H13" s="130" t="n"/>
       <c r="I13" s="217" t="n"/>
       <c r="J13" s="65" t="n"/>
-      <c r="K13" s="151" t="n"/>
+      <c r="K13" s="130" t="n"/>
       <c r="L13" s="78">
         <f>SUM(L15:L22)</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="25.9" customFormat="1" customHeight="1" s="34" thickTop="1">
+    <row r="14" ht="26" customFormat="1" customHeight="1" s="34" thickTop="1">
       <c r="B14" s="88" t="inlineStr">
         <is>
           <t>Stt</t>
         </is>
       </c>
-      <c r="C14" s="172" t="inlineStr">
+      <c r="C14" s="148" t="inlineStr">
         <is>
           <t xml:space="preserve">               Các tiêu chí mong đợi</t>
         </is>
@@ -6243,7 +6243,7 @@
       <c r="D14" s="222" t="n"/>
       <c r="E14" s="222" t="n"/>
       <c r="F14" s="222" t="n"/>
-      <c r="G14" s="172" t="inlineStr">
+      <c r="G14" s="148" t="inlineStr">
         <is>
           <t>Cần cải thiện</t>
         </is>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="15" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B15" s="90" t="n">
         <v>1</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="16" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B16" s="91">
         <f>B15+1</f>
         <v/>
@@ -6341,7 +6341,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="17" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B17" s="91">
         <f>B16+1</f>
         <v/>
@@ -6373,7 +6373,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="18" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B18" s="91">
         <f>B17+1</f>
         <v/>
@@ -6405,7 +6405,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="19" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B19" s="91">
         <f>B18+1</f>
         <v/>
@@ -6437,7 +6437,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="20" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B20" s="91">
         <f>B19+1</f>
         <v/>
@@ -6469,7 +6469,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="21" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B21" s="91">
         <f>B20+1</f>
         <v/>
@@ -6501,7 +6501,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" ht="43.9" customFormat="1" customHeight="1" s="36" thickBot="1">
+    <row r="22" ht="44" customFormat="1" customHeight="1" s="36" thickBot="1">
       <c r="B22" s="92">
         <f>B21+1</f>
         <v/>
@@ -6533,7 +6533,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" ht="19.9" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
+    <row r="23" ht="20" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
       <c r="B23" s="77" t="inlineStr">
         <is>
           <t>IV</t>
@@ -6548,10 +6548,10 @@
       <c r="E23" s="62" t="n"/>
       <c r="F23" s="64" t="n"/>
       <c r="G23" s="62" t="n"/>
-      <c r="H23" s="151" t="n"/>
+      <c r="H23" s="130" t="n"/>
       <c r="I23" s="217" t="n"/>
       <c r="J23" s="65" t="n"/>
-      <c r="K23" s="151" t="n"/>
+      <c r="K23" s="130" t="n"/>
       <c r="L23" s="93">
         <f>SUM(I25:I27)</f>
         <v/>
@@ -6563,7 +6563,7 @@
           <t>Stt</t>
         </is>
       </c>
-      <c r="C24" s="154" t="inlineStr">
+      <c r="C24" s="192" t="inlineStr">
         <is>
           <t>Nội dung</t>
         </is>
@@ -6571,7 +6571,7 @@
       <c r="D24" s="222" t="n"/>
       <c r="E24" s="222" t="n"/>
       <c r="F24" s="222" t="n"/>
-      <c r="G24" s="172" t="inlineStr">
+      <c r="G24" s="148" t="inlineStr">
         <is>
           <t>Tổng điểm</t>
         </is>
@@ -6586,7 +6586,7 @@
           <t>Kết quả KPI</t>
         </is>
       </c>
-      <c r="J24" s="153" t="inlineStr">
+      <c r="J24" s="191" t="inlineStr">
         <is>
           <t>Danh hiệu</t>
         </is>
@@ -6594,7 +6594,7 @@
       <c r="K24" s="232" t="n"/>
       <c r="L24" s="233" t="n"/>
     </row>
-    <row r="25" ht="19.9" customFormat="1" customHeight="1" s="36" thickTop="1">
+    <row r="25" ht="20" customFormat="1" customHeight="1" s="36" thickTop="1">
       <c r="B25" s="90" t="n">
         <v>1</v>
       </c>
@@ -6624,7 +6624,7 @@
       <c r="K25" s="236" t="n"/>
       <c r="L25" s="237" t="n"/>
     </row>
-    <row r="26" ht="19.9" customFormat="1" customHeight="1" s="36">
+    <row r="26" ht="20" customFormat="1" customHeight="1" s="36">
       <c r="B26" s="91">
         <f>B25+1</f>
         <v/>
@@ -6651,7 +6651,7 @@
       <c r="J26" s="239" t="n"/>
       <c r="L26" s="240" t="n"/>
     </row>
-    <row r="27" ht="19.9" customFormat="1" customHeight="1" s="36" thickBot="1">
+    <row r="27" ht="20" customFormat="1" customHeight="1" s="36" thickBot="1">
       <c r="B27" s="92">
         <f>B26+1</f>
         <v/>
@@ -6679,7 +6679,7 @@
       <c r="K27" s="232" t="n"/>
       <c r="L27" s="233" t="n"/>
     </row>
-    <row r="28" ht="19.9" customFormat="1" customHeight="1" s="60" thickTop="1">
+    <row r="28" ht="20" customFormat="1" customHeight="1" s="60" thickTop="1">
       <c r="B28" s="94" t="inlineStr">
         <is>
           <t>V</t>
@@ -6700,7 +6700,7 @@
       <c r="K28" s="68" t="n"/>
       <c r="L28" s="95" t="n"/>
     </row>
-    <row r="29" ht="76.90000000000001" customFormat="1" customHeight="1" s="44">
+    <row r="29" ht="77" customFormat="1" customHeight="1" s="44">
       <c r="B29" s="96" t="n">
         <v>1</v>
       </c>
@@ -6723,7 +6723,7 @@
       <c r="K29" s="247" t="n"/>
       <c r="L29" s="248" t="n"/>
     </row>
-    <row r="30" ht="79.15000000000001" customFormat="1" customHeight="1" s="44">
+    <row r="30" ht="79.25" customFormat="1" customHeight="1" s="44">
       <c r="B30" s="97" t="n">
         <v>2</v>
       </c>
@@ -6871,27 +6871,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="J25:L27"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="I38:L38"/>
     <mergeCell ref="C32:E32"/>
@@ -6902,15 +6890,27 @@
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="G30:L30"/>
     <mergeCell ref="G29:L29"/>
-    <mergeCell ref="J25:L27"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.15748031496063" top="0.29" bottom="0.17" header="0.18" footer="0.22"/>
@@ -6930,647 +6930,647 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col hidden="1" width="1.140625" customWidth="1" style="32" min="1" max="1"/>
-    <col width="3.42578125" customWidth="1" style="32" min="2" max="2"/>
+    <col hidden="1" width="1.1640625" customWidth="1" style="32" min="1" max="1"/>
+    <col width="3.5" customWidth="1" style="32" min="2" max="2"/>
     <col width="53" customWidth="1" style="32" min="3" max="3"/>
-    <col width="8.42578125" customWidth="1" style="32" min="4" max="4"/>
-    <col width="10.5703125" customWidth="1" style="32" min="5" max="5"/>
-    <col width="31.42578125" customWidth="1" style="33" min="6" max="6"/>
-    <col width="9.140625" customWidth="1" style="32" min="7" max="7"/>
-    <col width="11.140625" customWidth="1" style="32" min="8" max="8"/>
-    <col width="9.7109375" customWidth="1" style="32" min="9" max="9"/>
-    <col width="10.140625" customWidth="1" style="32" min="10" max="11"/>
-    <col width="16.5703125" customWidth="1" style="33" min="12" max="12"/>
-    <col width="11.28515625" customWidth="1" style="32" min="13" max="13"/>
-    <col width="6.7109375" customWidth="1" style="32" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15" max="233"/>
+    <col width="8.5" customWidth="1" style="32" min="4" max="4"/>
+    <col width="10.5" customWidth="1" style="32" min="5" max="5"/>
+    <col width="31.5" customWidth="1" style="33" min="6" max="6"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7" max="7"/>
+    <col width="11.1640625" customWidth="1" style="32" min="8" max="8"/>
+    <col width="9.6640625" customWidth="1" style="32" min="9" max="9"/>
+    <col width="10.1640625" customWidth="1" style="32" min="10" max="11"/>
+    <col width="16.5" customWidth="1" style="33" min="12" max="12"/>
+    <col width="11.33203125" customWidth="1" style="32" min="13" max="13"/>
+    <col width="6.6640625" customWidth="1" style="32" min="14" max="14"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15" max="233"/>
     <col width="5" customWidth="1" style="32" min="234" max="234"/>
-    <col width="33.28515625" customWidth="1" style="32" min="235" max="235"/>
-    <col width="6.42578125" customWidth="1" style="32" min="236" max="236"/>
-    <col width="29.42578125" customWidth="1" style="32" min="237" max="237"/>
-    <col width="23.7109375" customWidth="1" style="32" min="238" max="238"/>
+    <col width="33.33203125" customWidth="1" style="32" min="235" max="235"/>
+    <col width="6.5" customWidth="1" style="32" min="236" max="236"/>
+    <col width="29.5" customWidth="1" style="32" min="237" max="237"/>
+    <col width="23.6640625" customWidth="1" style="32" min="238" max="238"/>
     <col width="8" customWidth="1" style="32" min="239" max="239"/>
-    <col width="9.140625" customWidth="1" style="32" min="240" max="240"/>
-    <col width="13.7109375" customWidth="1" style="32" min="241" max="241"/>
-    <col width="13.42578125" customWidth="1" style="32" min="242" max="242"/>
-    <col width="8.7109375" customWidth="1" style="32" min="243" max="489"/>
+    <col width="9.1640625" customWidth="1" style="32" min="240" max="240"/>
+    <col width="13.6640625" customWidth="1" style="32" min="241" max="241"/>
+    <col width="13.5" customWidth="1" style="32" min="242" max="242"/>
+    <col width="8.6640625" customWidth="1" style="32" min="243" max="489"/>
     <col width="5" customWidth="1" style="32" min="490" max="490"/>
-    <col width="33.28515625" customWidth="1" style="32" min="491" max="491"/>
-    <col width="6.42578125" customWidth="1" style="32" min="492" max="492"/>
-    <col width="29.42578125" customWidth="1" style="32" min="493" max="493"/>
-    <col width="23.7109375" customWidth="1" style="32" min="494" max="494"/>
+    <col width="33.33203125" customWidth="1" style="32" min="491" max="491"/>
+    <col width="6.5" customWidth="1" style="32" min="492" max="492"/>
+    <col width="29.5" customWidth="1" style="32" min="493" max="493"/>
+    <col width="23.6640625" customWidth="1" style="32" min="494" max="494"/>
     <col width="8" customWidth="1" style="32" min="495" max="495"/>
-    <col width="9.140625" customWidth="1" style="32" min="496" max="496"/>
-    <col width="13.7109375" customWidth="1" style="32" min="497" max="497"/>
-    <col width="13.42578125" customWidth="1" style="32" min="498" max="498"/>
-    <col width="8.7109375" customWidth="1" style="32" min="499" max="745"/>
+    <col width="9.1640625" customWidth="1" style="32" min="496" max="496"/>
+    <col width="13.6640625" customWidth="1" style="32" min="497" max="497"/>
+    <col width="13.5" customWidth="1" style="32" min="498" max="498"/>
+    <col width="8.6640625" customWidth="1" style="32" min="499" max="745"/>
     <col width="5" customWidth="1" style="32" min="746" max="746"/>
-    <col width="33.28515625" customWidth="1" style="32" min="747" max="747"/>
-    <col width="6.42578125" customWidth="1" style="32" min="748" max="748"/>
-    <col width="29.42578125" customWidth="1" style="32" min="749" max="749"/>
-    <col width="23.7109375" customWidth="1" style="32" min="750" max="750"/>
+    <col width="33.33203125" customWidth="1" style="32" min="747" max="747"/>
+    <col width="6.5" customWidth="1" style="32" min="748" max="748"/>
+    <col width="29.5" customWidth="1" style="32" min="749" max="749"/>
+    <col width="23.6640625" customWidth="1" style="32" min="750" max="750"/>
     <col width="8" customWidth="1" style="32" min="751" max="751"/>
-    <col width="9.140625" customWidth="1" style="32" min="752" max="752"/>
-    <col width="13.7109375" customWidth="1" style="32" min="753" max="753"/>
-    <col width="13.42578125" customWidth="1" style="32" min="754" max="754"/>
-    <col width="8.7109375" customWidth="1" style="32" min="755" max="1001"/>
+    <col width="9.1640625" customWidth="1" style="32" min="752" max="752"/>
+    <col width="13.6640625" customWidth="1" style="32" min="753" max="753"/>
+    <col width="13.5" customWidth="1" style="32" min="754" max="754"/>
+    <col width="8.6640625" customWidth="1" style="32" min="755" max="1001"/>
     <col width="5" customWidth="1" style="32" min="1002" max="1002"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1003" max="1003"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1004" max="1004"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1005" max="1005"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1006" max="1006"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1003" max="1003"/>
+    <col width="6.5" customWidth="1" style="32" min="1004" max="1004"/>
+    <col width="29.5" customWidth="1" style="32" min="1005" max="1005"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1006" max="1006"/>
     <col width="8" customWidth="1" style="32" min="1007" max="1007"/>
-    <col width="9.140625" customWidth="1" style="32" min="1008" max="1008"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1009" max="1009"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1010" max="1010"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1011" max="1257"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1008" max="1008"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1009" max="1009"/>
+    <col width="13.5" customWidth="1" style="32" min="1010" max="1010"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1011" max="1257"/>
     <col width="5" customWidth="1" style="32" min="1258" max="1258"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1259" max="1259"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1260" max="1260"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1261" max="1261"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1262" max="1262"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1259" max="1259"/>
+    <col width="6.5" customWidth="1" style="32" min="1260" max="1260"/>
+    <col width="29.5" customWidth="1" style="32" min="1261" max="1261"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1262" max="1262"/>
     <col width="8" customWidth="1" style="32" min="1263" max="1263"/>
-    <col width="9.140625" customWidth="1" style="32" min="1264" max="1264"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1265" max="1265"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1266" max="1266"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1267" max="1513"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1264" max="1264"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1265" max="1265"/>
+    <col width="13.5" customWidth="1" style="32" min="1266" max="1266"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1267" max="1513"/>
     <col width="5" customWidth="1" style="32" min="1514" max="1514"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1515" max="1515"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1516" max="1516"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1517" max="1517"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1518" max="1518"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1515" max="1515"/>
+    <col width="6.5" customWidth="1" style="32" min="1516" max="1516"/>
+    <col width="29.5" customWidth="1" style="32" min="1517" max="1517"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1518" max="1518"/>
     <col width="8" customWidth="1" style="32" min="1519" max="1519"/>
-    <col width="9.140625" customWidth="1" style="32" min="1520" max="1520"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1521" max="1521"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1522" max="1522"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1523" max="1769"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1520" max="1520"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1521" max="1521"/>
+    <col width="13.5" customWidth="1" style="32" min="1522" max="1522"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1523" max="1769"/>
     <col width="5" customWidth="1" style="32" min="1770" max="1770"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1771" max="1771"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1772" max="1772"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1773" max="1773"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1774" max="1774"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1771" max="1771"/>
+    <col width="6.5" customWidth="1" style="32" min="1772" max="1772"/>
+    <col width="29.5" customWidth="1" style="32" min="1773" max="1773"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1774" max="1774"/>
     <col width="8" customWidth="1" style="32" min="1775" max="1775"/>
-    <col width="9.140625" customWidth="1" style="32" min="1776" max="1776"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1777" max="1777"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1778" max="1778"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1779" max="2025"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1776" max="1776"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1777" max="1777"/>
+    <col width="13.5" customWidth="1" style="32" min="1778" max="1778"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1779" max="2025"/>
     <col width="5" customWidth="1" style="32" min="2026" max="2026"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2027" max="2027"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2028" max="2028"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2029" max="2029"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2030" max="2030"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2027" max="2027"/>
+    <col width="6.5" customWidth="1" style="32" min="2028" max="2028"/>
+    <col width="29.5" customWidth="1" style="32" min="2029" max="2029"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2030" max="2030"/>
     <col width="8" customWidth="1" style="32" min="2031" max="2031"/>
-    <col width="9.140625" customWidth="1" style="32" min="2032" max="2032"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2033" max="2033"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2034" max="2034"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2035" max="2281"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2032" max="2032"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2033" max="2033"/>
+    <col width="13.5" customWidth="1" style="32" min="2034" max="2034"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2035" max="2281"/>
     <col width="5" customWidth="1" style="32" min="2282" max="2282"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2283" max="2283"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2284" max="2284"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2285" max="2285"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2286" max="2286"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2283" max="2283"/>
+    <col width="6.5" customWidth="1" style="32" min="2284" max="2284"/>
+    <col width="29.5" customWidth="1" style="32" min="2285" max="2285"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2286" max="2286"/>
     <col width="8" customWidth="1" style="32" min="2287" max="2287"/>
-    <col width="9.140625" customWidth="1" style="32" min="2288" max="2288"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2289" max="2289"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2290" max="2290"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2291" max="2537"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2288" max="2288"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2289" max="2289"/>
+    <col width="13.5" customWidth="1" style="32" min="2290" max="2290"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2291" max="2537"/>
     <col width="5" customWidth="1" style="32" min="2538" max="2538"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2539" max="2539"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2540" max="2540"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2541" max="2541"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2542" max="2542"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2539" max="2539"/>
+    <col width="6.5" customWidth="1" style="32" min="2540" max="2540"/>
+    <col width="29.5" customWidth="1" style="32" min="2541" max="2541"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2542" max="2542"/>
     <col width="8" customWidth="1" style="32" min="2543" max="2543"/>
-    <col width="9.140625" customWidth="1" style="32" min="2544" max="2544"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2545" max="2545"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2546" max="2546"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2547" max="2793"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2544" max="2544"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2545" max="2545"/>
+    <col width="13.5" customWidth="1" style="32" min="2546" max="2546"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2547" max="2793"/>
     <col width="5" customWidth="1" style="32" min="2794" max="2794"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2795" max="2795"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2796" max="2796"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2797" max="2797"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2798" max="2798"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2795" max="2795"/>
+    <col width="6.5" customWidth="1" style="32" min="2796" max="2796"/>
+    <col width="29.5" customWidth="1" style="32" min="2797" max="2797"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2798" max="2798"/>
     <col width="8" customWidth="1" style="32" min="2799" max="2799"/>
-    <col width="9.140625" customWidth="1" style="32" min="2800" max="2800"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2801" max="2801"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2802" max="2802"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2803" max="3049"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2800" max="2800"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2801" max="2801"/>
+    <col width="13.5" customWidth="1" style="32" min="2802" max="2802"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2803" max="3049"/>
     <col width="5" customWidth="1" style="32" min="3050" max="3050"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3051" max="3051"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3052" max="3052"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3053" max="3053"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3054" max="3054"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3051" max="3051"/>
+    <col width="6.5" customWidth="1" style="32" min="3052" max="3052"/>
+    <col width="29.5" customWidth="1" style="32" min="3053" max="3053"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3054" max="3054"/>
     <col width="8" customWidth="1" style="32" min="3055" max="3055"/>
-    <col width="9.140625" customWidth="1" style="32" min="3056" max="3056"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3057" max="3057"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3058" max="3058"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3059" max="3305"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3056" max="3056"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3057" max="3057"/>
+    <col width="13.5" customWidth="1" style="32" min="3058" max="3058"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3059" max="3305"/>
     <col width="5" customWidth="1" style="32" min="3306" max="3306"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3307" max="3307"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3308" max="3308"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3309" max="3309"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3310" max="3310"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3307" max="3307"/>
+    <col width="6.5" customWidth="1" style="32" min="3308" max="3308"/>
+    <col width="29.5" customWidth="1" style="32" min="3309" max="3309"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3310" max="3310"/>
     <col width="8" customWidth="1" style="32" min="3311" max="3311"/>
-    <col width="9.140625" customWidth="1" style="32" min="3312" max="3312"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3313" max="3313"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3314" max="3314"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3315" max="3561"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3312" max="3312"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3313" max="3313"/>
+    <col width="13.5" customWidth="1" style="32" min="3314" max="3314"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3315" max="3561"/>
     <col width="5" customWidth="1" style="32" min="3562" max="3562"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3563" max="3563"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3564" max="3564"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3565" max="3565"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3566" max="3566"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3563" max="3563"/>
+    <col width="6.5" customWidth="1" style="32" min="3564" max="3564"/>
+    <col width="29.5" customWidth="1" style="32" min="3565" max="3565"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3566" max="3566"/>
     <col width="8" customWidth="1" style="32" min="3567" max="3567"/>
-    <col width="9.140625" customWidth="1" style="32" min="3568" max="3568"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3569" max="3569"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3570" max="3570"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3571" max="3817"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3568" max="3568"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3569" max="3569"/>
+    <col width="13.5" customWidth="1" style="32" min="3570" max="3570"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3571" max="3817"/>
     <col width="5" customWidth="1" style="32" min="3818" max="3818"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3819" max="3819"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3820" max="3820"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3821" max="3821"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3822" max="3822"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3819" max="3819"/>
+    <col width="6.5" customWidth="1" style="32" min="3820" max="3820"/>
+    <col width="29.5" customWidth="1" style="32" min="3821" max="3821"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3822" max="3822"/>
     <col width="8" customWidth="1" style="32" min="3823" max="3823"/>
-    <col width="9.140625" customWidth="1" style="32" min="3824" max="3824"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3825" max="3825"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3826" max="3826"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3827" max="4073"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3824" max="3824"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3825" max="3825"/>
+    <col width="13.5" customWidth="1" style="32" min="3826" max="3826"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3827" max="4073"/>
     <col width="5" customWidth="1" style="32" min="4074" max="4074"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4075" max="4075"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4076" max="4076"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4077" max="4077"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4078" max="4078"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4075" max="4075"/>
+    <col width="6.5" customWidth="1" style="32" min="4076" max="4076"/>
+    <col width="29.5" customWidth="1" style="32" min="4077" max="4077"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4078" max="4078"/>
     <col width="8" customWidth="1" style="32" min="4079" max="4079"/>
-    <col width="9.140625" customWidth="1" style="32" min="4080" max="4080"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4081" max="4081"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4082" max="4082"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4083" max="4329"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4080" max="4080"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4081" max="4081"/>
+    <col width="13.5" customWidth="1" style="32" min="4082" max="4082"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4083" max="4329"/>
     <col width="5" customWidth="1" style="32" min="4330" max="4330"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4331" max="4331"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4332" max="4332"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4333" max="4333"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4334" max="4334"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4331" max="4331"/>
+    <col width="6.5" customWidth="1" style="32" min="4332" max="4332"/>
+    <col width="29.5" customWidth="1" style="32" min="4333" max="4333"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4334" max="4334"/>
     <col width="8" customWidth="1" style="32" min="4335" max="4335"/>
-    <col width="9.140625" customWidth="1" style="32" min="4336" max="4336"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4337" max="4337"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4338" max="4338"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4339" max="4585"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4336" max="4336"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4337" max="4337"/>
+    <col width="13.5" customWidth="1" style="32" min="4338" max="4338"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4339" max="4585"/>
     <col width="5" customWidth="1" style="32" min="4586" max="4586"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4587" max="4587"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4588" max="4588"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4589" max="4589"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4590" max="4590"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4587" max="4587"/>
+    <col width="6.5" customWidth="1" style="32" min="4588" max="4588"/>
+    <col width="29.5" customWidth="1" style="32" min="4589" max="4589"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4590" max="4590"/>
     <col width="8" customWidth="1" style="32" min="4591" max="4591"/>
-    <col width="9.140625" customWidth="1" style="32" min="4592" max="4592"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4593" max="4593"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4594" max="4594"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4595" max="4841"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4592" max="4592"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4593" max="4593"/>
+    <col width="13.5" customWidth="1" style="32" min="4594" max="4594"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4595" max="4841"/>
     <col width="5" customWidth="1" style="32" min="4842" max="4842"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4843" max="4843"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4844" max="4844"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4845" max="4845"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4846" max="4846"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4843" max="4843"/>
+    <col width="6.5" customWidth="1" style="32" min="4844" max="4844"/>
+    <col width="29.5" customWidth="1" style="32" min="4845" max="4845"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4846" max="4846"/>
     <col width="8" customWidth="1" style="32" min="4847" max="4847"/>
-    <col width="9.140625" customWidth="1" style="32" min="4848" max="4848"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4849" max="4849"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4850" max="4850"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4851" max="5097"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4848" max="4848"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4849" max="4849"/>
+    <col width="13.5" customWidth="1" style="32" min="4850" max="4850"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4851" max="5097"/>
     <col width="5" customWidth="1" style="32" min="5098" max="5098"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5099" max="5099"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5100" max="5100"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5101" max="5101"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5102" max="5102"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5099" max="5099"/>
+    <col width="6.5" customWidth="1" style="32" min="5100" max="5100"/>
+    <col width="29.5" customWidth="1" style="32" min="5101" max="5101"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5102" max="5102"/>
     <col width="8" customWidth="1" style="32" min="5103" max="5103"/>
-    <col width="9.140625" customWidth="1" style="32" min="5104" max="5104"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5105" max="5105"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5106" max="5106"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5107" max="5353"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5104" max="5104"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5105" max="5105"/>
+    <col width="13.5" customWidth="1" style="32" min="5106" max="5106"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5107" max="5353"/>
     <col width="5" customWidth="1" style="32" min="5354" max="5354"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5355" max="5355"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5356" max="5356"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5357" max="5357"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5358" max="5358"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5355" max="5355"/>
+    <col width="6.5" customWidth="1" style="32" min="5356" max="5356"/>
+    <col width="29.5" customWidth="1" style="32" min="5357" max="5357"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5358" max="5358"/>
     <col width="8" customWidth="1" style="32" min="5359" max="5359"/>
-    <col width="9.140625" customWidth="1" style="32" min="5360" max="5360"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5361" max="5361"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5362" max="5362"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5363" max="5609"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5360" max="5360"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5361" max="5361"/>
+    <col width="13.5" customWidth="1" style="32" min="5362" max="5362"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5363" max="5609"/>
     <col width="5" customWidth="1" style="32" min="5610" max="5610"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5611" max="5611"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5612" max="5612"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5613" max="5613"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5614" max="5614"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5611" max="5611"/>
+    <col width="6.5" customWidth="1" style="32" min="5612" max="5612"/>
+    <col width="29.5" customWidth="1" style="32" min="5613" max="5613"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5614" max="5614"/>
     <col width="8" customWidth="1" style="32" min="5615" max="5615"/>
-    <col width="9.140625" customWidth="1" style="32" min="5616" max="5616"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5617" max="5617"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5618" max="5618"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5619" max="5865"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5616" max="5616"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5617" max="5617"/>
+    <col width="13.5" customWidth="1" style="32" min="5618" max="5618"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5619" max="5865"/>
     <col width="5" customWidth="1" style="32" min="5866" max="5866"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5867" max="5867"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5868" max="5868"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5869" max="5869"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5870" max="5870"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5867" max="5867"/>
+    <col width="6.5" customWidth="1" style="32" min="5868" max="5868"/>
+    <col width="29.5" customWidth="1" style="32" min="5869" max="5869"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5870" max="5870"/>
     <col width="8" customWidth="1" style="32" min="5871" max="5871"/>
-    <col width="9.140625" customWidth="1" style="32" min="5872" max="5872"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5873" max="5873"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5874" max="5874"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5875" max="6121"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5872" max="5872"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5873" max="5873"/>
+    <col width="13.5" customWidth="1" style="32" min="5874" max="5874"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5875" max="6121"/>
     <col width="5" customWidth="1" style="32" min="6122" max="6122"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6123" max="6123"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6124" max="6124"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6125" max="6125"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6126" max="6126"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6123" max="6123"/>
+    <col width="6.5" customWidth="1" style="32" min="6124" max="6124"/>
+    <col width="29.5" customWidth="1" style="32" min="6125" max="6125"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6126" max="6126"/>
     <col width="8" customWidth="1" style="32" min="6127" max="6127"/>
-    <col width="9.140625" customWidth="1" style="32" min="6128" max="6128"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6129" max="6129"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6130" max="6130"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6131" max="6377"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6128" max="6128"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6129" max="6129"/>
+    <col width="13.5" customWidth="1" style="32" min="6130" max="6130"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6131" max="6377"/>
     <col width="5" customWidth="1" style="32" min="6378" max="6378"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6379" max="6379"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6380" max="6380"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6381" max="6381"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6382" max="6382"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6379" max="6379"/>
+    <col width="6.5" customWidth="1" style="32" min="6380" max="6380"/>
+    <col width="29.5" customWidth="1" style="32" min="6381" max="6381"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6382" max="6382"/>
     <col width="8" customWidth="1" style="32" min="6383" max="6383"/>
-    <col width="9.140625" customWidth="1" style="32" min="6384" max="6384"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6385" max="6385"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6386" max="6386"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6387" max="6633"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6384" max="6384"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6385" max="6385"/>
+    <col width="13.5" customWidth="1" style="32" min="6386" max="6386"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6387" max="6633"/>
     <col width="5" customWidth="1" style="32" min="6634" max="6634"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6635" max="6635"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6636" max="6636"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6637" max="6637"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6638" max="6638"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6635" max="6635"/>
+    <col width="6.5" customWidth="1" style="32" min="6636" max="6636"/>
+    <col width="29.5" customWidth="1" style="32" min="6637" max="6637"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6638" max="6638"/>
     <col width="8" customWidth="1" style="32" min="6639" max="6639"/>
-    <col width="9.140625" customWidth="1" style="32" min="6640" max="6640"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6641" max="6641"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6642" max="6642"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6643" max="6889"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6640" max="6640"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6641" max="6641"/>
+    <col width="13.5" customWidth="1" style="32" min="6642" max="6642"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6643" max="6889"/>
     <col width="5" customWidth="1" style="32" min="6890" max="6890"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6891" max="6891"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6892" max="6892"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6893" max="6893"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6894" max="6894"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6891" max="6891"/>
+    <col width="6.5" customWidth="1" style="32" min="6892" max="6892"/>
+    <col width="29.5" customWidth="1" style="32" min="6893" max="6893"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6894" max="6894"/>
     <col width="8" customWidth="1" style="32" min="6895" max="6895"/>
-    <col width="9.140625" customWidth="1" style="32" min="6896" max="6896"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6897" max="6897"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6898" max="6898"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6899" max="7145"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6896" max="6896"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6897" max="6897"/>
+    <col width="13.5" customWidth="1" style="32" min="6898" max="6898"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6899" max="7145"/>
     <col width="5" customWidth="1" style="32" min="7146" max="7146"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7147" max="7147"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7148" max="7148"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7149" max="7149"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7150" max="7150"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7147" max="7147"/>
+    <col width="6.5" customWidth="1" style="32" min="7148" max="7148"/>
+    <col width="29.5" customWidth="1" style="32" min="7149" max="7149"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7150" max="7150"/>
     <col width="8" customWidth="1" style="32" min="7151" max="7151"/>
-    <col width="9.140625" customWidth="1" style="32" min="7152" max="7152"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7153" max="7153"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7154" max="7154"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7155" max="7401"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7152" max="7152"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7153" max="7153"/>
+    <col width="13.5" customWidth="1" style="32" min="7154" max="7154"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7155" max="7401"/>
     <col width="5" customWidth="1" style="32" min="7402" max="7402"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7403" max="7403"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7404" max="7404"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7405" max="7405"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7406" max="7406"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7403" max="7403"/>
+    <col width="6.5" customWidth="1" style="32" min="7404" max="7404"/>
+    <col width="29.5" customWidth="1" style="32" min="7405" max="7405"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7406" max="7406"/>
     <col width="8" customWidth="1" style="32" min="7407" max="7407"/>
-    <col width="9.140625" customWidth="1" style="32" min="7408" max="7408"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7409" max="7409"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7410" max="7410"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7411" max="7657"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7408" max="7408"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7409" max="7409"/>
+    <col width="13.5" customWidth="1" style="32" min="7410" max="7410"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7411" max="7657"/>
     <col width="5" customWidth="1" style="32" min="7658" max="7658"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7659" max="7659"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7660" max="7660"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7661" max="7661"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7662" max="7662"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7659" max="7659"/>
+    <col width="6.5" customWidth="1" style="32" min="7660" max="7660"/>
+    <col width="29.5" customWidth="1" style="32" min="7661" max="7661"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7662" max="7662"/>
     <col width="8" customWidth="1" style="32" min="7663" max="7663"/>
-    <col width="9.140625" customWidth="1" style="32" min="7664" max="7664"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7665" max="7665"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7666" max="7666"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7667" max="7913"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7664" max="7664"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7665" max="7665"/>
+    <col width="13.5" customWidth="1" style="32" min="7666" max="7666"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7667" max="7913"/>
     <col width="5" customWidth="1" style="32" min="7914" max="7914"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7915" max="7915"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7916" max="7916"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7917" max="7917"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7918" max="7918"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7915" max="7915"/>
+    <col width="6.5" customWidth="1" style="32" min="7916" max="7916"/>
+    <col width="29.5" customWidth="1" style="32" min="7917" max="7917"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7918" max="7918"/>
     <col width="8" customWidth="1" style="32" min="7919" max="7919"/>
-    <col width="9.140625" customWidth="1" style="32" min="7920" max="7920"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7921" max="7921"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7922" max="7922"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7923" max="8169"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7920" max="7920"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7921" max="7921"/>
+    <col width="13.5" customWidth="1" style="32" min="7922" max="7922"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7923" max="8169"/>
     <col width="5" customWidth="1" style="32" min="8170" max="8170"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8171" max="8171"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8172" max="8172"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8173" max="8173"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8174" max="8174"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8171" max="8171"/>
+    <col width="6.5" customWidth="1" style="32" min="8172" max="8172"/>
+    <col width="29.5" customWidth="1" style="32" min="8173" max="8173"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8174" max="8174"/>
     <col width="8" customWidth="1" style="32" min="8175" max="8175"/>
-    <col width="9.140625" customWidth="1" style="32" min="8176" max="8176"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8177" max="8177"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8178" max="8178"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8179" max="8425"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8176" max="8176"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8177" max="8177"/>
+    <col width="13.5" customWidth="1" style="32" min="8178" max="8178"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8179" max="8425"/>
     <col width="5" customWidth="1" style="32" min="8426" max="8426"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8427" max="8427"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8428" max="8428"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8429" max="8429"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8430" max="8430"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8427" max="8427"/>
+    <col width="6.5" customWidth="1" style="32" min="8428" max="8428"/>
+    <col width="29.5" customWidth="1" style="32" min="8429" max="8429"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8430" max="8430"/>
     <col width="8" customWidth="1" style="32" min="8431" max="8431"/>
-    <col width="9.140625" customWidth="1" style="32" min="8432" max="8432"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8433" max="8433"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8434" max="8434"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8435" max="8681"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8432" max="8432"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8433" max="8433"/>
+    <col width="13.5" customWidth="1" style="32" min="8434" max="8434"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8435" max="8681"/>
     <col width="5" customWidth="1" style="32" min="8682" max="8682"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8683" max="8683"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8684" max="8684"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8685" max="8685"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8686" max="8686"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8683" max="8683"/>
+    <col width="6.5" customWidth="1" style="32" min="8684" max="8684"/>
+    <col width="29.5" customWidth="1" style="32" min="8685" max="8685"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8686" max="8686"/>
     <col width="8" customWidth="1" style="32" min="8687" max="8687"/>
-    <col width="9.140625" customWidth="1" style="32" min="8688" max="8688"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8689" max="8689"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8690" max="8690"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8691" max="8937"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8688" max="8688"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8689" max="8689"/>
+    <col width="13.5" customWidth="1" style="32" min="8690" max="8690"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8691" max="8937"/>
     <col width="5" customWidth="1" style="32" min="8938" max="8938"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8939" max="8939"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8940" max="8940"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8941" max="8941"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8942" max="8942"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8939" max="8939"/>
+    <col width="6.5" customWidth="1" style="32" min="8940" max="8940"/>
+    <col width="29.5" customWidth="1" style="32" min="8941" max="8941"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8942" max="8942"/>
     <col width="8" customWidth="1" style="32" min="8943" max="8943"/>
-    <col width="9.140625" customWidth="1" style="32" min="8944" max="8944"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8945" max="8945"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8946" max="8946"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8947" max="9193"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8944" max="8944"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8945" max="8945"/>
+    <col width="13.5" customWidth="1" style="32" min="8946" max="8946"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8947" max="9193"/>
     <col width="5" customWidth="1" style="32" min="9194" max="9194"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9195" max="9195"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9196" max="9196"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9197" max="9197"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9198" max="9198"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9195" max="9195"/>
+    <col width="6.5" customWidth="1" style="32" min="9196" max="9196"/>
+    <col width="29.5" customWidth="1" style="32" min="9197" max="9197"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9198" max="9198"/>
     <col width="8" customWidth="1" style="32" min="9199" max="9199"/>
-    <col width="9.140625" customWidth="1" style="32" min="9200" max="9200"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9201" max="9201"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9202" max="9202"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9203" max="9449"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9200" max="9200"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9201" max="9201"/>
+    <col width="13.5" customWidth="1" style="32" min="9202" max="9202"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9203" max="9449"/>
     <col width="5" customWidth="1" style="32" min="9450" max="9450"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9451" max="9451"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9452" max="9452"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9453" max="9453"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9454" max="9454"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9451" max="9451"/>
+    <col width="6.5" customWidth="1" style="32" min="9452" max="9452"/>
+    <col width="29.5" customWidth="1" style="32" min="9453" max="9453"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9454" max="9454"/>
     <col width="8" customWidth="1" style="32" min="9455" max="9455"/>
-    <col width="9.140625" customWidth="1" style="32" min="9456" max="9456"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9457" max="9457"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9458" max="9458"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9459" max="9705"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9456" max="9456"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9457" max="9457"/>
+    <col width="13.5" customWidth="1" style="32" min="9458" max="9458"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9459" max="9705"/>
     <col width="5" customWidth="1" style="32" min="9706" max="9706"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9707" max="9707"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9708" max="9708"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9709" max="9709"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9710" max="9710"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9707" max="9707"/>
+    <col width="6.5" customWidth="1" style="32" min="9708" max="9708"/>
+    <col width="29.5" customWidth="1" style="32" min="9709" max="9709"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9710" max="9710"/>
     <col width="8" customWidth="1" style="32" min="9711" max="9711"/>
-    <col width="9.140625" customWidth="1" style="32" min="9712" max="9712"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9713" max="9713"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9714" max="9714"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9715" max="9961"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9712" max="9712"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9713" max="9713"/>
+    <col width="13.5" customWidth="1" style="32" min="9714" max="9714"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9715" max="9961"/>
     <col width="5" customWidth="1" style="32" min="9962" max="9962"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9963" max="9963"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9964" max="9964"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9965" max="9965"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9966" max="9966"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9963" max="9963"/>
+    <col width="6.5" customWidth="1" style="32" min="9964" max="9964"/>
+    <col width="29.5" customWidth="1" style="32" min="9965" max="9965"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9966" max="9966"/>
     <col width="8" customWidth="1" style="32" min="9967" max="9967"/>
-    <col width="9.140625" customWidth="1" style="32" min="9968" max="9968"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9969" max="9969"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9970" max="9970"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9971" max="10217"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9968" max="9968"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9969" max="9969"/>
+    <col width="13.5" customWidth="1" style="32" min="9970" max="9970"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9971" max="10217"/>
     <col width="5" customWidth="1" style="32" min="10218" max="10218"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10219" max="10219"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10220" max="10220"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10221" max="10221"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10222" max="10222"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10219" max="10219"/>
+    <col width="6.5" customWidth="1" style="32" min="10220" max="10220"/>
+    <col width="29.5" customWidth="1" style="32" min="10221" max="10221"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10222" max="10222"/>
     <col width="8" customWidth="1" style="32" min="10223" max="10223"/>
-    <col width="9.140625" customWidth="1" style="32" min="10224" max="10224"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10225" max="10225"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10226" max="10226"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10227" max="10473"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10224" max="10224"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10225" max="10225"/>
+    <col width="13.5" customWidth="1" style="32" min="10226" max="10226"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10227" max="10473"/>
     <col width="5" customWidth="1" style="32" min="10474" max="10474"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10475" max="10475"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10476" max="10476"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10477" max="10477"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10478" max="10478"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10475" max="10475"/>
+    <col width="6.5" customWidth="1" style="32" min="10476" max="10476"/>
+    <col width="29.5" customWidth="1" style="32" min="10477" max="10477"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10478" max="10478"/>
     <col width="8" customWidth="1" style="32" min="10479" max="10479"/>
-    <col width="9.140625" customWidth="1" style="32" min="10480" max="10480"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10481" max="10481"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10482" max="10482"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10483" max="10729"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10480" max="10480"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10481" max="10481"/>
+    <col width="13.5" customWidth="1" style="32" min="10482" max="10482"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10483" max="10729"/>
     <col width="5" customWidth="1" style="32" min="10730" max="10730"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10731" max="10731"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10732" max="10732"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10733" max="10733"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10734" max="10734"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10731" max="10731"/>
+    <col width="6.5" customWidth="1" style="32" min="10732" max="10732"/>
+    <col width="29.5" customWidth="1" style="32" min="10733" max="10733"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10734" max="10734"/>
     <col width="8" customWidth="1" style="32" min="10735" max="10735"/>
-    <col width="9.140625" customWidth="1" style="32" min="10736" max="10736"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10737" max="10737"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10738" max="10738"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10739" max="10985"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10736" max="10736"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10737" max="10737"/>
+    <col width="13.5" customWidth="1" style="32" min="10738" max="10738"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10739" max="10985"/>
     <col width="5" customWidth="1" style="32" min="10986" max="10986"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10987" max="10987"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10988" max="10988"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10989" max="10989"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10990" max="10990"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10987" max="10987"/>
+    <col width="6.5" customWidth="1" style="32" min="10988" max="10988"/>
+    <col width="29.5" customWidth="1" style="32" min="10989" max="10989"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10990" max="10990"/>
     <col width="8" customWidth="1" style="32" min="10991" max="10991"/>
-    <col width="9.140625" customWidth="1" style="32" min="10992" max="10992"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10993" max="10993"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10994" max="10994"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10995" max="11241"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10992" max="10992"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10993" max="10993"/>
+    <col width="13.5" customWidth="1" style="32" min="10994" max="10994"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10995" max="11241"/>
     <col width="5" customWidth="1" style="32" min="11242" max="11242"/>
-    <col width="33.28515625" customWidth="1" style="32" min="11243" max="11243"/>
-    <col width="6.42578125" customWidth="1" style="32" min="11244" max="11244"/>
-    <col width="29.42578125" customWidth="1" style="32" min="11245" max="11245"/>
-    <col width="23.7109375" customWidth="1" style="32" min="11246" max="11246"/>
+    <col width="33.33203125" customWidth="1" style="32" min="11243" max="11243"/>
+    <col width="6.5" customWidth="1" style="32" min="11244" max="11244"/>
+    <col width="29.5" customWidth="1" style="32" min="11245" max="11245"/>
+    <col width="23.6640625" customWidth="1" style="32" min="11246" max="11246"/>
     <col width="8" customWidth="1" style="32" min="11247" max="11247"/>
-    <col width="9.140625" customWidth="1" style="32" min="11248" max="11248"/>
-    <col width="13.7109375" customWidth="1" style="32" min="11249" max="11249"/>
-    <col width="13.42578125" customWidth="1" style="32" min="11250" max="11250"/>
-    <col width="8.7109375" customWidth="1" style="32" min="11251" max="11497"/>
+    <col width="9.1640625" customWidth="1" style="32" min="11248" max="11248"/>
+    <col width="13.6640625" customWidth="1" style="32" min="11249" max="11249"/>
+    <col width="13.5" customWidth="1" style="32" min="11250" max="11250"/>
+    <col width="8.6640625" customWidth="1" style="32" min="11251" max="11497"/>
     <col width="5" customWidth="1" style="32" min="11498" max="11498"/>
-    <col width="33.28515625" customWidth="1" style="32" min="11499" max="11499"/>
-    <col width="6.42578125" customWidth="1" style="32" min="11500" max="11500"/>
-    <col width="29.42578125" customWidth="1" style="32" min="11501" max="11501"/>
-    <col width="23.7109375" customWidth="1" style="32" min="11502" max="11502"/>
+    <col width="33.33203125" customWidth="1" style="32" min="11499" max="11499"/>
+    <col width="6.5" customWidth="1" style="32" min="11500" max="11500"/>
+    <col width="29.5" customWidth="1" style="32" min="11501" max="11501"/>
+    <col width="23.6640625" customWidth="1" style="32" min="11502" max="11502"/>
     <col width="8" customWidth="1" style="32" min="11503" max="11503"/>
-    <col width="9.140625" customWidth="1" style="32" min="11504" max="11504"/>
-    <col width="13.7109375" customWidth="1" style="32" min="11505" max="11505"/>
-    <col width="13.42578125" customWidth="1" style="32" min="11506" max="11506"/>
-    <col width="8.7109375" customWidth="1" style="32" min="11507" max="11753"/>
+    <col width="9.1640625" customWidth="1" style="32" min="11504" max="11504"/>
+    <col width="13.6640625" customWidth="1" style="32" min="11505" max="11505"/>
+    <col width="13.5" customWidth="1" style="32" min="11506" max="11506"/>
+    <col width="8.6640625" customWidth="1" style="32" min="11507" max="11753"/>
     <col width="5" customWidth="1" style="32" min="11754" max="11754"/>
-    <col width="33.28515625" customWidth="1" style="32" min="11755" max="11755"/>
-    <col width="6.42578125" customWidth="1" style="32" min="11756" max="11756"/>
-    <col width="29.42578125" customWidth="1" style="32" min="11757" max="11757"/>
-    <col width="23.7109375" customWidth="1" style="32" min="11758" max="11758"/>
+    <col width="33.33203125" customWidth="1" style="32" min="11755" max="11755"/>
+    <col width="6.5" customWidth="1" style="32" min="11756" max="11756"/>
+    <col width="29.5" customWidth="1" style="32" min="11757" max="11757"/>
+    <col width="23.6640625" customWidth="1" style="32" min="11758" max="11758"/>
     <col width="8" customWidth="1" style="32" min="11759" max="11759"/>
-    <col width="9.140625" customWidth="1" style="32" min="11760" max="11760"/>
-    <col width="13.7109375" customWidth="1" style="32" min="11761" max="11761"/>
-    <col width="13.42578125" customWidth="1" style="32" min="11762" max="11762"/>
-    <col width="8.7109375" customWidth="1" style="32" min="11763" max="12009"/>
+    <col width="9.1640625" customWidth="1" style="32" min="11760" max="11760"/>
+    <col width="13.6640625" customWidth="1" style="32" min="11761" max="11761"/>
+    <col width="13.5" customWidth="1" style="32" min="11762" max="11762"/>
+    <col width="8.6640625" customWidth="1" style="32" min="11763" max="12009"/>
     <col width="5" customWidth="1" style="32" min="12010" max="12010"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12011" max="12011"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12012" max="12012"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12013" max="12013"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12014" max="12014"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12011" max="12011"/>
+    <col width="6.5" customWidth="1" style="32" min="12012" max="12012"/>
+    <col width="29.5" customWidth="1" style="32" min="12013" max="12013"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12014" max="12014"/>
     <col width="8" customWidth="1" style="32" min="12015" max="12015"/>
-    <col width="9.140625" customWidth="1" style="32" min="12016" max="12016"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12017" max="12017"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12018" max="12018"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12019" max="12265"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12016" max="12016"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12017" max="12017"/>
+    <col width="13.5" customWidth="1" style="32" min="12018" max="12018"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12019" max="12265"/>
     <col width="5" customWidth="1" style="32" min="12266" max="12266"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12267" max="12267"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12268" max="12268"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12269" max="12269"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12270" max="12270"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12267" max="12267"/>
+    <col width="6.5" customWidth="1" style="32" min="12268" max="12268"/>
+    <col width="29.5" customWidth="1" style="32" min="12269" max="12269"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12270" max="12270"/>
     <col width="8" customWidth="1" style="32" min="12271" max="12271"/>
-    <col width="9.140625" customWidth="1" style="32" min="12272" max="12272"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12273" max="12273"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12274" max="12274"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12275" max="12521"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12272" max="12272"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12273" max="12273"/>
+    <col width="13.5" customWidth="1" style="32" min="12274" max="12274"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12275" max="12521"/>
     <col width="5" customWidth="1" style="32" min="12522" max="12522"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12523" max="12523"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12524" max="12524"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12525" max="12525"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12526" max="12526"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12523" max="12523"/>
+    <col width="6.5" customWidth="1" style="32" min="12524" max="12524"/>
+    <col width="29.5" customWidth="1" style="32" min="12525" max="12525"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12526" max="12526"/>
     <col width="8" customWidth="1" style="32" min="12527" max="12527"/>
-    <col width="9.140625" customWidth="1" style="32" min="12528" max="12528"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12529" max="12529"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12530" max="12530"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12531" max="12777"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12528" max="12528"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12529" max="12529"/>
+    <col width="13.5" customWidth="1" style="32" min="12530" max="12530"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12531" max="12777"/>
     <col width="5" customWidth="1" style="32" min="12778" max="12778"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12779" max="12779"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12780" max="12780"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12781" max="12781"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12782" max="12782"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12779" max="12779"/>
+    <col width="6.5" customWidth="1" style="32" min="12780" max="12780"/>
+    <col width="29.5" customWidth="1" style="32" min="12781" max="12781"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12782" max="12782"/>
     <col width="8" customWidth="1" style="32" min="12783" max="12783"/>
-    <col width="9.140625" customWidth="1" style="32" min="12784" max="12784"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12785" max="12785"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12786" max="12786"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12787" max="13033"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12784" max="12784"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12785" max="12785"/>
+    <col width="13.5" customWidth="1" style="32" min="12786" max="12786"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12787" max="13033"/>
     <col width="5" customWidth="1" style="32" min="13034" max="13034"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13035" max="13035"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13036" max="13036"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13037" max="13037"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13038" max="13038"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13035" max="13035"/>
+    <col width="6.5" customWidth="1" style="32" min="13036" max="13036"/>
+    <col width="29.5" customWidth="1" style="32" min="13037" max="13037"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13038" max="13038"/>
     <col width="8" customWidth="1" style="32" min="13039" max="13039"/>
-    <col width="9.140625" customWidth="1" style="32" min="13040" max="13040"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13041" max="13041"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13042" max="13042"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13043" max="13289"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13040" max="13040"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13041" max="13041"/>
+    <col width="13.5" customWidth="1" style="32" min="13042" max="13042"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13043" max="13289"/>
     <col width="5" customWidth="1" style="32" min="13290" max="13290"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13291" max="13291"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13292" max="13292"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13293" max="13293"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13294" max="13294"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13291" max="13291"/>
+    <col width="6.5" customWidth="1" style="32" min="13292" max="13292"/>
+    <col width="29.5" customWidth="1" style="32" min="13293" max="13293"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13294" max="13294"/>
     <col width="8" customWidth="1" style="32" min="13295" max="13295"/>
-    <col width="9.140625" customWidth="1" style="32" min="13296" max="13296"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13297" max="13297"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13298" max="13298"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13299" max="13545"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13296" max="13296"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13297" max="13297"/>
+    <col width="13.5" customWidth="1" style="32" min="13298" max="13298"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13299" max="13545"/>
     <col width="5" customWidth="1" style="32" min="13546" max="13546"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13547" max="13547"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13548" max="13548"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13549" max="13549"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13550" max="13550"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13547" max="13547"/>
+    <col width="6.5" customWidth="1" style="32" min="13548" max="13548"/>
+    <col width="29.5" customWidth="1" style="32" min="13549" max="13549"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13550" max="13550"/>
     <col width="8" customWidth="1" style="32" min="13551" max="13551"/>
-    <col width="9.140625" customWidth="1" style="32" min="13552" max="13552"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13553" max="13553"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13554" max="13554"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13555" max="13801"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13552" max="13552"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13553" max="13553"/>
+    <col width="13.5" customWidth="1" style="32" min="13554" max="13554"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13555" max="13801"/>
     <col width="5" customWidth="1" style="32" min="13802" max="13802"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13803" max="13803"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13804" max="13804"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13805" max="13805"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13806" max="13806"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13803" max="13803"/>
+    <col width="6.5" customWidth="1" style="32" min="13804" max="13804"/>
+    <col width="29.5" customWidth="1" style="32" min="13805" max="13805"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13806" max="13806"/>
     <col width="8" customWidth="1" style="32" min="13807" max="13807"/>
-    <col width="9.140625" customWidth="1" style="32" min="13808" max="13808"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13809" max="13809"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13810" max="13810"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13811" max="14057"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13808" max="13808"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13809" max="13809"/>
+    <col width="13.5" customWidth="1" style="32" min="13810" max="13810"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13811" max="14057"/>
     <col width="5" customWidth="1" style="32" min="14058" max="14058"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14059" max="14059"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14060" max="14060"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14061" max="14061"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14062" max="14062"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14059" max="14059"/>
+    <col width="6.5" customWidth="1" style="32" min="14060" max="14060"/>
+    <col width="29.5" customWidth="1" style="32" min="14061" max="14061"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14062" max="14062"/>
     <col width="8" customWidth="1" style="32" min="14063" max="14063"/>
-    <col width="9.140625" customWidth="1" style="32" min="14064" max="14064"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14065" max="14065"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14066" max="14066"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14067" max="14313"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14064" max="14064"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14065" max="14065"/>
+    <col width="13.5" customWidth="1" style="32" min="14066" max="14066"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14067" max="14313"/>
     <col width="5" customWidth="1" style="32" min="14314" max="14314"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14315" max="14315"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14316" max="14316"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14317" max="14317"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14318" max="14318"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14315" max="14315"/>
+    <col width="6.5" customWidth="1" style="32" min="14316" max="14316"/>
+    <col width="29.5" customWidth="1" style="32" min="14317" max="14317"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14318" max="14318"/>
     <col width="8" customWidth="1" style="32" min="14319" max="14319"/>
-    <col width="9.140625" customWidth="1" style="32" min="14320" max="14320"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14321" max="14321"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14322" max="14322"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14323" max="14569"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14320" max="14320"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14321" max="14321"/>
+    <col width="13.5" customWidth="1" style="32" min="14322" max="14322"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14323" max="14569"/>
     <col width="5" customWidth="1" style="32" min="14570" max="14570"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14571" max="14571"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14572" max="14572"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14573" max="14573"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14574" max="14574"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14571" max="14571"/>
+    <col width="6.5" customWidth="1" style="32" min="14572" max="14572"/>
+    <col width="29.5" customWidth="1" style="32" min="14573" max="14573"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14574" max="14574"/>
     <col width="8" customWidth="1" style="32" min="14575" max="14575"/>
-    <col width="9.140625" customWidth="1" style="32" min="14576" max="14576"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14577" max="14577"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14578" max="14578"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14579" max="14825"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14576" max="14576"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14577" max="14577"/>
+    <col width="13.5" customWidth="1" style="32" min="14578" max="14578"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14579" max="14825"/>
     <col width="5" customWidth="1" style="32" min="14826" max="14826"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14827" max="14827"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14828" max="14828"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14829" max="14829"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14830" max="14830"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14827" max="14827"/>
+    <col width="6.5" customWidth="1" style="32" min="14828" max="14828"/>
+    <col width="29.5" customWidth="1" style="32" min="14829" max="14829"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14830" max="14830"/>
     <col width="8" customWidth="1" style="32" min="14831" max="14831"/>
-    <col width="9.140625" customWidth="1" style="32" min="14832" max="14832"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14833" max="14833"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14834" max="14834"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14835" max="15081"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14832" max="14832"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14833" max="14833"/>
+    <col width="13.5" customWidth="1" style="32" min="14834" max="14834"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14835" max="15081"/>
     <col width="5" customWidth="1" style="32" min="15082" max="15082"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15083" max="15083"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15084" max="15084"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15085" max="15085"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15086" max="15086"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15083" max="15083"/>
+    <col width="6.5" customWidth="1" style="32" min="15084" max="15084"/>
+    <col width="29.5" customWidth="1" style="32" min="15085" max="15085"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15086" max="15086"/>
     <col width="8" customWidth="1" style="32" min="15087" max="15087"/>
-    <col width="9.140625" customWidth="1" style="32" min="15088" max="15088"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15089" max="15089"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15090" max="15090"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15091" max="15337"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15088" max="15088"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15089" max="15089"/>
+    <col width="13.5" customWidth="1" style="32" min="15090" max="15090"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15091" max="15337"/>
     <col width="5" customWidth="1" style="32" min="15338" max="15338"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15339" max="15339"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15340" max="15340"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15341" max="15341"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15342" max="15342"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15339" max="15339"/>
+    <col width="6.5" customWidth="1" style="32" min="15340" max="15340"/>
+    <col width="29.5" customWidth="1" style="32" min="15341" max="15341"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15342" max="15342"/>
     <col width="8" customWidth="1" style="32" min="15343" max="15343"/>
-    <col width="9.140625" customWidth="1" style="32" min="15344" max="15344"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15345" max="15345"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15346" max="15346"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15347" max="15593"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15344" max="15344"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15345" max="15345"/>
+    <col width="13.5" customWidth="1" style="32" min="15346" max="15346"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15347" max="15593"/>
     <col width="5" customWidth="1" style="32" min="15594" max="15594"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15595" max="15595"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15596" max="15596"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15597" max="15597"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15598" max="15598"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15595" max="15595"/>
+    <col width="6.5" customWidth="1" style="32" min="15596" max="15596"/>
+    <col width="29.5" customWidth="1" style="32" min="15597" max="15597"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15598" max="15598"/>
     <col width="8" customWidth="1" style="32" min="15599" max="15599"/>
-    <col width="9.140625" customWidth="1" style="32" min="15600" max="15600"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15601" max="15601"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15602" max="15602"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15603" max="15849"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15600" max="15600"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15601" max="15601"/>
+    <col width="13.5" customWidth="1" style="32" min="15602" max="15602"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15603" max="15849"/>
     <col width="5" customWidth="1" style="32" min="15850" max="15850"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15851" max="15851"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15852" max="15852"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15853" max="15853"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15854" max="15854"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15851" max="15851"/>
+    <col width="6.5" customWidth="1" style="32" min="15852" max="15852"/>
+    <col width="29.5" customWidth="1" style="32" min="15853" max="15853"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15854" max="15854"/>
     <col width="8" customWidth="1" style="32" min="15855" max="15855"/>
-    <col width="9.140625" customWidth="1" style="32" min="15856" max="15856"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15857" max="15857"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15858" max="15858"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15859" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15856" max="15856"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15857" max="15857"/>
+    <col width="13.5" customWidth="1" style="32" min="15858" max="15858"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15859" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="75" customFormat="1" customHeight="1" s="21">
       <c r="C1" s="21" t="n"/>
-      <c r="D1" s="179" t="inlineStr">
+      <c r="D1" s="136" t="inlineStr">
         <is>
           <t>KPI NĂM CỦA NHÂN VIÊN 
 NĂM 2020</t>
@@ -7578,24 +7578,24 @@
       </c>
     </row>
     <row r="2" ht="23.25" customFormat="1" customHeight="1" s="22">
-      <c r="B2" s="203" t="inlineStr">
+      <c r="B2" s="137" t="inlineStr">
         <is>
           <t>Họ và tên:</t>
         </is>
       </c>
-      <c r="D2" s="188" t="inlineStr">
+      <c r="D2" s="147" t="inlineStr">
         <is>
           <t>TRẦN VŨ</t>
         </is>
       </c>
       <c r="E2" s="208" t="n"/>
       <c r="F2" s="208" t="n"/>
-      <c r="G2" s="201" t="inlineStr">
+      <c r="G2" s="132" t="inlineStr">
         <is>
           <t>Chức danh:</t>
         </is>
       </c>
-      <c r="J2" s="189" t="inlineStr">
+      <c r="J2" s="131" t="inlineStr">
         <is>
           <t>Bác sĩ</t>
         </is>
@@ -7604,24 +7604,24 @@
       <c r="L2" s="209" t="n"/>
     </row>
     <row r="3" ht="23.25" customFormat="1" customHeight="1" s="22">
-      <c r="B3" s="203" t="inlineStr">
+      <c r="B3" s="137" t="inlineStr">
         <is>
           <t>Mã nhân viên:</t>
         </is>
       </c>
-      <c r="D3" s="189" t="inlineStr">
+      <c r="D3" s="131" t="inlineStr">
         <is>
           <t>00726</t>
         </is>
       </c>
       <c r="E3" s="209" t="n"/>
       <c r="F3" s="209" t="n"/>
-      <c r="G3" s="202" t="inlineStr">
+      <c r="G3" s="134" t="inlineStr">
         <is>
           <t>Phòng ban/ Bộ phận:</t>
         </is>
       </c>
-      <c r="J3" s="189" t="inlineStr">
+      <c r="J3" s="131" t="inlineStr">
         <is>
           <t>Ngoại thần kinh</t>
         </is>
@@ -7642,7 +7642,7 @@
       <c r="K4" s="28" t="n"/>
       <c r="L4" s="27" t="n"/>
     </row>
-    <row r="5" ht="19.9" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
+    <row r="5" ht="20" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
       <c r="B5" s="77" t="inlineStr">
         <is>
           <t xml:space="preserve">I </t>
@@ -7660,7 +7660,7 @@
       <c r="H5" s="66" t="n"/>
       <c r="I5" s="66" t="n"/>
       <c r="J5" s="65" t="n"/>
-      <c r="K5" s="151" t="n"/>
+      <c r="K5" s="130" t="n"/>
       <c r="L5" s="78">
         <f>L7+L8</f>
         <v/>
@@ -7672,7 +7672,7 @@
           <t>Stt</t>
         </is>
       </c>
-      <c r="C6" s="183" t="inlineStr">
+      <c r="C6" s="142" t="inlineStr">
         <is>
           <t>Nội dung</t>
         </is>
@@ -7680,12 +7680,12 @@
       <c r="D6" s="210" t="n"/>
       <c r="E6" s="210" t="n"/>
       <c r="F6" s="210" t="n"/>
-      <c r="G6" s="172" t="inlineStr">
+      <c r="G6" s="148" t="inlineStr">
         <is>
           <t>Trọng số</t>
         </is>
       </c>
-      <c r="H6" s="183" t="inlineStr">
+      <c r="H6" s="142" t="inlineStr">
         <is>
           <t>Kế hoạch</t>
         </is>
@@ -7695,12 +7695,12 @@
           <t>Thực hiện</t>
         </is>
       </c>
-      <c r="J6" s="183" t="inlineStr">
+      <c r="J6" s="142" t="inlineStr">
         <is>
           <t>Hoàn thành</t>
         </is>
       </c>
-      <c r="K6" s="183" t="inlineStr">
+      <c r="K6" s="142" t="inlineStr">
         <is>
           <t>Ghi chú</t>
         </is>
@@ -7711,7 +7711,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="19.9" customHeight="1">
+    <row r="7" ht="20" customHeight="1">
       <c r="B7" s="81" t="n">
         <v>1</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="74" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="J7" s="41">
         <f>I7/H7</f>
@@ -7742,7 +7742,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="19.9" customHeight="1" thickBot="1">
+    <row r="8" ht="20" customHeight="1" thickBot="1">
       <c r="B8" s="83" t="n">
         <v>2</v>
       </c>
@@ -7788,10 +7788,10 @@
       <c r="E9" s="62" t="n"/>
       <c r="F9" s="64" t="n"/>
       <c r="G9" s="62" t="n"/>
-      <c r="H9" s="151" t="n"/>
+      <c r="H9" s="130" t="n"/>
       <c r="I9" s="217" t="n"/>
       <c r="J9" s="65" t="n"/>
-      <c r="K9" s="151" t="n"/>
+      <c r="K9" s="130" t="n"/>
       <c r="L9" s="85">
         <f>SUM(L10:L12)</f>
         <v/>
@@ -7813,7 +7813,7 @@
           <t>Trọng số</t>
         </is>
       </c>
-      <c r="E10" s="183" t="inlineStr">
+      <c r="E10" s="142" t="inlineStr">
         <is>
           <t>Tiêu chí đánh giá</t>
         </is>
@@ -7912,7 +7912,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="19.9" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
+    <row r="13" ht="20" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
       <c r="B13" s="77" t="inlineStr">
         <is>
           <t>III</t>
@@ -7927,22 +7927,22 @@
       <c r="E13" s="100" t="n"/>
       <c r="F13" s="99" t="n"/>
       <c r="G13" s="100" t="n"/>
-      <c r="H13" s="151" t="n"/>
+      <c r="H13" s="130" t="n"/>
       <c r="I13" s="217" t="n"/>
       <c r="J13" s="65" t="n"/>
-      <c r="K13" s="151" t="n"/>
+      <c r="K13" s="130" t="n"/>
       <c r="L13" s="78">
         <f>SUM(L15:L22)</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="25.9" customFormat="1" customHeight="1" s="34" thickTop="1">
+    <row r="14" ht="26" customFormat="1" customHeight="1" s="34" thickTop="1">
       <c r="B14" s="88" t="inlineStr">
         <is>
           <t>Stt</t>
         </is>
       </c>
-      <c r="C14" s="172" t="inlineStr">
+      <c r="C14" s="148" t="inlineStr">
         <is>
           <t xml:space="preserve">               Các tiêu chí mong đợi</t>
         </is>
@@ -7950,7 +7950,7 @@
       <c r="D14" s="222" t="n"/>
       <c r="E14" s="222" t="n"/>
       <c r="F14" s="222" t="n"/>
-      <c r="G14" s="172" t="inlineStr">
+      <c r="G14" s="148" t="inlineStr">
         <is>
           <t>Cần cải thiện</t>
         </is>
@@ -7981,7 +7981,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="15" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B15" s="90" t="n">
         <v>1</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="16" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B16" s="91">
         <f>B15+1</f>
         <v/>
@@ -8048,7 +8048,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="17" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B17" s="91">
         <f>B16+1</f>
         <v/>
@@ -8080,7 +8080,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="18" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B18" s="91">
         <f>B17+1</f>
         <v/>
@@ -8112,7 +8112,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="19" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B19" s="91">
         <f>B18+1</f>
         <v/>
@@ -8144,7 +8144,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="20" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B20" s="91">
         <f>B19+1</f>
         <v/>
@@ -8176,7 +8176,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="21" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B21" s="91">
         <f>B20+1</f>
         <v/>
@@ -8208,7 +8208,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" ht="43.9" customFormat="1" customHeight="1" s="36" thickBot="1">
+    <row r="22" ht="44" customFormat="1" customHeight="1" s="36" thickBot="1">
       <c r="B22" s="92">
         <f>B21+1</f>
         <v/>
@@ -8240,7 +8240,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" ht="19.9" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
+    <row r="23" ht="20" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
       <c r="B23" s="77" t="inlineStr">
         <is>
           <t>IV</t>
@@ -8255,10 +8255,10 @@
       <c r="E23" s="62" t="n"/>
       <c r="F23" s="64" t="n"/>
       <c r="G23" s="62" t="n"/>
-      <c r="H23" s="151" t="n"/>
+      <c r="H23" s="130" t="n"/>
       <c r="I23" s="217" t="n"/>
       <c r="J23" s="65" t="n"/>
-      <c r="K23" s="151" t="n"/>
+      <c r="K23" s="130" t="n"/>
       <c r="L23" s="93">
         <f>SUM(I25:I27)</f>
         <v/>
@@ -8270,7 +8270,7 @@
           <t>Stt</t>
         </is>
       </c>
-      <c r="C24" s="154" t="inlineStr">
+      <c r="C24" s="192" t="inlineStr">
         <is>
           <t>Nội dung</t>
         </is>
@@ -8278,7 +8278,7 @@
       <c r="D24" s="222" t="n"/>
       <c r="E24" s="222" t="n"/>
       <c r="F24" s="222" t="n"/>
-      <c r="G24" s="172" t="inlineStr">
+      <c r="G24" s="148" t="inlineStr">
         <is>
           <t>Tổng điểm</t>
         </is>
@@ -8293,7 +8293,7 @@
           <t>Kết quả KPI</t>
         </is>
       </c>
-      <c r="J24" s="153" t="inlineStr">
+      <c r="J24" s="191" t="inlineStr">
         <is>
           <t>Danh hiệu</t>
         </is>
@@ -8301,7 +8301,7 @@
       <c r="K24" s="232" t="n"/>
       <c r="L24" s="233" t="n"/>
     </row>
-    <row r="25" ht="19.9" customFormat="1" customHeight="1" s="36" thickTop="1">
+    <row r="25" ht="20" customFormat="1" customHeight="1" s="36" thickTop="1">
       <c r="B25" s="90" t="n">
         <v>1</v>
       </c>
@@ -8331,7 +8331,7 @@
       <c r="K25" s="236" t="n"/>
       <c r="L25" s="237" t="n"/>
     </row>
-    <row r="26" ht="19.9" customFormat="1" customHeight="1" s="36">
+    <row r="26" ht="20" customFormat="1" customHeight="1" s="36">
       <c r="B26" s="91">
         <f>B25+1</f>
         <v/>
@@ -8358,7 +8358,7 @@
       <c r="J26" s="239" t="n"/>
       <c r="L26" s="240" t="n"/>
     </row>
-    <row r="27" ht="19.9" customFormat="1" customHeight="1" s="36" thickBot="1">
+    <row r="27" ht="20" customFormat="1" customHeight="1" s="36" thickBot="1">
       <c r="B27" s="92">
         <f>B26+1</f>
         <v/>
@@ -8386,7 +8386,7 @@
       <c r="K27" s="232" t="n"/>
       <c r="L27" s="233" t="n"/>
     </row>
-    <row r="28" ht="19.9" customFormat="1" customHeight="1" s="60" thickTop="1">
+    <row r="28" ht="20" customFormat="1" customHeight="1" s="60" thickTop="1">
       <c r="B28" s="94" t="inlineStr">
         <is>
           <t>V</t>
@@ -8407,7 +8407,7 @@
       <c r="K28" s="68" t="n"/>
       <c r="L28" s="95" t="n"/>
     </row>
-    <row r="29" ht="76.90000000000001" customFormat="1" customHeight="1" s="44">
+    <row r="29" ht="77" customFormat="1" customHeight="1" s="44">
       <c r="B29" s="96" t="n">
         <v>1</v>
       </c>
@@ -8430,7 +8430,7 @@
       <c r="K29" s="247" t="n"/>
       <c r="L29" s="248" t="n"/>
     </row>
-    <row r="30" ht="79.15000000000001" customFormat="1" customHeight="1" s="44">
+    <row r="30" ht="79.25" customFormat="1" customHeight="1" s="44">
       <c r="B30" s="97" t="n">
         <v>2</v>
       </c>
@@ -8578,27 +8578,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="J25:L27"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="I38:L38"/>
     <mergeCell ref="C32:E32"/>
@@ -8609,15 +8597,27 @@
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="G30:L30"/>
     <mergeCell ref="G29:L29"/>
-    <mergeCell ref="J25:L27"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.15748031496063" top="0.29" bottom="0.17" header="0.18" footer="0.22"/>
@@ -8637,647 +8637,647 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col hidden="1" width="1.140625" customWidth="1" style="32" min="1" max="1"/>
-    <col width="3.42578125" customWidth="1" style="32" min="2" max="2"/>
+    <col hidden="1" width="1.1640625" customWidth="1" style="32" min="1" max="1"/>
+    <col width="3.5" customWidth="1" style="32" min="2" max="2"/>
     <col width="53" customWidth="1" style="32" min="3" max="3"/>
-    <col width="8.42578125" customWidth="1" style="32" min="4" max="4"/>
-    <col width="10.5703125" customWidth="1" style="32" min="5" max="5"/>
-    <col width="31.42578125" customWidth="1" style="33" min="6" max="6"/>
-    <col width="9.140625" customWidth="1" style="32" min="7" max="7"/>
-    <col width="11.140625" customWidth="1" style="32" min="8" max="8"/>
-    <col width="9.7109375" customWidth="1" style="32" min="9" max="9"/>
-    <col width="10.140625" customWidth="1" style="32" min="10" max="11"/>
-    <col width="16.5703125" customWidth="1" style="33" min="12" max="12"/>
-    <col width="11.28515625" customWidth="1" style="32" min="13" max="13"/>
-    <col width="6.7109375" customWidth="1" style="32" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15" max="233"/>
+    <col width="8.5" customWidth="1" style="32" min="4" max="4"/>
+    <col width="10.5" customWidth="1" style="32" min="5" max="5"/>
+    <col width="31.5" customWidth="1" style="33" min="6" max="6"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7" max="7"/>
+    <col width="11.1640625" customWidth="1" style="32" min="8" max="8"/>
+    <col width="9.6640625" customWidth="1" style="32" min="9" max="9"/>
+    <col width="10.1640625" customWidth="1" style="32" min="10" max="11"/>
+    <col width="16.5" customWidth="1" style="33" min="12" max="12"/>
+    <col width="11.33203125" customWidth="1" style="32" min="13" max="13"/>
+    <col width="6.6640625" customWidth="1" style="32" min="14" max="14"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15" max="233"/>
     <col width="5" customWidth="1" style="32" min="234" max="234"/>
-    <col width="33.28515625" customWidth="1" style="32" min="235" max="235"/>
-    <col width="6.42578125" customWidth="1" style="32" min="236" max="236"/>
-    <col width="29.42578125" customWidth="1" style="32" min="237" max="237"/>
-    <col width="23.7109375" customWidth="1" style="32" min="238" max="238"/>
+    <col width="33.33203125" customWidth="1" style="32" min="235" max="235"/>
+    <col width="6.5" customWidth="1" style="32" min="236" max="236"/>
+    <col width="29.5" customWidth="1" style="32" min="237" max="237"/>
+    <col width="23.6640625" customWidth="1" style="32" min="238" max="238"/>
     <col width="8" customWidth="1" style="32" min="239" max="239"/>
-    <col width="9.140625" customWidth="1" style="32" min="240" max="240"/>
-    <col width="13.7109375" customWidth="1" style="32" min="241" max="241"/>
-    <col width="13.42578125" customWidth="1" style="32" min="242" max="242"/>
-    <col width="8.7109375" customWidth="1" style="32" min="243" max="489"/>
+    <col width="9.1640625" customWidth="1" style="32" min="240" max="240"/>
+    <col width="13.6640625" customWidth="1" style="32" min="241" max="241"/>
+    <col width="13.5" customWidth="1" style="32" min="242" max="242"/>
+    <col width="8.6640625" customWidth="1" style="32" min="243" max="489"/>
     <col width="5" customWidth="1" style="32" min="490" max="490"/>
-    <col width="33.28515625" customWidth="1" style="32" min="491" max="491"/>
-    <col width="6.42578125" customWidth="1" style="32" min="492" max="492"/>
-    <col width="29.42578125" customWidth="1" style="32" min="493" max="493"/>
-    <col width="23.7109375" customWidth="1" style="32" min="494" max="494"/>
+    <col width="33.33203125" customWidth="1" style="32" min="491" max="491"/>
+    <col width="6.5" customWidth="1" style="32" min="492" max="492"/>
+    <col width="29.5" customWidth="1" style="32" min="493" max="493"/>
+    <col width="23.6640625" customWidth="1" style="32" min="494" max="494"/>
     <col width="8" customWidth="1" style="32" min="495" max="495"/>
-    <col width="9.140625" customWidth="1" style="32" min="496" max="496"/>
-    <col width="13.7109375" customWidth="1" style="32" min="497" max="497"/>
-    <col width="13.42578125" customWidth="1" style="32" min="498" max="498"/>
-    <col width="8.7109375" customWidth="1" style="32" min="499" max="745"/>
+    <col width="9.1640625" customWidth="1" style="32" min="496" max="496"/>
+    <col width="13.6640625" customWidth="1" style="32" min="497" max="497"/>
+    <col width="13.5" customWidth="1" style="32" min="498" max="498"/>
+    <col width="8.6640625" customWidth="1" style="32" min="499" max="745"/>
     <col width="5" customWidth="1" style="32" min="746" max="746"/>
-    <col width="33.28515625" customWidth="1" style="32" min="747" max="747"/>
-    <col width="6.42578125" customWidth="1" style="32" min="748" max="748"/>
-    <col width="29.42578125" customWidth="1" style="32" min="749" max="749"/>
-    <col width="23.7109375" customWidth="1" style="32" min="750" max="750"/>
+    <col width="33.33203125" customWidth="1" style="32" min="747" max="747"/>
+    <col width="6.5" customWidth="1" style="32" min="748" max="748"/>
+    <col width="29.5" customWidth="1" style="32" min="749" max="749"/>
+    <col width="23.6640625" customWidth="1" style="32" min="750" max="750"/>
     <col width="8" customWidth="1" style="32" min="751" max="751"/>
-    <col width="9.140625" customWidth="1" style="32" min="752" max="752"/>
-    <col width="13.7109375" customWidth="1" style="32" min="753" max="753"/>
-    <col width="13.42578125" customWidth="1" style="32" min="754" max="754"/>
-    <col width="8.7109375" customWidth="1" style="32" min="755" max="1001"/>
+    <col width="9.1640625" customWidth="1" style="32" min="752" max="752"/>
+    <col width="13.6640625" customWidth="1" style="32" min="753" max="753"/>
+    <col width="13.5" customWidth="1" style="32" min="754" max="754"/>
+    <col width="8.6640625" customWidth="1" style="32" min="755" max="1001"/>
     <col width="5" customWidth="1" style="32" min="1002" max="1002"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1003" max="1003"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1004" max="1004"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1005" max="1005"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1006" max="1006"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1003" max="1003"/>
+    <col width="6.5" customWidth="1" style="32" min="1004" max="1004"/>
+    <col width="29.5" customWidth="1" style="32" min="1005" max="1005"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1006" max="1006"/>
     <col width="8" customWidth="1" style="32" min="1007" max="1007"/>
-    <col width="9.140625" customWidth="1" style="32" min="1008" max="1008"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1009" max="1009"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1010" max="1010"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1011" max="1257"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1008" max="1008"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1009" max="1009"/>
+    <col width="13.5" customWidth="1" style="32" min="1010" max="1010"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1011" max="1257"/>
     <col width="5" customWidth="1" style="32" min="1258" max="1258"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1259" max="1259"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1260" max="1260"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1261" max="1261"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1262" max="1262"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1259" max="1259"/>
+    <col width="6.5" customWidth="1" style="32" min="1260" max="1260"/>
+    <col width="29.5" customWidth="1" style="32" min="1261" max="1261"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1262" max="1262"/>
     <col width="8" customWidth="1" style="32" min="1263" max="1263"/>
-    <col width="9.140625" customWidth="1" style="32" min="1264" max="1264"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1265" max="1265"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1266" max="1266"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1267" max="1513"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1264" max="1264"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1265" max="1265"/>
+    <col width="13.5" customWidth="1" style="32" min="1266" max="1266"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1267" max="1513"/>
     <col width="5" customWidth="1" style="32" min="1514" max="1514"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1515" max="1515"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1516" max="1516"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1517" max="1517"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1518" max="1518"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1515" max="1515"/>
+    <col width="6.5" customWidth="1" style="32" min="1516" max="1516"/>
+    <col width="29.5" customWidth="1" style="32" min="1517" max="1517"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1518" max="1518"/>
     <col width="8" customWidth="1" style="32" min="1519" max="1519"/>
-    <col width="9.140625" customWidth="1" style="32" min="1520" max="1520"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1521" max="1521"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1522" max="1522"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1523" max="1769"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1520" max="1520"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1521" max="1521"/>
+    <col width="13.5" customWidth="1" style="32" min="1522" max="1522"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1523" max="1769"/>
     <col width="5" customWidth="1" style="32" min="1770" max="1770"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1771" max="1771"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1772" max="1772"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1773" max="1773"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1774" max="1774"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1771" max="1771"/>
+    <col width="6.5" customWidth="1" style="32" min="1772" max="1772"/>
+    <col width="29.5" customWidth="1" style="32" min="1773" max="1773"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1774" max="1774"/>
     <col width="8" customWidth="1" style="32" min="1775" max="1775"/>
-    <col width="9.140625" customWidth="1" style="32" min="1776" max="1776"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1777" max="1777"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1778" max="1778"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1779" max="2025"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1776" max="1776"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1777" max="1777"/>
+    <col width="13.5" customWidth="1" style="32" min="1778" max="1778"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1779" max="2025"/>
     <col width="5" customWidth="1" style="32" min="2026" max="2026"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2027" max="2027"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2028" max="2028"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2029" max="2029"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2030" max="2030"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2027" max="2027"/>
+    <col width="6.5" customWidth="1" style="32" min="2028" max="2028"/>
+    <col width="29.5" customWidth="1" style="32" min="2029" max="2029"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2030" max="2030"/>
     <col width="8" customWidth="1" style="32" min="2031" max="2031"/>
-    <col width="9.140625" customWidth="1" style="32" min="2032" max="2032"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2033" max="2033"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2034" max="2034"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2035" max="2281"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2032" max="2032"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2033" max="2033"/>
+    <col width="13.5" customWidth="1" style="32" min="2034" max="2034"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2035" max="2281"/>
     <col width="5" customWidth="1" style="32" min="2282" max="2282"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2283" max="2283"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2284" max="2284"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2285" max="2285"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2286" max="2286"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2283" max="2283"/>
+    <col width="6.5" customWidth="1" style="32" min="2284" max="2284"/>
+    <col width="29.5" customWidth="1" style="32" min="2285" max="2285"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2286" max="2286"/>
     <col width="8" customWidth="1" style="32" min="2287" max="2287"/>
-    <col width="9.140625" customWidth="1" style="32" min="2288" max="2288"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2289" max="2289"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2290" max="2290"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2291" max="2537"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2288" max="2288"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2289" max="2289"/>
+    <col width="13.5" customWidth="1" style="32" min="2290" max="2290"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2291" max="2537"/>
     <col width="5" customWidth="1" style="32" min="2538" max="2538"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2539" max="2539"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2540" max="2540"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2541" max="2541"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2542" max="2542"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2539" max="2539"/>
+    <col width="6.5" customWidth="1" style="32" min="2540" max="2540"/>
+    <col width="29.5" customWidth="1" style="32" min="2541" max="2541"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2542" max="2542"/>
     <col width="8" customWidth="1" style="32" min="2543" max="2543"/>
-    <col width="9.140625" customWidth="1" style="32" min="2544" max="2544"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2545" max="2545"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2546" max="2546"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2547" max="2793"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2544" max="2544"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2545" max="2545"/>
+    <col width="13.5" customWidth="1" style="32" min="2546" max="2546"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2547" max="2793"/>
     <col width="5" customWidth="1" style="32" min="2794" max="2794"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2795" max="2795"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2796" max="2796"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2797" max="2797"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2798" max="2798"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2795" max="2795"/>
+    <col width="6.5" customWidth="1" style="32" min="2796" max="2796"/>
+    <col width="29.5" customWidth="1" style="32" min="2797" max="2797"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2798" max="2798"/>
     <col width="8" customWidth="1" style="32" min="2799" max="2799"/>
-    <col width="9.140625" customWidth="1" style="32" min="2800" max="2800"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2801" max="2801"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2802" max="2802"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2803" max="3049"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2800" max="2800"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2801" max="2801"/>
+    <col width="13.5" customWidth="1" style="32" min="2802" max="2802"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2803" max="3049"/>
     <col width="5" customWidth="1" style="32" min="3050" max="3050"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3051" max="3051"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3052" max="3052"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3053" max="3053"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3054" max="3054"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3051" max="3051"/>
+    <col width="6.5" customWidth="1" style="32" min="3052" max="3052"/>
+    <col width="29.5" customWidth="1" style="32" min="3053" max="3053"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3054" max="3054"/>
     <col width="8" customWidth="1" style="32" min="3055" max="3055"/>
-    <col width="9.140625" customWidth="1" style="32" min="3056" max="3056"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3057" max="3057"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3058" max="3058"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3059" max="3305"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3056" max="3056"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3057" max="3057"/>
+    <col width="13.5" customWidth="1" style="32" min="3058" max="3058"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3059" max="3305"/>
     <col width="5" customWidth="1" style="32" min="3306" max="3306"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3307" max="3307"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3308" max="3308"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3309" max="3309"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3310" max="3310"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3307" max="3307"/>
+    <col width="6.5" customWidth="1" style="32" min="3308" max="3308"/>
+    <col width="29.5" customWidth="1" style="32" min="3309" max="3309"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3310" max="3310"/>
     <col width="8" customWidth="1" style="32" min="3311" max="3311"/>
-    <col width="9.140625" customWidth="1" style="32" min="3312" max="3312"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3313" max="3313"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3314" max="3314"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3315" max="3561"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3312" max="3312"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3313" max="3313"/>
+    <col width="13.5" customWidth="1" style="32" min="3314" max="3314"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3315" max="3561"/>
     <col width="5" customWidth="1" style="32" min="3562" max="3562"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3563" max="3563"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3564" max="3564"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3565" max="3565"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3566" max="3566"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3563" max="3563"/>
+    <col width="6.5" customWidth="1" style="32" min="3564" max="3564"/>
+    <col width="29.5" customWidth="1" style="32" min="3565" max="3565"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3566" max="3566"/>
     <col width="8" customWidth="1" style="32" min="3567" max="3567"/>
-    <col width="9.140625" customWidth="1" style="32" min="3568" max="3568"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3569" max="3569"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3570" max="3570"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3571" max="3817"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3568" max="3568"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3569" max="3569"/>
+    <col width="13.5" customWidth="1" style="32" min="3570" max="3570"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3571" max="3817"/>
     <col width="5" customWidth="1" style="32" min="3818" max="3818"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3819" max="3819"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3820" max="3820"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3821" max="3821"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3822" max="3822"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3819" max="3819"/>
+    <col width="6.5" customWidth="1" style="32" min="3820" max="3820"/>
+    <col width="29.5" customWidth="1" style="32" min="3821" max="3821"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3822" max="3822"/>
     <col width="8" customWidth="1" style="32" min="3823" max="3823"/>
-    <col width="9.140625" customWidth="1" style="32" min="3824" max="3824"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3825" max="3825"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3826" max="3826"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3827" max="4073"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3824" max="3824"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3825" max="3825"/>
+    <col width="13.5" customWidth="1" style="32" min="3826" max="3826"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3827" max="4073"/>
     <col width="5" customWidth="1" style="32" min="4074" max="4074"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4075" max="4075"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4076" max="4076"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4077" max="4077"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4078" max="4078"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4075" max="4075"/>
+    <col width="6.5" customWidth="1" style="32" min="4076" max="4076"/>
+    <col width="29.5" customWidth="1" style="32" min="4077" max="4077"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4078" max="4078"/>
     <col width="8" customWidth="1" style="32" min="4079" max="4079"/>
-    <col width="9.140625" customWidth="1" style="32" min="4080" max="4080"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4081" max="4081"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4082" max="4082"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4083" max="4329"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4080" max="4080"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4081" max="4081"/>
+    <col width="13.5" customWidth="1" style="32" min="4082" max="4082"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4083" max="4329"/>
     <col width="5" customWidth="1" style="32" min="4330" max="4330"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4331" max="4331"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4332" max="4332"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4333" max="4333"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4334" max="4334"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4331" max="4331"/>
+    <col width="6.5" customWidth="1" style="32" min="4332" max="4332"/>
+    <col width="29.5" customWidth="1" style="32" min="4333" max="4333"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4334" max="4334"/>
     <col width="8" customWidth="1" style="32" min="4335" max="4335"/>
-    <col width="9.140625" customWidth="1" style="32" min="4336" max="4336"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4337" max="4337"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4338" max="4338"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4339" max="4585"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4336" max="4336"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4337" max="4337"/>
+    <col width="13.5" customWidth="1" style="32" min="4338" max="4338"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4339" max="4585"/>
     <col width="5" customWidth="1" style="32" min="4586" max="4586"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4587" max="4587"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4588" max="4588"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4589" max="4589"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4590" max="4590"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4587" max="4587"/>
+    <col width="6.5" customWidth="1" style="32" min="4588" max="4588"/>
+    <col width="29.5" customWidth="1" style="32" min="4589" max="4589"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4590" max="4590"/>
     <col width="8" customWidth="1" style="32" min="4591" max="4591"/>
-    <col width="9.140625" customWidth="1" style="32" min="4592" max="4592"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4593" max="4593"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4594" max="4594"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4595" max="4841"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4592" max="4592"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4593" max="4593"/>
+    <col width="13.5" customWidth="1" style="32" min="4594" max="4594"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4595" max="4841"/>
     <col width="5" customWidth="1" style="32" min="4842" max="4842"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4843" max="4843"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4844" max="4844"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4845" max="4845"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4846" max="4846"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4843" max="4843"/>
+    <col width="6.5" customWidth="1" style="32" min="4844" max="4844"/>
+    <col width="29.5" customWidth="1" style="32" min="4845" max="4845"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4846" max="4846"/>
     <col width="8" customWidth="1" style="32" min="4847" max="4847"/>
-    <col width="9.140625" customWidth="1" style="32" min="4848" max="4848"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4849" max="4849"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4850" max="4850"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4851" max="5097"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4848" max="4848"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4849" max="4849"/>
+    <col width="13.5" customWidth="1" style="32" min="4850" max="4850"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4851" max="5097"/>
     <col width="5" customWidth="1" style="32" min="5098" max="5098"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5099" max="5099"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5100" max="5100"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5101" max="5101"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5102" max="5102"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5099" max="5099"/>
+    <col width="6.5" customWidth="1" style="32" min="5100" max="5100"/>
+    <col width="29.5" customWidth="1" style="32" min="5101" max="5101"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5102" max="5102"/>
     <col width="8" customWidth="1" style="32" min="5103" max="5103"/>
-    <col width="9.140625" customWidth="1" style="32" min="5104" max="5104"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5105" max="5105"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5106" max="5106"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5107" max="5353"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5104" max="5104"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5105" max="5105"/>
+    <col width="13.5" customWidth="1" style="32" min="5106" max="5106"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5107" max="5353"/>
     <col width="5" customWidth="1" style="32" min="5354" max="5354"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5355" max="5355"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5356" max="5356"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5357" max="5357"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5358" max="5358"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5355" max="5355"/>
+    <col width="6.5" customWidth="1" style="32" min="5356" max="5356"/>
+    <col width="29.5" customWidth="1" style="32" min="5357" max="5357"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5358" max="5358"/>
     <col width="8" customWidth="1" style="32" min="5359" max="5359"/>
-    <col width="9.140625" customWidth="1" style="32" min="5360" max="5360"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5361" max="5361"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5362" max="5362"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5363" max="5609"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5360" max="5360"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5361" max="5361"/>
+    <col width="13.5" customWidth="1" style="32" min="5362" max="5362"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5363" max="5609"/>
     <col width="5" customWidth="1" style="32" min="5610" max="5610"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5611" max="5611"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5612" max="5612"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5613" max="5613"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5614" max="5614"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5611" max="5611"/>
+    <col width="6.5" customWidth="1" style="32" min="5612" max="5612"/>
+    <col width="29.5" customWidth="1" style="32" min="5613" max="5613"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5614" max="5614"/>
     <col width="8" customWidth="1" style="32" min="5615" max="5615"/>
-    <col width="9.140625" customWidth="1" style="32" min="5616" max="5616"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5617" max="5617"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5618" max="5618"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5619" max="5865"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5616" max="5616"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5617" max="5617"/>
+    <col width="13.5" customWidth="1" style="32" min="5618" max="5618"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5619" max="5865"/>
     <col width="5" customWidth="1" style="32" min="5866" max="5866"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5867" max="5867"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5868" max="5868"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5869" max="5869"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5870" max="5870"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5867" max="5867"/>
+    <col width="6.5" customWidth="1" style="32" min="5868" max="5868"/>
+    <col width="29.5" customWidth="1" style="32" min="5869" max="5869"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5870" max="5870"/>
     <col width="8" customWidth="1" style="32" min="5871" max="5871"/>
-    <col width="9.140625" customWidth="1" style="32" min="5872" max="5872"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5873" max="5873"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5874" max="5874"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5875" max="6121"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5872" max="5872"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5873" max="5873"/>
+    <col width="13.5" customWidth="1" style="32" min="5874" max="5874"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5875" max="6121"/>
     <col width="5" customWidth="1" style="32" min="6122" max="6122"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6123" max="6123"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6124" max="6124"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6125" max="6125"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6126" max="6126"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6123" max="6123"/>
+    <col width="6.5" customWidth="1" style="32" min="6124" max="6124"/>
+    <col width="29.5" customWidth="1" style="32" min="6125" max="6125"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6126" max="6126"/>
     <col width="8" customWidth="1" style="32" min="6127" max="6127"/>
-    <col width="9.140625" customWidth="1" style="32" min="6128" max="6128"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6129" max="6129"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6130" max="6130"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6131" max="6377"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6128" max="6128"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6129" max="6129"/>
+    <col width="13.5" customWidth="1" style="32" min="6130" max="6130"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6131" max="6377"/>
     <col width="5" customWidth="1" style="32" min="6378" max="6378"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6379" max="6379"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6380" max="6380"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6381" max="6381"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6382" max="6382"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6379" max="6379"/>
+    <col width="6.5" customWidth="1" style="32" min="6380" max="6380"/>
+    <col width="29.5" customWidth="1" style="32" min="6381" max="6381"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6382" max="6382"/>
     <col width="8" customWidth="1" style="32" min="6383" max="6383"/>
-    <col width="9.140625" customWidth="1" style="32" min="6384" max="6384"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6385" max="6385"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6386" max="6386"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6387" max="6633"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6384" max="6384"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6385" max="6385"/>
+    <col width="13.5" customWidth="1" style="32" min="6386" max="6386"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6387" max="6633"/>
     <col width="5" customWidth="1" style="32" min="6634" max="6634"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6635" max="6635"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6636" max="6636"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6637" max="6637"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6638" max="6638"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6635" max="6635"/>
+    <col width="6.5" customWidth="1" style="32" min="6636" max="6636"/>
+    <col width="29.5" customWidth="1" style="32" min="6637" max="6637"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6638" max="6638"/>
     <col width="8" customWidth="1" style="32" min="6639" max="6639"/>
-    <col width="9.140625" customWidth="1" style="32" min="6640" max="6640"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6641" max="6641"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6642" max="6642"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6643" max="6889"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6640" max="6640"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6641" max="6641"/>
+    <col width="13.5" customWidth="1" style="32" min="6642" max="6642"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6643" max="6889"/>
     <col width="5" customWidth="1" style="32" min="6890" max="6890"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6891" max="6891"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6892" max="6892"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6893" max="6893"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6894" max="6894"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6891" max="6891"/>
+    <col width="6.5" customWidth="1" style="32" min="6892" max="6892"/>
+    <col width="29.5" customWidth="1" style="32" min="6893" max="6893"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6894" max="6894"/>
     <col width="8" customWidth="1" style="32" min="6895" max="6895"/>
-    <col width="9.140625" customWidth="1" style="32" min="6896" max="6896"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6897" max="6897"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6898" max="6898"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6899" max="7145"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6896" max="6896"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6897" max="6897"/>
+    <col width="13.5" customWidth="1" style="32" min="6898" max="6898"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6899" max="7145"/>
     <col width="5" customWidth="1" style="32" min="7146" max="7146"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7147" max="7147"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7148" max="7148"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7149" max="7149"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7150" max="7150"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7147" max="7147"/>
+    <col width="6.5" customWidth="1" style="32" min="7148" max="7148"/>
+    <col width="29.5" customWidth="1" style="32" min="7149" max="7149"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7150" max="7150"/>
     <col width="8" customWidth="1" style="32" min="7151" max="7151"/>
-    <col width="9.140625" customWidth="1" style="32" min="7152" max="7152"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7153" max="7153"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7154" max="7154"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7155" max="7401"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7152" max="7152"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7153" max="7153"/>
+    <col width="13.5" customWidth="1" style="32" min="7154" max="7154"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7155" max="7401"/>
     <col width="5" customWidth="1" style="32" min="7402" max="7402"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7403" max="7403"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7404" max="7404"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7405" max="7405"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7406" max="7406"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7403" max="7403"/>
+    <col width="6.5" customWidth="1" style="32" min="7404" max="7404"/>
+    <col width="29.5" customWidth="1" style="32" min="7405" max="7405"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7406" max="7406"/>
     <col width="8" customWidth="1" style="32" min="7407" max="7407"/>
-    <col width="9.140625" customWidth="1" style="32" min="7408" max="7408"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7409" max="7409"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7410" max="7410"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7411" max="7657"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7408" max="7408"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7409" max="7409"/>
+    <col width="13.5" customWidth="1" style="32" min="7410" max="7410"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7411" max="7657"/>
     <col width="5" customWidth="1" style="32" min="7658" max="7658"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7659" max="7659"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7660" max="7660"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7661" max="7661"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7662" max="7662"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7659" max="7659"/>
+    <col width="6.5" customWidth="1" style="32" min="7660" max="7660"/>
+    <col width="29.5" customWidth="1" style="32" min="7661" max="7661"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7662" max="7662"/>
     <col width="8" customWidth="1" style="32" min="7663" max="7663"/>
-    <col width="9.140625" customWidth="1" style="32" min="7664" max="7664"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7665" max="7665"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7666" max="7666"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7667" max="7913"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7664" max="7664"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7665" max="7665"/>
+    <col width="13.5" customWidth="1" style="32" min="7666" max="7666"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7667" max="7913"/>
     <col width="5" customWidth="1" style="32" min="7914" max="7914"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7915" max="7915"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7916" max="7916"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7917" max="7917"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7918" max="7918"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7915" max="7915"/>
+    <col width="6.5" customWidth="1" style="32" min="7916" max="7916"/>
+    <col width="29.5" customWidth="1" style="32" min="7917" max="7917"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7918" max="7918"/>
     <col width="8" customWidth="1" style="32" min="7919" max="7919"/>
-    <col width="9.140625" customWidth="1" style="32" min="7920" max="7920"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7921" max="7921"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7922" max="7922"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7923" max="8169"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7920" max="7920"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7921" max="7921"/>
+    <col width="13.5" customWidth="1" style="32" min="7922" max="7922"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7923" max="8169"/>
     <col width="5" customWidth="1" style="32" min="8170" max="8170"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8171" max="8171"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8172" max="8172"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8173" max="8173"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8174" max="8174"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8171" max="8171"/>
+    <col width="6.5" customWidth="1" style="32" min="8172" max="8172"/>
+    <col width="29.5" customWidth="1" style="32" min="8173" max="8173"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8174" max="8174"/>
     <col width="8" customWidth="1" style="32" min="8175" max="8175"/>
-    <col width="9.140625" customWidth="1" style="32" min="8176" max="8176"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8177" max="8177"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8178" max="8178"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8179" max="8425"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8176" max="8176"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8177" max="8177"/>
+    <col width="13.5" customWidth="1" style="32" min="8178" max="8178"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8179" max="8425"/>
     <col width="5" customWidth="1" style="32" min="8426" max="8426"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8427" max="8427"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8428" max="8428"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8429" max="8429"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8430" max="8430"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8427" max="8427"/>
+    <col width="6.5" customWidth="1" style="32" min="8428" max="8428"/>
+    <col width="29.5" customWidth="1" style="32" min="8429" max="8429"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8430" max="8430"/>
     <col width="8" customWidth="1" style="32" min="8431" max="8431"/>
-    <col width="9.140625" customWidth="1" style="32" min="8432" max="8432"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8433" max="8433"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8434" max="8434"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8435" max="8681"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8432" max="8432"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8433" max="8433"/>
+    <col width="13.5" customWidth="1" style="32" min="8434" max="8434"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8435" max="8681"/>
     <col width="5" customWidth="1" style="32" min="8682" max="8682"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8683" max="8683"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8684" max="8684"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8685" max="8685"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8686" max="8686"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8683" max="8683"/>
+    <col width="6.5" customWidth="1" style="32" min="8684" max="8684"/>
+    <col width="29.5" customWidth="1" style="32" min="8685" max="8685"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8686" max="8686"/>
     <col width="8" customWidth="1" style="32" min="8687" max="8687"/>
-    <col width="9.140625" customWidth="1" style="32" min="8688" max="8688"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8689" max="8689"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8690" max="8690"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8691" max="8937"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8688" max="8688"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8689" max="8689"/>
+    <col width="13.5" customWidth="1" style="32" min="8690" max="8690"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8691" max="8937"/>
     <col width="5" customWidth="1" style="32" min="8938" max="8938"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8939" max="8939"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8940" max="8940"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8941" max="8941"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8942" max="8942"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8939" max="8939"/>
+    <col width="6.5" customWidth="1" style="32" min="8940" max="8940"/>
+    <col width="29.5" customWidth="1" style="32" min="8941" max="8941"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8942" max="8942"/>
     <col width="8" customWidth="1" style="32" min="8943" max="8943"/>
-    <col width="9.140625" customWidth="1" style="32" min="8944" max="8944"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8945" max="8945"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8946" max="8946"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8947" max="9193"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8944" max="8944"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8945" max="8945"/>
+    <col width="13.5" customWidth="1" style="32" min="8946" max="8946"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8947" max="9193"/>
     <col width="5" customWidth="1" style="32" min="9194" max="9194"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9195" max="9195"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9196" max="9196"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9197" max="9197"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9198" max="9198"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9195" max="9195"/>
+    <col width="6.5" customWidth="1" style="32" min="9196" max="9196"/>
+    <col width="29.5" customWidth="1" style="32" min="9197" max="9197"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9198" max="9198"/>
     <col width="8" customWidth="1" style="32" min="9199" max="9199"/>
-    <col width="9.140625" customWidth="1" style="32" min="9200" max="9200"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9201" max="9201"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9202" max="9202"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9203" max="9449"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9200" max="9200"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9201" max="9201"/>
+    <col width="13.5" customWidth="1" style="32" min="9202" max="9202"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9203" max="9449"/>
     <col width="5" customWidth="1" style="32" min="9450" max="9450"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9451" max="9451"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9452" max="9452"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9453" max="9453"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9454" max="9454"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9451" max="9451"/>
+    <col width="6.5" customWidth="1" style="32" min="9452" max="9452"/>
+    <col width="29.5" customWidth="1" style="32" min="9453" max="9453"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9454" max="9454"/>
     <col width="8" customWidth="1" style="32" min="9455" max="9455"/>
-    <col width="9.140625" customWidth="1" style="32" min="9456" max="9456"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9457" max="9457"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9458" max="9458"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9459" max="9705"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9456" max="9456"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9457" max="9457"/>
+    <col width="13.5" customWidth="1" style="32" min="9458" max="9458"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9459" max="9705"/>
     <col width="5" customWidth="1" style="32" min="9706" max="9706"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9707" max="9707"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9708" max="9708"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9709" max="9709"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9710" max="9710"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9707" max="9707"/>
+    <col width="6.5" customWidth="1" style="32" min="9708" max="9708"/>
+    <col width="29.5" customWidth="1" style="32" min="9709" max="9709"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9710" max="9710"/>
     <col width="8" customWidth="1" style="32" min="9711" max="9711"/>
-    <col width="9.140625" customWidth="1" style="32" min="9712" max="9712"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9713" max="9713"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9714" max="9714"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9715" max="9961"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9712" max="9712"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9713" max="9713"/>
+    <col width="13.5" customWidth="1" style="32" min="9714" max="9714"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9715" max="9961"/>
     <col width="5" customWidth="1" style="32" min="9962" max="9962"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9963" max="9963"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9964" max="9964"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9965" max="9965"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9966" max="9966"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9963" max="9963"/>
+    <col width="6.5" customWidth="1" style="32" min="9964" max="9964"/>
+    <col width="29.5" customWidth="1" style="32" min="9965" max="9965"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9966" max="9966"/>
     <col width="8" customWidth="1" style="32" min="9967" max="9967"/>
-    <col width="9.140625" customWidth="1" style="32" min="9968" max="9968"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9969" max="9969"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9970" max="9970"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9971" max="10217"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9968" max="9968"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9969" max="9969"/>
+    <col width="13.5" customWidth="1" style="32" min="9970" max="9970"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9971" max="10217"/>
     <col width="5" customWidth="1" style="32" min="10218" max="10218"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10219" max="10219"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10220" max="10220"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10221" max="10221"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10222" max="10222"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10219" max="10219"/>
+    <col width="6.5" customWidth="1" style="32" min="10220" max="10220"/>
+    <col width="29.5" customWidth="1" style="32" min="10221" max="10221"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10222" max="10222"/>
     <col width="8" customWidth="1" style="32" min="10223" max="10223"/>
-    <col width="9.140625" customWidth="1" style="32" min="10224" max="10224"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10225" max="10225"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10226" max="10226"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10227" max="10473"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10224" max="10224"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10225" max="10225"/>
+    <col width="13.5" customWidth="1" style="32" min="10226" max="10226"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10227" max="10473"/>
     <col width="5" customWidth="1" style="32" min="10474" max="10474"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10475" max="10475"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10476" max="10476"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10477" max="10477"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10478" max="10478"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10475" max="10475"/>
+    <col width="6.5" customWidth="1" style="32" min="10476" max="10476"/>
+    <col width="29.5" customWidth="1" style="32" min="10477" max="10477"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10478" max="10478"/>
     <col width="8" customWidth="1" style="32" min="10479" max="10479"/>
-    <col width="9.140625" customWidth="1" style="32" min="10480" max="10480"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10481" max="10481"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10482" max="10482"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10483" max="10729"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10480" max="10480"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10481" max="10481"/>
+    <col width="13.5" customWidth="1" style="32" min="10482" max="10482"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10483" max="10729"/>
     <col width="5" customWidth="1" style="32" min="10730" max="10730"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10731" max="10731"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10732" max="10732"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10733" max="10733"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10734" max="10734"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10731" max="10731"/>
+    <col width="6.5" customWidth="1" style="32" min="10732" max="10732"/>
+    <col width="29.5" customWidth="1" style="32" min="10733" max="10733"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10734" max="10734"/>
     <col width="8" customWidth="1" style="32" min="10735" max="10735"/>
-    <col width="9.140625" customWidth="1" style="32" min="10736" max="10736"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10737" max="10737"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10738" max="10738"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10739" max="10985"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10736" max="10736"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10737" max="10737"/>
+    <col width="13.5" customWidth="1" style="32" min="10738" max="10738"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10739" max="10985"/>
     <col width="5" customWidth="1" style="32" min="10986" max="10986"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10987" max="10987"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10988" max="10988"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10989" max="10989"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10990" max="10990"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10987" max="10987"/>
+    <col width="6.5" customWidth="1" style="32" min="10988" max="10988"/>
+    <col width="29.5" customWidth="1" style="32" min="10989" max="10989"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10990" max="10990"/>
     <col width="8" customWidth="1" style="32" min="10991" max="10991"/>
-    <col width="9.140625" customWidth="1" style="32" min="10992" max="10992"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10993" max="10993"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10994" max="10994"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10995" max="11241"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10992" max="10992"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10993" max="10993"/>
+    <col width="13.5" customWidth="1" style="32" min="10994" max="10994"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10995" max="11241"/>
     <col width="5" customWidth="1" style="32" min="11242" max="11242"/>
-    <col width="33.28515625" customWidth="1" style="32" min="11243" max="11243"/>
-    <col width="6.42578125" customWidth="1" style="32" min="11244" max="11244"/>
-    <col width="29.42578125" customWidth="1" style="32" min="11245" max="11245"/>
-    <col width="23.7109375" customWidth="1" style="32" min="11246" max="11246"/>
+    <col width="33.33203125" customWidth="1" style="32" min="11243" max="11243"/>
+    <col width="6.5" customWidth="1" style="32" min="11244" max="11244"/>
+    <col width="29.5" customWidth="1" style="32" min="11245" max="11245"/>
+    <col width="23.6640625" customWidth="1" style="32" min="11246" max="11246"/>
     <col width="8" customWidth="1" style="32" min="11247" max="11247"/>
-    <col width="9.140625" customWidth="1" style="32" min="11248" max="11248"/>
-    <col width="13.7109375" customWidth="1" style="32" min="11249" max="11249"/>
-    <col width="13.42578125" customWidth="1" style="32" min="11250" max="11250"/>
-    <col width="8.7109375" customWidth="1" style="32" min="11251" max="11497"/>
+    <col width="9.1640625" customWidth="1" style="32" min="11248" max="11248"/>
+    <col width="13.6640625" customWidth="1" style="32" min="11249" max="11249"/>
+    <col width="13.5" customWidth="1" style="32" min="11250" max="11250"/>
+    <col width="8.6640625" customWidth="1" style="32" min="11251" max="11497"/>
     <col width="5" customWidth="1" style="32" min="11498" max="11498"/>
-    <col width="33.28515625" customWidth="1" style="32" min="11499" max="11499"/>
-    <col width="6.42578125" customWidth="1" style="32" min="11500" max="11500"/>
-    <col width="29.42578125" customWidth="1" style="32" min="11501" max="11501"/>
-    <col width="23.7109375" customWidth="1" style="32" min="11502" max="11502"/>
+    <col width="33.33203125" customWidth="1" style="32" min="11499" max="11499"/>
+    <col width="6.5" customWidth="1" style="32" min="11500" max="11500"/>
+    <col width="29.5" customWidth="1" style="32" min="11501" max="11501"/>
+    <col width="23.6640625" customWidth="1" style="32" min="11502" max="11502"/>
     <col width="8" customWidth="1" style="32" min="11503" max="11503"/>
-    <col width="9.140625" customWidth="1" style="32" min="11504" max="11504"/>
-    <col width="13.7109375" customWidth="1" style="32" min="11505" max="11505"/>
-    <col width="13.42578125" customWidth="1" style="32" min="11506" max="11506"/>
-    <col width="8.7109375" customWidth="1" style="32" min="11507" max="11753"/>
+    <col width="9.1640625" customWidth="1" style="32" min="11504" max="11504"/>
+    <col width="13.6640625" customWidth="1" style="32" min="11505" max="11505"/>
+    <col width="13.5" customWidth="1" style="32" min="11506" max="11506"/>
+    <col width="8.6640625" customWidth="1" style="32" min="11507" max="11753"/>
     <col width="5" customWidth="1" style="32" min="11754" max="11754"/>
-    <col width="33.28515625" customWidth="1" style="32" min="11755" max="11755"/>
-    <col width="6.42578125" customWidth="1" style="32" min="11756" max="11756"/>
-    <col width="29.42578125" customWidth="1" style="32" min="11757" max="11757"/>
-    <col width="23.7109375" customWidth="1" style="32" min="11758" max="11758"/>
+    <col width="33.33203125" customWidth="1" style="32" min="11755" max="11755"/>
+    <col width="6.5" customWidth="1" style="32" min="11756" max="11756"/>
+    <col width="29.5" customWidth="1" style="32" min="11757" max="11757"/>
+    <col width="23.6640625" customWidth="1" style="32" min="11758" max="11758"/>
     <col width="8" customWidth="1" style="32" min="11759" max="11759"/>
-    <col width="9.140625" customWidth="1" style="32" min="11760" max="11760"/>
-    <col width="13.7109375" customWidth="1" style="32" min="11761" max="11761"/>
-    <col width="13.42578125" customWidth="1" style="32" min="11762" max="11762"/>
-    <col width="8.7109375" customWidth="1" style="32" min="11763" max="12009"/>
+    <col width="9.1640625" customWidth="1" style="32" min="11760" max="11760"/>
+    <col width="13.6640625" customWidth="1" style="32" min="11761" max="11761"/>
+    <col width="13.5" customWidth="1" style="32" min="11762" max="11762"/>
+    <col width="8.6640625" customWidth="1" style="32" min="11763" max="12009"/>
     <col width="5" customWidth="1" style="32" min="12010" max="12010"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12011" max="12011"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12012" max="12012"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12013" max="12013"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12014" max="12014"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12011" max="12011"/>
+    <col width="6.5" customWidth="1" style="32" min="12012" max="12012"/>
+    <col width="29.5" customWidth="1" style="32" min="12013" max="12013"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12014" max="12014"/>
     <col width="8" customWidth="1" style="32" min="12015" max="12015"/>
-    <col width="9.140625" customWidth="1" style="32" min="12016" max="12016"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12017" max="12017"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12018" max="12018"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12019" max="12265"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12016" max="12016"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12017" max="12017"/>
+    <col width="13.5" customWidth="1" style="32" min="12018" max="12018"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12019" max="12265"/>
     <col width="5" customWidth="1" style="32" min="12266" max="12266"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12267" max="12267"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12268" max="12268"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12269" max="12269"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12270" max="12270"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12267" max="12267"/>
+    <col width="6.5" customWidth="1" style="32" min="12268" max="12268"/>
+    <col width="29.5" customWidth="1" style="32" min="12269" max="12269"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12270" max="12270"/>
     <col width="8" customWidth="1" style="32" min="12271" max="12271"/>
-    <col width="9.140625" customWidth="1" style="32" min="12272" max="12272"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12273" max="12273"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12274" max="12274"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12275" max="12521"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12272" max="12272"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12273" max="12273"/>
+    <col width="13.5" customWidth="1" style="32" min="12274" max="12274"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12275" max="12521"/>
     <col width="5" customWidth="1" style="32" min="12522" max="12522"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12523" max="12523"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12524" max="12524"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12525" max="12525"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12526" max="12526"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12523" max="12523"/>
+    <col width="6.5" customWidth="1" style="32" min="12524" max="12524"/>
+    <col width="29.5" customWidth="1" style="32" min="12525" max="12525"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12526" max="12526"/>
     <col width="8" customWidth="1" style="32" min="12527" max="12527"/>
-    <col width="9.140625" customWidth="1" style="32" min="12528" max="12528"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12529" max="12529"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12530" max="12530"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12531" max="12777"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12528" max="12528"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12529" max="12529"/>
+    <col width="13.5" customWidth="1" style="32" min="12530" max="12530"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12531" max="12777"/>
     <col width="5" customWidth="1" style="32" min="12778" max="12778"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12779" max="12779"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12780" max="12780"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12781" max="12781"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12782" max="12782"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12779" max="12779"/>
+    <col width="6.5" customWidth="1" style="32" min="12780" max="12780"/>
+    <col width="29.5" customWidth="1" style="32" min="12781" max="12781"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12782" max="12782"/>
     <col width="8" customWidth="1" style="32" min="12783" max="12783"/>
-    <col width="9.140625" customWidth="1" style="32" min="12784" max="12784"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12785" max="12785"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12786" max="12786"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12787" max="13033"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12784" max="12784"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12785" max="12785"/>
+    <col width="13.5" customWidth="1" style="32" min="12786" max="12786"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12787" max="13033"/>
     <col width="5" customWidth="1" style="32" min="13034" max="13034"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13035" max="13035"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13036" max="13036"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13037" max="13037"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13038" max="13038"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13035" max="13035"/>
+    <col width="6.5" customWidth="1" style="32" min="13036" max="13036"/>
+    <col width="29.5" customWidth="1" style="32" min="13037" max="13037"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13038" max="13038"/>
     <col width="8" customWidth="1" style="32" min="13039" max="13039"/>
-    <col width="9.140625" customWidth="1" style="32" min="13040" max="13040"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13041" max="13041"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13042" max="13042"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13043" max="13289"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13040" max="13040"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13041" max="13041"/>
+    <col width="13.5" customWidth="1" style="32" min="13042" max="13042"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13043" max="13289"/>
     <col width="5" customWidth="1" style="32" min="13290" max="13290"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13291" max="13291"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13292" max="13292"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13293" max="13293"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13294" max="13294"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13291" max="13291"/>
+    <col width="6.5" customWidth="1" style="32" min="13292" max="13292"/>
+    <col width="29.5" customWidth="1" style="32" min="13293" max="13293"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13294" max="13294"/>
     <col width="8" customWidth="1" style="32" min="13295" max="13295"/>
-    <col width="9.140625" customWidth="1" style="32" min="13296" max="13296"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13297" max="13297"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13298" max="13298"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13299" max="13545"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13296" max="13296"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13297" max="13297"/>
+    <col width="13.5" customWidth="1" style="32" min="13298" max="13298"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13299" max="13545"/>
     <col width="5" customWidth="1" style="32" min="13546" max="13546"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13547" max="13547"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13548" max="13548"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13549" max="13549"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13550" max="13550"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13547" max="13547"/>
+    <col width="6.5" customWidth="1" style="32" min="13548" max="13548"/>
+    <col width="29.5" customWidth="1" style="32" min="13549" max="13549"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13550" max="13550"/>
     <col width="8" customWidth="1" style="32" min="13551" max="13551"/>
-    <col width="9.140625" customWidth="1" style="32" min="13552" max="13552"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13553" max="13553"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13554" max="13554"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13555" max="13801"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13552" max="13552"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13553" max="13553"/>
+    <col width="13.5" customWidth="1" style="32" min="13554" max="13554"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13555" max="13801"/>
     <col width="5" customWidth="1" style="32" min="13802" max="13802"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13803" max="13803"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13804" max="13804"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13805" max="13805"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13806" max="13806"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13803" max="13803"/>
+    <col width="6.5" customWidth="1" style="32" min="13804" max="13804"/>
+    <col width="29.5" customWidth="1" style="32" min="13805" max="13805"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13806" max="13806"/>
     <col width="8" customWidth="1" style="32" min="13807" max="13807"/>
-    <col width="9.140625" customWidth="1" style="32" min="13808" max="13808"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13809" max="13809"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13810" max="13810"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13811" max="14057"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13808" max="13808"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13809" max="13809"/>
+    <col width="13.5" customWidth="1" style="32" min="13810" max="13810"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13811" max="14057"/>
     <col width="5" customWidth="1" style="32" min="14058" max="14058"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14059" max="14059"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14060" max="14060"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14061" max="14061"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14062" max="14062"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14059" max="14059"/>
+    <col width="6.5" customWidth="1" style="32" min="14060" max="14060"/>
+    <col width="29.5" customWidth="1" style="32" min="14061" max="14061"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14062" max="14062"/>
     <col width="8" customWidth="1" style="32" min="14063" max="14063"/>
-    <col width="9.140625" customWidth="1" style="32" min="14064" max="14064"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14065" max="14065"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14066" max="14066"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14067" max="14313"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14064" max="14064"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14065" max="14065"/>
+    <col width="13.5" customWidth="1" style="32" min="14066" max="14066"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14067" max="14313"/>
     <col width="5" customWidth="1" style="32" min="14314" max="14314"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14315" max="14315"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14316" max="14316"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14317" max="14317"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14318" max="14318"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14315" max="14315"/>
+    <col width="6.5" customWidth="1" style="32" min="14316" max="14316"/>
+    <col width="29.5" customWidth="1" style="32" min="14317" max="14317"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14318" max="14318"/>
     <col width="8" customWidth="1" style="32" min="14319" max="14319"/>
-    <col width="9.140625" customWidth="1" style="32" min="14320" max="14320"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14321" max="14321"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14322" max="14322"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14323" max="14569"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14320" max="14320"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14321" max="14321"/>
+    <col width="13.5" customWidth="1" style="32" min="14322" max="14322"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14323" max="14569"/>
     <col width="5" customWidth="1" style="32" min="14570" max="14570"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14571" max="14571"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14572" max="14572"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14573" max="14573"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14574" max="14574"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14571" max="14571"/>
+    <col width="6.5" customWidth="1" style="32" min="14572" max="14572"/>
+    <col width="29.5" customWidth="1" style="32" min="14573" max="14573"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14574" max="14574"/>
     <col width="8" customWidth="1" style="32" min="14575" max="14575"/>
-    <col width="9.140625" customWidth="1" style="32" min="14576" max="14576"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14577" max="14577"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14578" max="14578"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14579" max="14825"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14576" max="14576"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14577" max="14577"/>
+    <col width="13.5" customWidth="1" style="32" min="14578" max="14578"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14579" max="14825"/>
     <col width="5" customWidth="1" style="32" min="14826" max="14826"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14827" max="14827"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14828" max="14828"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14829" max="14829"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14830" max="14830"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14827" max="14827"/>
+    <col width="6.5" customWidth="1" style="32" min="14828" max="14828"/>
+    <col width="29.5" customWidth="1" style="32" min="14829" max="14829"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14830" max="14830"/>
     <col width="8" customWidth="1" style="32" min="14831" max="14831"/>
-    <col width="9.140625" customWidth="1" style="32" min="14832" max="14832"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14833" max="14833"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14834" max="14834"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14835" max="15081"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14832" max="14832"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14833" max="14833"/>
+    <col width="13.5" customWidth="1" style="32" min="14834" max="14834"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14835" max="15081"/>
     <col width="5" customWidth="1" style="32" min="15082" max="15082"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15083" max="15083"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15084" max="15084"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15085" max="15085"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15086" max="15086"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15083" max="15083"/>
+    <col width="6.5" customWidth="1" style="32" min="15084" max="15084"/>
+    <col width="29.5" customWidth="1" style="32" min="15085" max="15085"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15086" max="15086"/>
     <col width="8" customWidth="1" style="32" min="15087" max="15087"/>
-    <col width="9.140625" customWidth="1" style="32" min="15088" max="15088"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15089" max="15089"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15090" max="15090"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15091" max="15337"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15088" max="15088"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15089" max="15089"/>
+    <col width="13.5" customWidth="1" style="32" min="15090" max="15090"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15091" max="15337"/>
     <col width="5" customWidth="1" style="32" min="15338" max="15338"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15339" max="15339"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15340" max="15340"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15341" max="15341"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15342" max="15342"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15339" max="15339"/>
+    <col width="6.5" customWidth="1" style="32" min="15340" max="15340"/>
+    <col width="29.5" customWidth="1" style="32" min="15341" max="15341"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15342" max="15342"/>
     <col width="8" customWidth="1" style="32" min="15343" max="15343"/>
-    <col width="9.140625" customWidth="1" style="32" min="15344" max="15344"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15345" max="15345"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15346" max="15346"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15347" max="15593"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15344" max="15344"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15345" max="15345"/>
+    <col width="13.5" customWidth="1" style="32" min="15346" max="15346"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15347" max="15593"/>
     <col width="5" customWidth="1" style="32" min="15594" max="15594"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15595" max="15595"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15596" max="15596"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15597" max="15597"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15598" max="15598"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15595" max="15595"/>
+    <col width="6.5" customWidth="1" style="32" min="15596" max="15596"/>
+    <col width="29.5" customWidth="1" style="32" min="15597" max="15597"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15598" max="15598"/>
     <col width="8" customWidth="1" style="32" min="15599" max="15599"/>
-    <col width="9.140625" customWidth="1" style="32" min="15600" max="15600"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15601" max="15601"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15602" max="15602"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15603" max="15849"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15600" max="15600"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15601" max="15601"/>
+    <col width="13.5" customWidth="1" style="32" min="15602" max="15602"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15603" max="15849"/>
     <col width="5" customWidth="1" style="32" min="15850" max="15850"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15851" max="15851"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15852" max="15852"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15853" max="15853"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15854" max="15854"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15851" max="15851"/>
+    <col width="6.5" customWidth="1" style="32" min="15852" max="15852"/>
+    <col width="29.5" customWidth="1" style="32" min="15853" max="15853"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15854" max="15854"/>
     <col width="8" customWidth="1" style="32" min="15855" max="15855"/>
-    <col width="9.140625" customWidth="1" style="32" min="15856" max="15856"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15857" max="15857"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15858" max="15858"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15859" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15856" max="15856"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15857" max="15857"/>
+    <col width="13.5" customWidth="1" style="32" min="15858" max="15858"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15859" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="75" customFormat="1" customHeight="1" s="21">
       <c r="C1" s="21" t="n"/>
-      <c r="D1" s="179" t="inlineStr">
+      <c r="D1" s="136" t="inlineStr">
         <is>
           <t>KPI NĂM CỦA NHÂN VIÊN 
 NĂM 2020</t>
@@ -9285,24 +9285,24 @@
       </c>
     </row>
     <row r="2" ht="23.25" customFormat="1" customHeight="1" s="22">
-      <c r="B2" s="203" t="inlineStr">
+      <c r="B2" s="137" t="inlineStr">
         <is>
           <t>Họ và tên:</t>
         </is>
       </c>
-      <c r="D2" s="188" t="inlineStr">
+      <c r="D2" s="147" t="inlineStr">
         <is>
           <t>NGUYẼN THỊ KIỀU HẠNH</t>
         </is>
       </c>
       <c r="E2" s="208" t="n"/>
       <c r="F2" s="208" t="n"/>
-      <c r="G2" s="201" t="inlineStr">
+      <c r="G2" s="132" t="inlineStr">
         <is>
           <t>Chức danh:</t>
         </is>
       </c>
-      <c r="J2" s="189" t="inlineStr">
+      <c r="J2" s="131" t="inlineStr">
         <is>
           <t>Bác sĩ</t>
         </is>
@@ -9311,24 +9311,24 @@
       <c r="L2" s="209" t="n"/>
     </row>
     <row r="3" ht="23.25" customFormat="1" customHeight="1" s="22">
-      <c r="B3" s="203" t="inlineStr">
+      <c r="B3" s="137" t="inlineStr">
         <is>
           <t>Mã nhân viên:</t>
         </is>
       </c>
-      <c r="D3" s="189" t="inlineStr">
+      <c r="D3" s="131" t="inlineStr">
         <is>
           <t>01461</t>
         </is>
       </c>
       <c r="E3" s="209" t="n"/>
       <c r="F3" s="209" t="n"/>
-      <c r="G3" s="202" t="inlineStr">
+      <c r="G3" s="134" t="inlineStr">
         <is>
           <t>Phòng ban/ Bộ phận:</t>
         </is>
       </c>
-      <c r="J3" s="189" t="inlineStr">
+      <c r="J3" s="131" t="inlineStr">
         <is>
           <t>Ngoại thần kinh</t>
         </is>
@@ -9349,7 +9349,7 @@
       <c r="K4" s="28" t="n"/>
       <c r="L4" s="27" t="n"/>
     </row>
-    <row r="5" ht="19.9" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
+    <row r="5" ht="20" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
       <c r="B5" s="77" t="inlineStr">
         <is>
           <t xml:space="preserve">I </t>
@@ -9367,7 +9367,7 @@
       <c r="H5" s="66" t="n"/>
       <c r="I5" s="66" t="n"/>
       <c r="J5" s="65" t="n"/>
-      <c r="K5" s="151" t="n"/>
+      <c r="K5" s="130" t="n"/>
       <c r="L5" s="78">
         <f>L7+L8</f>
         <v/>
@@ -9379,7 +9379,7 @@
           <t>Stt</t>
         </is>
       </c>
-      <c r="C6" s="183" t="inlineStr">
+      <c r="C6" s="142" t="inlineStr">
         <is>
           <t>Nội dung</t>
         </is>
@@ -9387,12 +9387,12 @@
       <c r="D6" s="210" t="n"/>
       <c r="E6" s="210" t="n"/>
       <c r="F6" s="210" t="n"/>
-      <c r="G6" s="172" t="inlineStr">
+      <c r="G6" s="148" t="inlineStr">
         <is>
           <t>Trọng số</t>
         </is>
       </c>
-      <c r="H6" s="183" t="inlineStr">
+      <c r="H6" s="142" t="inlineStr">
         <is>
           <t>Kế hoạch</t>
         </is>
@@ -9402,12 +9402,12 @@
           <t>Thực hiện</t>
         </is>
       </c>
-      <c r="J6" s="183" t="inlineStr">
+      <c r="J6" s="142" t="inlineStr">
         <is>
           <t>Hoàn thành</t>
         </is>
       </c>
-      <c r="K6" s="183" t="inlineStr">
+      <c r="K6" s="142" t="inlineStr">
         <is>
           <t>Ghi chú</t>
         </is>
@@ -9418,7 +9418,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="19.9" customHeight="1">
+    <row r="7" ht="20" customHeight="1">
       <c r="B7" s="81" t="n">
         <v>1</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="74" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="J7" s="41">
         <f>I7/H7</f>
@@ -9449,7 +9449,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="19.9" customHeight="1" thickBot="1">
+    <row r="8" ht="20" customHeight="1" thickBot="1">
       <c r="B8" s="83" t="n">
         <v>2</v>
       </c>
@@ -9495,10 +9495,10 @@
       <c r="E9" s="62" t="n"/>
       <c r="F9" s="64" t="n"/>
       <c r="G9" s="62" t="n"/>
-      <c r="H9" s="151" t="n"/>
+      <c r="H9" s="130" t="n"/>
       <c r="I9" s="217" t="n"/>
       <c r="J9" s="65" t="n"/>
-      <c r="K9" s="151" t="n"/>
+      <c r="K9" s="130" t="n"/>
       <c r="L9" s="85">
         <f>SUM(L10:L12)</f>
         <v/>
@@ -9520,7 +9520,7 @@
           <t>Trọng số</t>
         </is>
       </c>
-      <c r="E10" s="183" t="inlineStr">
+      <c r="E10" s="142" t="inlineStr">
         <is>
           <t>Tiêu chí đánh giá</t>
         </is>
@@ -9619,7 +9619,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="19.9" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
+    <row r="13" ht="20" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
       <c r="B13" s="77" t="inlineStr">
         <is>
           <t>III</t>
@@ -9634,22 +9634,22 @@
       <c r="E13" s="100" t="n"/>
       <c r="F13" s="99" t="n"/>
       <c r="G13" s="100" t="n"/>
-      <c r="H13" s="151" t="n"/>
+      <c r="H13" s="130" t="n"/>
       <c r="I13" s="217" t="n"/>
       <c r="J13" s="65" t="n"/>
-      <c r="K13" s="151" t="n"/>
+      <c r="K13" s="130" t="n"/>
       <c r="L13" s="78">
         <f>SUM(L15:L22)</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="25.9" customFormat="1" customHeight="1" s="34" thickTop="1">
+    <row r="14" ht="26" customFormat="1" customHeight="1" s="34" thickTop="1">
       <c r="B14" s="88" t="inlineStr">
         <is>
           <t>Stt</t>
         </is>
       </c>
-      <c r="C14" s="172" t="inlineStr">
+      <c r="C14" s="148" t="inlineStr">
         <is>
           <t xml:space="preserve">               Các tiêu chí mong đợi</t>
         </is>
@@ -9657,7 +9657,7 @@
       <c r="D14" s="222" t="n"/>
       <c r="E14" s="222" t="n"/>
       <c r="F14" s="222" t="n"/>
-      <c r="G14" s="172" t="inlineStr">
+      <c r="G14" s="148" t="inlineStr">
         <is>
           <t>Cần cải thiện</t>
         </is>
@@ -9688,7 +9688,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="15" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B15" s="90" t="n">
         <v>1</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="16" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B16" s="91">
         <f>B15+1</f>
         <v/>
@@ -9755,7 +9755,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="17" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B17" s="91">
         <f>B16+1</f>
         <v/>
@@ -9787,7 +9787,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="18" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B18" s="91">
         <f>B17+1</f>
         <v/>
@@ -9819,7 +9819,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="19" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B19" s="91">
         <f>B18+1</f>
         <v/>
@@ -9851,7 +9851,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="20" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B20" s="91">
         <f>B19+1</f>
         <v/>
@@ -9883,7 +9883,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="21" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B21" s="91">
         <f>B20+1</f>
         <v/>
@@ -9915,7 +9915,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" ht="43.9" customFormat="1" customHeight="1" s="36" thickBot="1">
+    <row r="22" ht="44" customFormat="1" customHeight="1" s="36" thickBot="1">
       <c r="B22" s="92">
         <f>B21+1</f>
         <v/>
@@ -9947,7 +9947,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" ht="19.9" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
+    <row r="23" ht="20" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
       <c r="B23" s="77" t="inlineStr">
         <is>
           <t>IV</t>
@@ -9962,10 +9962,10 @@
       <c r="E23" s="62" t="n"/>
       <c r="F23" s="64" t="n"/>
       <c r="G23" s="62" t="n"/>
-      <c r="H23" s="151" t="n"/>
+      <c r="H23" s="130" t="n"/>
       <c r="I23" s="217" t="n"/>
       <c r="J23" s="65" t="n"/>
-      <c r="K23" s="151" t="n"/>
+      <c r="K23" s="130" t="n"/>
       <c r="L23" s="93">
         <f>SUM(I25:I27)</f>
         <v/>
@@ -9977,7 +9977,7 @@
           <t>Stt</t>
         </is>
       </c>
-      <c r="C24" s="154" t="inlineStr">
+      <c r="C24" s="192" t="inlineStr">
         <is>
           <t>Nội dung</t>
         </is>
@@ -9985,7 +9985,7 @@
       <c r="D24" s="222" t="n"/>
       <c r="E24" s="222" t="n"/>
       <c r="F24" s="222" t="n"/>
-      <c r="G24" s="172" t="inlineStr">
+      <c r="G24" s="148" t="inlineStr">
         <is>
           <t>Tổng điểm</t>
         </is>
@@ -10000,7 +10000,7 @@
           <t>Kết quả KPI</t>
         </is>
       </c>
-      <c r="J24" s="153" t="inlineStr">
+      <c r="J24" s="191" t="inlineStr">
         <is>
           <t>Danh hiệu</t>
         </is>
@@ -10008,7 +10008,7 @@
       <c r="K24" s="232" t="n"/>
       <c r="L24" s="233" t="n"/>
     </row>
-    <row r="25" ht="19.9" customFormat="1" customHeight="1" s="36" thickTop="1">
+    <row r="25" ht="20" customFormat="1" customHeight="1" s="36" thickTop="1">
       <c r="B25" s="90" t="n">
         <v>1</v>
       </c>
@@ -10038,7 +10038,7 @@
       <c r="K25" s="236" t="n"/>
       <c r="L25" s="237" t="n"/>
     </row>
-    <row r="26" ht="19.9" customFormat="1" customHeight="1" s="36">
+    <row r="26" ht="20" customFormat="1" customHeight="1" s="36">
       <c r="B26" s="91">
         <f>B25+1</f>
         <v/>
@@ -10065,7 +10065,7 @@
       <c r="J26" s="239" t="n"/>
       <c r="L26" s="240" t="n"/>
     </row>
-    <row r="27" ht="19.9" customFormat="1" customHeight="1" s="36" thickBot="1">
+    <row r="27" ht="20" customFormat="1" customHeight="1" s="36" thickBot="1">
       <c r="B27" s="92">
         <f>B26+1</f>
         <v/>
@@ -10093,7 +10093,7 @@
       <c r="K27" s="232" t="n"/>
       <c r="L27" s="233" t="n"/>
     </row>
-    <row r="28" ht="19.9" customFormat="1" customHeight="1" s="60" thickTop="1">
+    <row r="28" ht="20" customFormat="1" customHeight="1" s="60" thickTop="1">
       <c r="B28" s="94" t="inlineStr">
         <is>
           <t>V</t>
@@ -10114,7 +10114,7 @@
       <c r="K28" s="68" t="n"/>
       <c r="L28" s="95" t="n"/>
     </row>
-    <row r="29" ht="76.90000000000001" customFormat="1" customHeight="1" s="44">
+    <row r="29" ht="77" customFormat="1" customHeight="1" s="44">
       <c r="B29" s="96" t="n">
         <v>1</v>
       </c>
@@ -10137,7 +10137,7 @@
       <c r="K29" s="247" t="n"/>
       <c r="L29" s="248" t="n"/>
     </row>
-    <row r="30" ht="79.15000000000001" customFormat="1" customHeight="1" s="44">
+    <row r="30" ht="79.25" customFormat="1" customHeight="1" s="44">
       <c r="B30" s="97" t="n">
         <v>2</v>
       </c>
@@ -10285,27 +10285,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="J25:L27"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="I38:L38"/>
     <mergeCell ref="C32:E32"/>
@@ -10316,15 +10304,27 @@
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="G30:L30"/>
     <mergeCell ref="G29:L29"/>
-    <mergeCell ref="J25:L27"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.15748031496063" top="0.29" bottom="0.17" header="0.18" footer="0.22"/>
@@ -10344,647 +10344,647 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col hidden="1" width="1.140625" customWidth="1" style="32" min="1" max="1"/>
-    <col width="3.42578125" customWidth="1" style="32" min="2" max="2"/>
+    <col hidden="1" width="1.1640625" customWidth="1" style="32" min="1" max="1"/>
+    <col width="3.5" customWidth="1" style="32" min="2" max="2"/>
     <col width="53" customWidth="1" style="32" min="3" max="3"/>
-    <col width="8.42578125" customWidth="1" style="32" min="4" max="4"/>
-    <col width="10.5703125" customWidth="1" style="32" min="5" max="5"/>
-    <col width="31.42578125" customWidth="1" style="33" min="6" max="6"/>
-    <col width="9.140625" customWidth="1" style="32" min="7" max="7"/>
-    <col width="11.140625" customWidth="1" style="32" min="8" max="8"/>
-    <col width="9.7109375" customWidth="1" style="32" min="9" max="9"/>
-    <col width="10.140625" customWidth="1" style="32" min="10" max="11"/>
-    <col width="16.5703125" customWidth="1" style="33" min="12" max="12"/>
-    <col width="11.28515625" customWidth="1" style="32" min="13" max="13"/>
-    <col width="6.7109375" customWidth="1" style="32" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15" max="233"/>
+    <col width="8.5" customWidth="1" style="32" min="4" max="4"/>
+    <col width="10.5" customWidth="1" style="32" min="5" max="5"/>
+    <col width="31.5" customWidth="1" style="33" min="6" max="6"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7" max="7"/>
+    <col width="11.1640625" customWidth="1" style="32" min="8" max="8"/>
+    <col width="9.6640625" customWidth="1" style="32" min="9" max="9"/>
+    <col width="10.1640625" customWidth="1" style="32" min="10" max="11"/>
+    <col width="16.5" customWidth="1" style="33" min="12" max="12"/>
+    <col width="11.33203125" customWidth="1" style="32" min="13" max="13"/>
+    <col width="6.6640625" customWidth="1" style="32" min="14" max="14"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15" max="233"/>
     <col width="5" customWidth="1" style="32" min="234" max="234"/>
-    <col width="33.28515625" customWidth="1" style="32" min="235" max="235"/>
-    <col width="6.42578125" customWidth="1" style="32" min="236" max="236"/>
-    <col width="29.42578125" customWidth="1" style="32" min="237" max="237"/>
-    <col width="23.7109375" customWidth="1" style="32" min="238" max="238"/>
+    <col width="33.33203125" customWidth="1" style="32" min="235" max="235"/>
+    <col width="6.5" customWidth="1" style="32" min="236" max="236"/>
+    <col width="29.5" customWidth="1" style="32" min="237" max="237"/>
+    <col width="23.6640625" customWidth="1" style="32" min="238" max="238"/>
     <col width="8" customWidth="1" style="32" min="239" max="239"/>
-    <col width="9.140625" customWidth="1" style="32" min="240" max="240"/>
-    <col width="13.7109375" customWidth="1" style="32" min="241" max="241"/>
-    <col width="13.42578125" customWidth="1" style="32" min="242" max="242"/>
-    <col width="8.7109375" customWidth="1" style="32" min="243" max="489"/>
+    <col width="9.1640625" customWidth="1" style="32" min="240" max="240"/>
+    <col width="13.6640625" customWidth="1" style="32" min="241" max="241"/>
+    <col width="13.5" customWidth="1" style="32" min="242" max="242"/>
+    <col width="8.6640625" customWidth="1" style="32" min="243" max="489"/>
     <col width="5" customWidth="1" style="32" min="490" max="490"/>
-    <col width="33.28515625" customWidth="1" style="32" min="491" max="491"/>
-    <col width="6.42578125" customWidth="1" style="32" min="492" max="492"/>
-    <col width="29.42578125" customWidth="1" style="32" min="493" max="493"/>
-    <col width="23.7109375" customWidth="1" style="32" min="494" max="494"/>
+    <col width="33.33203125" customWidth="1" style="32" min="491" max="491"/>
+    <col width="6.5" customWidth="1" style="32" min="492" max="492"/>
+    <col width="29.5" customWidth="1" style="32" min="493" max="493"/>
+    <col width="23.6640625" customWidth="1" style="32" min="494" max="494"/>
     <col width="8" customWidth="1" style="32" min="495" max="495"/>
-    <col width="9.140625" customWidth="1" style="32" min="496" max="496"/>
-    <col width="13.7109375" customWidth="1" style="32" min="497" max="497"/>
-    <col width="13.42578125" customWidth="1" style="32" min="498" max="498"/>
-    <col width="8.7109375" customWidth="1" style="32" min="499" max="745"/>
+    <col width="9.1640625" customWidth="1" style="32" min="496" max="496"/>
+    <col width="13.6640625" customWidth="1" style="32" min="497" max="497"/>
+    <col width="13.5" customWidth="1" style="32" min="498" max="498"/>
+    <col width="8.6640625" customWidth="1" style="32" min="499" max="745"/>
     <col width="5" customWidth="1" style="32" min="746" max="746"/>
-    <col width="33.28515625" customWidth="1" style="32" min="747" max="747"/>
-    <col width="6.42578125" customWidth="1" style="32" min="748" max="748"/>
-    <col width="29.42578125" customWidth="1" style="32" min="749" max="749"/>
-    <col width="23.7109375" customWidth="1" style="32" min="750" max="750"/>
+    <col width="33.33203125" customWidth="1" style="32" min="747" max="747"/>
+    <col width="6.5" customWidth="1" style="32" min="748" max="748"/>
+    <col width="29.5" customWidth="1" style="32" min="749" max="749"/>
+    <col width="23.6640625" customWidth="1" style="32" min="750" max="750"/>
     <col width="8" customWidth="1" style="32" min="751" max="751"/>
-    <col width="9.140625" customWidth="1" style="32" min="752" max="752"/>
-    <col width="13.7109375" customWidth="1" style="32" min="753" max="753"/>
-    <col width="13.42578125" customWidth="1" style="32" min="754" max="754"/>
-    <col width="8.7109375" customWidth="1" style="32" min="755" max="1001"/>
+    <col width="9.1640625" customWidth="1" style="32" min="752" max="752"/>
+    <col width="13.6640625" customWidth="1" style="32" min="753" max="753"/>
+    <col width="13.5" customWidth="1" style="32" min="754" max="754"/>
+    <col width="8.6640625" customWidth="1" style="32" min="755" max="1001"/>
     <col width="5" customWidth="1" style="32" min="1002" max="1002"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1003" max="1003"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1004" max="1004"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1005" max="1005"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1006" max="1006"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1003" max="1003"/>
+    <col width="6.5" customWidth="1" style="32" min="1004" max="1004"/>
+    <col width="29.5" customWidth="1" style="32" min="1005" max="1005"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1006" max="1006"/>
     <col width="8" customWidth="1" style="32" min="1007" max="1007"/>
-    <col width="9.140625" customWidth="1" style="32" min="1008" max="1008"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1009" max="1009"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1010" max="1010"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1011" max="1257"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1008" max="1008"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1009" max="1009"/>
+    <col width="13.5" customWidth="1" style="32" min="1010" max="1010"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1011" max="1257"/>
     <col width="5" customWidth="1" style="32" min="1258" max="1258"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1259" max="1259"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1260" max="1260"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1261" max="1261"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1262" max="1262"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1259" max="1259"/>
+    <col width="6.5" customWidth="1" style="32" min="1260" max="1260"/>
+    <col width="29.5" customWidth="1" style="32" min="1261" max="1261"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1262" max="1262"/>
     <col width="8" customWidth="1" style="32" min="1263" max="1263"/>
-    <col width="9.140625" customWidth="1" style="32" min="1264" max="1264"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1265" max="1265"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1266" max="1266"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1267" max="1513"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1264" max="1264"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1265" max="1265"/>
+    <col width="13.5" customWidth="1" style="32" min="1266" max="1266"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1267" max="1513"/>
     <col width="5" customWidth="1" style="32" min="1514" max="1514"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1515" max="1515"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1516" max="1516"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1517" max="1517"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1518" max="1518"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1515" max="1515"/>
+    <col width="6.5" customWidth="1" style="32" min="1516" max="1516"/>
+    <col width="29.5" customWidth="1" style="32" min="1517" max="1517"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1518" max="1518"/>
     <col width="8" customWidth="1" style="32" min="1519" max="1519"/>
-    <col width="9.140625" customWidth="1" style="32" min="1520" max="1520"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1521" max="1521"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1522" max="1522"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1523" max="1769"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1520" max="1520"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1521" max="1521"/>
+    <col width="13.5" customWidth="1" style="32" min="1522" max="1522"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1523" max="1769"/>
     <col width="5" customWidth="1" style="32" min="1770" max="1770"/>
-    <col width="33.28515625" customWidth="1" style="32" min="1771" max="1771"/>
-    <col width="6.42578125" customWidth="1" style="32" min="1772" max="1772"/>
-    <col width="29.42578125" customWidth="1" style="32" min="1773" max="1773"/>
-    <col width="23.7109375" customWidth="1" style="32" min="1774" max="1774"/>
+    <col width="33.33203125" customWidth="1" style="32" min="1771" max="1771"/>
+    <col width="6.5" customWidth="1" style="32" min="1772" max="1772"/>
+    <col width="29.5" customWidth="1" style="32" min="1773" max="1773"/>
+    <col width="23.6640625" customWidth="1" style="32" min="1774" max="1774"/>
     <col width="8" customWidth="1" style="32" min="1775" max="1775"/>
-    <col width="9.140625" customWidth="1" style="32" min="1776" max="1776"/>
-    <col width="13.7109375" customWidth="1" style="32" min="1777" max="1777"/>
-    <col width="13.42578125" customWidth="1" style="32" min="1778" max="1778"/>
-    <col width="8.7109375" customWidth="1" style="32" min="1779" max="2025"/>
+    <col width="9.1640625" customWidth="1" style="32" min="1776" max="1776"/>
+    <col width="13.6640625" customWidth="1" style="32" min="1777" max="1777"/>
+    <col width="13.5" customWidth="1" style="32" min="1778" max="1778"/>
+    <col width="8.6640625" customWidth="1" style="32" min="1779" max="2025"/>
     <col width="5" customWidth="1" style="32" min="2026" max="2026"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2027" max="2027"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2028" max="2028"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2029" max="2029"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2030" max="2030"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2027" max="2027"/>
+    <col width="6.5" customWidth="1" style="32" min="2028" max="2028"/>
+    <col width="29.5" customWidth="1" style="32" min="2029" max="2029"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2030" max="2030"/>
     <col width="8" customWidth="1" style="32" min="2031" max="2031"/>
-    <col width="9.140625" customWidth="1" style="32" min="2032" max="2032"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2033" max="2033"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2034" max="2034"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2035" max="2281"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2032" max="2032"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2033" max="2033"/>
+    <col width="13.5" customWidth="1" style="32" min="2034" max="2034"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2035" max="2281"/>
     <col width="5" customWidth="1" style="32" min="2282" max="2282"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2283" max="2283"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2284" max="2284"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2285" max="2285"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2286" max="2286"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2283" max="2283"/>
+    <col width="6.5" customWidth="1" style="32" min="2284" max="2284"/>
+    <col width="29.5" customWidth="1" style="32" min="2285" max="2285"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2286" max="2286"/>
     <col width="8" customWidth="1" style="32" min="2287" max="2287"/>
-    <col width="9.140625" customWidth="1" style="32" min="2288" max="2288"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2289" max="2289"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2290" max="2290"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2291" max="2537"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2288" max="2288"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2289" max="2289"/>
+    <col width="13.5" customWidth="1" style="32" min="2290" max="2290"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2291" max="2537"/>
     <col width="5" customWidth="1" style="32" min="2538" max="2538"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2539" max="2539"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2540" max="2540"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2541" max="2541"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2542" max="2542"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2539" max="2539"/>
+    <col width="6.5" customWidth="1" style="32" min="2540" max="2540"/>
+    <col width="29.5" customWidth="1" style="32" min="2541" max="2541"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2542" max="2542"/>
     <col width="8" customWidth="1" style="32" min="2543" max="2543"/>
-    <col width="9.140625" customWidth="1" style="32" min="2544" max="2544"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2545" max="2545"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2546" max="2546"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2547" max="2793"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2544" max="2544"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2545" max="2545"/>
+    <col width="13.5" customWidth="1" style="32" min="2546" max="2546"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2547" max="2793"/>
     <col width="5" customWidth="1" style="32" min="2794" max="2794"/>
-    <col width="33.28515625" customWidth="1" style="32" min="2795" max="2795"/>
-    <col width="6.42578125" customWidth="1" style="32" min="2796" max="2796"/>
-    <col width="29.42578125" customWidth="1" style="32" min="2797" max="2797"/>
-    <col width="23.7109375" customWidth="1" style="32" min="2798" max="2798"/>
+    <col width="33.33203125" customWidth="1" style="32" min="2795" max="2795"/>
+    <col width="6.5" customWidth="1" style="32" min="2796" max="2796"/>
+    <col width="29.5" customWidth="1" style="32" min="2797" max="2797"/>
+    <col width="23.6640625" customWidth="1" style="32" min="2798" max="2798"/>
     <col width="8" customWidth="1" style="32" min="2799" max="2799"/>
-    <col width="9.140625" customWidth="1" style="32" min="2800" max="2800"/>
-    <col width="13.7109375" customWidth="1" style="32" min="2801" max="2801"/>
-    <col width="13.42578125" customWidth="1" style="32" min="2802" max="2802"/>
-    <col width="8.7109375" customWidth="1" style="32" min="2803" max="3049"/>
+    <col width="9.1640625" customWidth="1" style="32" min="2800" max="2800"/>
+    <col width="13.6640625" customWidth="1" style="32" min="2801" max="2801"/>
+    <col width="13.5" customWidth="1" style="32" min="2802" max="2802"/>
+    <col width="8.6640625" customWidth="1" style="32" min="2803" max="3049"/>
     <col width="5" customWidth="1" style="32" min="3050" max="3050"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3051" max="3051"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3052" max="3052"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3053" max="3053"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3054" max="3054"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3051" max="3051"/>
+    <col width="6.5" customWidth="1" style="32" min="3052" max="3052"/>
+    <col width="29.5" customWidth="1" style="32" min="3053" max="3053"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3054" max="3054"/>
     <col width="8" customWidth="1" style="32" min="3055" max="3055"/>
-    <col width="9.140625" customWidth="1" style="32" min="3056" max="3056"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3057" max="3057"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3058" max="3058"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3059" max="3305"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3056" max="3056"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3057" max="3057"/>
+    <col width="13.5" customWidth="1" style="32" min="3058" max="3058"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3059" max="3305"/>
     <col width="5" customWidth="1" style="32" min="3306" max="3306"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3307" max="3307"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3308" max="3308"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3309" max="3309"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3310" max="3310"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3307" max="3307"/>
+    <col width="6.5" customWidth="1" style="32" min="3308" max="3308"/>
+    <col width="29.5" customWidth="1" style="32" min="3309" max="3309"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3310" max="3310"/>
     <col width="8" customWidth="1" style="32" min="3311" max="3311"/>
-    <col width="9.140625" customWidth="1" style="32" min="3312" max="3312"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3313" max="3313"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3314" max="3314"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3315" max="3561"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3312" max="3312"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3313" max="3313"/>
+    <col width="13.5" customWidth="1" style="32" min="3314" max="3314"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3315" max="3561"/>
     <col width="5" customWidth="1" style="32" min="3562" max="3562"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3563" max="3563"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3564" max="3564"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3565" max="3565"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3566" max="3566"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3563" max="3563"/>
+    <col width="6.5" customWidth="1" style="32" min="3564" max="3564"/>
+    <col width="29.5" customWidth="1" style="32" min="3565" max="3565"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3566" max="3566"/>
     <col width="8" customWidth="1" style="32" min="3567" max="3567"/>
-    <col width="9.140625" customWidth="1" style="32" min="3568" max="3568"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3569" max="3569"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3570" max="3570"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3571" max="3817"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3568" max="3568"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3569" max="3569"/>
+    <col width="13.5" customWidth="1" style="32" min="3570" max="3570"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3571" max="3817"/>
     <col width="5" customWidth="1" style="32" min="3818" max="3818"/>
-    <col width="33.28515625" customWidth="1" style="32" min="3819" max="3819"/>
-    <col width="6.42578125" customWidth="1" style="32" min="3820" max="3820"/>
-    <col width="29.42578125" customWidth="1" style="32" min="3821" max="3821"/>
-    <col width="23.7109375" customWidth="1" style="32" min="3822" max="3822"/>
+    <col width="33.33203125" customWidth="1" style="32" min="3819" max="3819"/>
+    <col width="6.5" customWidth="1" style="32" min="3820" max="3820"/>
+    <col width="29.5" customWidth="1" style="32" min="3821" max="3821"/>
+    <col width="23.6640625" customWidth="1" style="32" min="3822" max="3822"/>
     <col width="8" customWidth="1" style="32" min="3823" max="3823"/>
-    <col width="9.140625" customWidth="1" style="32" min="3824" max="3824"/>
-    <col width="13.7109375" customWidth="1" style="32" min="3825" max="3825"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3826" max="3826"/>
-    <col width="8.7109375" customWidth="1" style="32" min="3827" max="4073"/>
+    <col width="9.1640625" customWidth="1" style="32" min="3824" max="3824"/>
+    <col width="13.6640625" customWidth="1" style="32" min="3825" max="3825"/>
+    <col width="13.5" customWidth="1" style="32" min="3826" max="3826"/>
+    <col width="8.6640625" customWidth="1" style="32" min="3827" max="4073"/>
     <col width="5" customWidth="1" style="32" min="4074" max="4074"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4075" max="4075"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4076" max="4076"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4077" max="4077"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4078" max="4078"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4075" max="4075"/>
+    <col width="6.5" customWidth="1" style="32" min="4076" max="4076"/>
+    <col width="29.5" customWidth="1" style="32" min="4077" max="4077"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4078" max="4078"/>
     <col width="8" customWidth="1" style="32" min="4079" max="4079"/>
-    <col width="9.140625" customWidth="1" style="32" min="4080" max="4080"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4081" max="4081"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4082" max="4082"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4083" max="4329"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4080" max="4080"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4081" max="4081"/>
+    <col width="13.5" customWidth="1" style="32" min="4082" max="4082"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4083" max="4329"/>
     <col width="5" customWidth="1" style="32" min="4330" max="4330"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4331" max="4331"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4332" max="4332"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4333" max="4333"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4334" max="4334"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4331" max="4331"/>
+    <col width="6.5" customWidth="1" style="32" min="4332" max="4332"/>
+    <col width="29.5" customWidth="1" style="32" min="4333" max="4333"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4334" max="4334"/>
     <col width="8" customWidth="1" style="32" min="4335" max="4335"/>
-    <col width="9.140625" customWidth="1" style="32" min="4336" max="4336"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4337" max="4337"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4338" max="4338"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4339" max="4585"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4336" max="4336"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4337" max="4337"/>
+    <col width="13.5" customWidth="1" style="32" min="4338" max="4338"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4339" max="4585"/>
     <col width="5" customWidth="1" style="32" min="4586" max="4586"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4587" max="4587"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4588" max="4588"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4589" max="4589"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4590" max="4590"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4587" max="4587"/>
+    <col width="6.5" customWidth="1" style="32" min="4588" max="4588"/>
+    <col width="29.5" customWidth="1" style="32" min="4589" max="4589"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4590" max="4590"/>
     <col width="8" customWidth="1" style="32" min="4591" max="4591"/>
-    <col width="9.140625" customWidth="1" style="32" min="4592" max="4592"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4593" max="4593"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4594" max="4594"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4595" max="4841"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4592" max="4592"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4593" max="4593"/>
+    <col width="13.5" customWidth="1" style="32" min="4594" max="4594"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4595" max="4841"/>
     <col width="5" customWidth="1" style="32" min="4842" max="4842"/>
-    <col width="33.28515625" customWidth="1" style="32" min="4843" max="4843"/>
-    <col width="6.42578125" customWidth="1" style="32" min="4844" max="4844"/>
-    <col width="29.42578125" customWidth="1" style="32" min="4845" max="4845"/>
-    <col width="23.7109375" customWidth="1" style="32" min="4846" max="4846"/>
+    <col width="33.33203125" customWidth="1" style="32" min="4843" max="4843"/>
+    <col width="6.5" customWidth="1" style="32" min="4844" max="4844"/>
+    <col width="29.5" customWidth="1" style="32" min="4845" max="4845"/>
+    <col width="23.6640625" customWidth="1" style="32" min="4846" max="4846"/>
     <col width="8" customWidth="1" style="32" min="4847" max="4847"/>
-    <col width="9.140625" customWidth="1" style="32" min="4848" max="4848"/>
-    <col width="13.7109375" customWidth="1" style="32" min="4849" max="4849"/>
-    <col width="13.42578125" customWidth="1" style="32" min="4850" max="4850"/>
-    <col width="8.7109375" customWidth="1" style="32" min="4851" max="5097"/>
+    <col width="9.1640625" customWidth="1" style="32" min="4848" max="4848"/>
+    <col width="13.6640625" customWidth="1" style="32" min="4849" max="4849"/>
+    <col width="13.5" customWidth="1" style="32" min="4850" max="4850"/>
+    <col width="8.6640625" customWidth="1" style="32" min="4851" max="5097"/>
     <col width="5" customWidth="1" style="32" min="5098" max="5098"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5099" max="5099"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5100" max="5100"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5101" max="5101"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5102" max="5102"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5099" max="5099"/>
+    <col width="6.5" customWidth="1" style="32" min="5100" max="5100"/>
+    <col width="29.5" customWidth="1" style="32" min="5101" max="5101"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5102" max="5102"/>
     <col width="8" customWidth="1" style="32" min="5103" max="5103"/>
-    <col width="9.140625" customWidth="1" style="32" min="5104" max="5104"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5105" max="5105"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5106" max="5106"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5107" max="5353"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5104" max="5104"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5105" max="5105"/>
+    <col width="13.5" customWidth="1" style="32" min="5106" max="5106"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5107" max="5353"/>
     <col width="5" customWidth="1" style="32" min="5354" max="5354"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5355" max="5355"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5356" max="5356"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5357" max="5357"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5358" max="5358"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5355" max="5355"/>
+    <col width="6.5" customWidth="1" style="32" min="5356" max="5356"/>
+    <col width="29.5" customWidth="1" style="32" min="5357" max="5357"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5358" max="5358"/>
     <col width="8" customWidth="1" style="32" min="5359" max="5359"/>
-    <col width="9.140625" customWidth="1" style="32" min="5360" max="5360"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5361" max="5361"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5362" max="5362"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5363" max="5609"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5360" max="5360"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5361" max="5361"/>
+    <col width="13.5" customWidth="1" style="32" min="5362" max="5362"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5363" max="5609"/>
     <col width="5" customWidth="1" style="32" min="5610" max="5610"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5611" max="5611"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5612" max="5612"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5613" max="5613"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5614" max="5614"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5611" max="5611"/>
+    <col width="6.5" customWidth="1" style="32" min="5612" max="5612"/>
+    <col width="29.5" customWidth="1" style="32" min="5613" max="5613"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5614" max="5614"/>
     <col width="8" customWidth="1" style="32" min="5615" max="5615"/>
-    <col width="9.140625" customWidth="1" style="32" min="5616" max="5616"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5617" max="5617"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5618" max="5618"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5619" max="5865"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5616" max="5616"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5617" max="5617"/>
+    <col width="13.5" customWidth="1" style="32" min="5618" max="5618"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5619" max="5865"/>
     <col width="5" customWidth="1" style="32" min="5866" max="5866"/>
-    <col width="33.28515625" customWidth="1" style="32" min="5867" max="5867"/>
-    <col width="6.42578125" customWidth="1" style="32" min="5868" max="5868"/>
-    <col width="29.42578125" customWidth="1" style="32" min="5869" max="5869"/>
-    <col width="23.7109375" customWidth="1" style="32" min="5870" max="5870"/>
+    <col width="33.33203125" customWidth="1" style="32" min="5867" max="5867"/>
+    <col width="6.5" customWidth="1" style="32" min="5868" max="5868"/>
+    <col width="29.5" customWidth="1" style="32" min="5869" max="5869"/>
+    <col width="23.6640625" customWidth="1" style="32" min="5870" max="5870"/>
     <col width="8" customWidth="1" style="32" min="5871" max="5871"/>
-    <col width="9.140625" customWidth="1" style="32" min="5872" max="5872"/>
-    <col width="13.7109375" customWidth="1" style="32" min="5873" max="5873"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5874" max="5874"/>
-    <col width="8.7109375" customWidth="1" style="32" min="5875" max="6121"/>
+    <col width="9.1640625" customWidth="1" style="32" min="5872" max="5872"/>
+    <col width="13.6640625" customWidth="1" style="32" min="5873" max="5873"/>
+    <col width="13.5" customWidth="1" style="32" min="5874" max="5874"/>
+    <col width="8.6640625" customWidth="1" style="32" min="5875" max="6121"/>
     <col width="5" customWidth="1" style="32" min="6122" max="6122"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6123" max="6123"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6124" max="6124"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6125" max="6125"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6126" max="6126"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6123" max="6123"/>
+    <col width="6.5" customWidth="1" style="32" min="6124" max="6124"/>
+    <col width="29.5" customWidth="1" style="32" min="6125" max="6125"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6126" max="6126"/>
     <col width="8" customWidth="1" style="32" min="6127" max="6127"/>
-    <col width="9.140625" customWidth="1" style="32" min="6128" max="6128"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6129" max="6129"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6130" max="6130"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6131" max="6377"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6128" max="6128"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6129" max="6129"/>
+    <col width="13.5" customWidth="1" style="32" min="6130" max="6130"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6131" max="6377"/>
     <col width="5" customWidth="1" style="32" min="6378" max="6378"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6379" max="6379"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6380" max="6380"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6381" max="6381"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6382" max="6382"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6379" max="6379"/>
+    <col width="6.5" customWidth="1" style="32" min="6380" max="6380"/>
+    <col width="29.5" customWidth="1" style="32" min="6381" max="6381"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6382" max="6382"/>
     <col width="8" customWidth="1" style="32" min="6383" max="6383"/>
-    <col width="9.140625" customWidth="1" style="32" min="6384" max="6384"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6385" max="6385"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6386" max="6386"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6387" max="6633"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6384" max="6384"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6385" max="6385"/>
+    <col width="13.5" customWidth="1" style="32" min="6386" max="6386"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6387" max="6633"/>
     <col width="5" customWidth="1" style="32" min="6634" max="6634"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6635" max="6635"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6636" max="6636"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6637" max="6637"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6638" max="6638"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6635" max="6635"/>
+    <col width="6.5" customWidth="1" style="32" min="6636" max="6636"/>
+    <col width="29.5" customWidth="1" style="32" min="6637" max="6637"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6638" max="6638"/>
     <col width="8" customWidth="1" style="32" min="6639" max="6639"/>
-    <col width="9.140625" customWidth="1" style="32" min="6640" max="6640"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6641" max="6641"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6642" max="6642"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6643" max="6889"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6640" max="6640"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6641" max="6641"/>
+    <col width="13.5" customWidth="1" style="32" min="6642" max="6642"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6643" max="6889"/>
     <col width="5" customWidth="1" style="32" min="6890" max="6890"/>
-    <col width="33.28515625" customWidth="1" style="32" min="6891" max="6891"/>
-    <col width="6.42578125" customWidth="1" style="32" min="6892" max="6892"/>
-    <col width="29.42578125" customWidth="1" style="32" min="6893" max="6893"/>
-    <col width="23.7109375" customWidth="1" style="32" min="6894" max="6894"/>
+    <col width="33.33203125" customWidth="1" style="32" min="6891" max="6891"/>
+    <col width="6.5" customWidth="1" style="32" min="6892" max="6892"/>
+    <col width="29.5" customWidth="1" style="32" min="6893" max="6893"/>
+    <col width="23.6640625" customWidth="1" style="32" min="6894" max="6894"/>
     <col width="8" customWidth="1" style="32" min="6895" max="6895"/>
-    <col width="9.140625" customWidth="1" style="32" min="6896" max="6896"/>
-    <col width="13.7109375" customWidth="1" style="32" min="6897" max="6897"/>
-    <col width="13.42578125" customWidth="1" style="32" min="6898" max="6898"/>
-    <col width="8.7109375" customWidth="1" style="32" min="6899" max="7145"/>
+    <col width="9.1640625" customWidth="1" style="32" min="6896" max="6896"/>
+    <col width="13.6640625" customWidth="1" style="32" min="6897" max="6897"/>
+    <col width="13.5" customWidth="1" style="32" min="6898" max="6898"/>
+    <col width="8.6640625" customWidth="1" style="32" min="6899" max="7145"/>
     <col width="5" customWidth="1" style="32" min="7146" max="7146"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7147" max="7147"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7148" max="7148"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7149" max="7149"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7150" max="7150"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7147" max="7147"/>
+    <col width="6.5" customWidth="1" style="32" min="7148" max="7148"/>
+    <col width="29.5" customWidth="1" style="32" min="7149" max="7149"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7150" max="7150"/>
     <col width="8" customWidth="1" style="32" min="7151" max="7151"/>
-    <col width="9.140625" customWidth="1" style="32" min="7152" max="7152"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7153" max="7153"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7154" max="7154"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7155" max="7401"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7152" max="7152"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7153" max="7153"/>
+    <col width="13.5" customWidth="1" style="32" min="7154" max="7154"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7155" max="7401"/>
     <col width="5" customWidth="1" style="32" min="7402" max="7402"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7403" max="7403"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7404" max="7404"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7405" max="7405"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7406" max="7406"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7403" max="7403"/>
+    <col width="6.5" customWidth="1" style="32" min="7404" max="7404"/>
+    <col width="29.5" customWidth="1" style="32" min="7405" max="7405"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7406" max="7406"/>
     <col width="8" customWidth="1" style="32" min="7407" max="7407"/>
-    <col width="9.140625" customWidth="1" style="32" min="7408" max="7408"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7409" max="7409"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7410" max="7410"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7411" max="7657"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7408" max="7408"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7409" max="7409"/>
+    <col width="13.5" customWidth="1" style="32" min="7410" max="7410"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7411" max="7657"/>
     <col width="5" customWidth="1" style="32" min="7658" max="7658"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7659" max="7659"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7660" max="7660"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7661" max="7661"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7662" max="7662"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7659" max="7659"/>
+    <col width="6.5" customWidth="1" style="32" min="7660" max="7660"/>
+    <col width="29.5" customWidth="1" style="32" min="7661" max="7661"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7662" max="7662"/>
     <col width="8" customWidth="1" style="32" min="7663" max="7663"/>
-    <col width="9.140625" customWidth="1" style="32" min="7664" max="7664"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7665" max="7665"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7666" max="7666"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7667" max="7913"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7664" max="7664"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7665" max="7665"/>
+    <col width="13.5" customWidth="1" style="32" min="7666" max="7666"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7667" max="7913"/>
     <col width="5" customWidth="1" style="32" min="7914" max="7914"/>
-    <col width="33.28515625" customWidth="1" style="32" min="7915" max="7915"/>
-    <col width="6.42578125" customWidth="1" style="32" min="7916" max="7916"/>
-    <col width="29.42578125" customWidth="1" style="32" min="7917" max="7917"/>
-    <col width="23.7109375" customWidth="1" style="32" min="7918" max="7918"/>
+    <col width="33.33203125" customWidth="1" style="32" min="7915" max="7915"/>
+    <col width="6.5" customWidth="1" style="32" min="7916" max="7916"/>
+    <col width="29.5" customWidth="1" style="32" min="7917" max="7917"/>
+    <col width="23.6640625" customWidth="1" style="32" min="7918" max="7918"/>
     <col width="8" customWidth="1" style="32" min="7919" max="7919"/>
-    <col width="9.140625" customWidth="1" style="32" min="7920" max="7920"/>
-    <col width="13.7109375" customWidth="1" style="32" min="7921" max="7921"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7922" max="7922"/>
-    <col width="8.7109375" customWidth="1" style="32" min="7923" max="8169"/>
+    <col width="9.1640625" customWidth="1" style="32" min="7920" max="7920"/>
+    <col width="13.6640625" customWidth="1" style="32" min="7921" max="7921"/>
+    <col width="13.5" customWidth="1" style="32" min="7922" max="7922"/>
+    <col width="8.6640625" customWidth="1" style="32" min="7923" max="8169"/>
     <col width="5" customWidth="1" style="32" min="8170" max="8170"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8171" max="8171"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8172" max="8172"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8173" max="8173"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8174" max="8174"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8171" max="8171"/>
+    <col width="6.5" customWidth="1" style="32" min="8172" max="8172"/>
+    <col width="29.5" customWidth="1" style="32" min="8173" max="8173"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8174" max="8174"/>
     <col width="8" customWidth="1" style="32" min="8175" max="8175"/>
-    <col width="9.140625" customWidth="1" style="32" min="8176" max="8176"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8177" max="8177"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8178" max="8178"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8179" max="8425"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8176" max="8176"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8177" max="8177"/>
+    <col width="13.5" customWidth="1" style="32" min="8178" max="8178"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8179" max="8425"/>
     <col width="5" customWidth="1" style="32" min="8426" max="8426"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8427" max="8427"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8428" max="8428"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8429" max="8429"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8430" max="8430"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8427" max="8427"/>
+    <col width="6.5" customWidth="1" style="32" min="8428" max="8428"/>
+    <col width="29.5" customWidth="1" style="32" min="8429" max="8429"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8430" max="8430"/>
     <col width="8" customWidth="1" style="32" min="8431" max="8431"/>
-    <col width="9.140625" customWidth="1" style="32" min="8432" max="8432"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8433" max="8433"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8434" max="8434"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8435" max="8681"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8432" max="8432"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8433" max="8433"/>
+    <col width="13.5" customWidth="1" style="32" min="8434" max="8434"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8435" max="8681"/>
     <col width="5" customWidth="1" style="32" min="8682" max="8682"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8683" max="8683"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8684" max="8684"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8685" max="8685"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8686" max="8686"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8683" max="8683"/>
+    <col width="6.5" customWidth="1" style="32" min="8684" max="8684"/>
+    <col width="29.5" customWidth="1" style="32" min="8685" max="8685"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8686" max="8686"/>
     <col width="8" customWidth="1" style="32" min="8687" max="8687"/>
-    <col width="9.140625" customWidth="1" style="32" min="8688" max="8688"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8689" max="8689"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8690" max="8690"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8691" max="8937"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8688" max="8688"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8689" max="8689"/>
+    <col width="13.5" customWidth="1" style="32" min="8690" max="8690"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8691" max="8937"/>
     <col width="5" customWidth="1" style="32" min="8938" max="8938"/>
-    <col width="33.28515625" customWidth="1" style="32" min="8939" max="8939"/>
-    <col width="6.42578125" customWidth="1" style="32" min="8940" max="8940"/>
-    <col width="29.42578125" customWidth="1" style="32" min="8941" max="8941"/>
-    <col width="23.7109375" customWidth="1" style="32" min="8942" max="8942"/>
+    <col width="33.33203125" customWidth="1" style="32" min="8939" max="8939"/>
+    <col width="6.5" customWidth="1" style="32" min="8940" max="8940"/>
+    <col width="29.5" customWidth="1" style="32" min="8941" max="8941"/>
+    <col width="23.6640625" customWidth="1" style="32" min="8942" max="8942"/>
     <col width="8" customWidth="1" style="32" min="8943" max="8943"/>
-    <col width="9.140625" customWidth="1" style="32" min="8944" max="8944"/>
-    <col width="13.7109375" customWidth="1" style="32" min="8945" max="8945"/>
-    <col width="13.42578125" customWidth="1" style="32" min="8946" max="8946"/>
-    <col width="8.7109375" customWidth="1" style="32" min="8947" max="9193"/>
+    <col width="9.1640625" customWidth="1" style="32" min="8944" max="8944"/>
+    <col width="13.6640625" customWidth="1" style="32" min="8945" max="8945"/>
+    <col width="13.5" customWidth="1" style="32" min="8946" max="8946"/>
+    <col width="8.6640625" customWidth="1" style="32" min="8947" max="9193"/>
     <col width="5" customWidth="1" style="32" min="9194" max="9194"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9195" max="9195"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9196" max="9196"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9197" max="9197"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9198" max="9198"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9195" max="9195"/>
+    <col width="6.5" customWidth="1" style="32" min="9196" max="9196"/>
+    <col width="29.5" customWidth="1" style="32" min="9197" max="9197"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9198" max="9198"/>
     <col width="8" customWidth="1" style="32" min="9199" max="9199"/>
-    <col width="9.140625" customWidth="1" style="32" min="9200" max="9200"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9201" max="9201"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9202" max="9202"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9203" max="9449"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9200" max="9200"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9201" max="9201"/>
+    <col width="13.5" customWidth="1" style="32" min="9202" max="9202"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9203" max="9449"/>
     <col width="5" customWidth="1" style="32" min="9450" max="9450"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9451" max="9451"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9452" max="9452"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9453" max="9453"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9454" max="9454"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9451" max="9451"/>
+    <col width="6.5" customWidth="1" style="32" min="9452" max="9452"/>
+    <col width="29.5" customWidth="1" style="32" min="9453" max="9453"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9454" max="9454"/>
     <col width="8" customWidth="1" style="32" min="9455" max="9455"/>
-    <col width="9.140625" customWidth="1" style="32" min="9456" max="9456"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9457" max="9457"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9458" max="9458"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9459" max="9705"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9456" max="9456"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9457" max="9457"/>
+    <col width="13.5" customWidth="1" style="32" min="9458" max="9458"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9459" max="9705"/>
     <col width="5" customWidth="1" style="32" min="9706" max="9706"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9707" max="9707"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9708" max="9708"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9709" max="9709"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9710" max="9710"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9707" max="9707"/>
+    <col width="6.5" customWidth="1" style="32" min="9708" max="9708"/>
+    <col width="29.5" customWidth="1" style="32" min="9709" max="9709"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9710" max="9710"/>
     <col width="8" customWidth="1" style="32" min="9711" max="9711"/>
-    <col width="9.140625" customWidth="1" style="32" min="9712" max="9712"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9713" max="9713"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9714" max="9714"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9715" max="9961"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9712" max="9712"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9713" max="9713"/>
+    <col width="13.5" customWidth="1" style="32" min="9714" max="9714"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9715" max="9961"/>
     <col width="5" customWidth="1" style="32" min="9962" max="9962"/>
-    <col width="33.28515625" customWidth="1" style="32" min="9963" max="9963"/>
-    <col width="6.42578125" customWidth="1" style="32" min="9964" max="9964"/>
-    <col width="29.42578125" customWidth="1" style="32" min="9965" max="9965"/>
-    <col width="23.7109375" customWidth="1" style="32" min="9966" max="9966"/>
+    <col width="33.33203125" customWidth="1" style="32" min="9963" max="9963"/>
+    <col width="6.5" customWidth="1" style="32" min="9964" max="9964"/>
+    <col width="29.5" customWidth="1" style="32" min="9965" max="9965"/>
+    <col width="23.6640625" customWidth="1" style="32" min="9966" max="9966"/>
     <col width="8" customWidth="1" style="32" min="9967" max="9967"/>
-    <col width="9.140625" customWidth="1" style="32" min="9968" max="9968"/>
-    <col width="13.7109375" customWidth="1" style="32" min="9969" max="9969"/>
-    <col width="13.42578125" customWidth="1" style="32" min="9970" max="9970"/>
-    <col width="8.7109375" customWidth="1" style="32" min="9971" max="10217"/>
+    <col width="9.1640625" customWidth="1" style="32" min="9968" max="9968"/>
+    <col width="13.6640625" customWidth="1" style="32" min="9969" max="9969"/>
+    <col width="13.5" customWidth="1" style="32" min="9970" max="9970"/>
+    <col width="8.6640625" customWidth="1" style="32" min="9971" max="10217"/>
     <col width="5" customWidth="1" style="32" min="10218" max="10218"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10219" max="10219"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10220" max="10220"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10221" max="10221"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10222" max="10222"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10219" max="10219"/>
+    <col width="6.5" customWidth="1" style="32" min="10220" max="10220"/>
+    <col width="29.5" customWidth="1" style="32" min="10221" max="10221"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10222" max="10222"/>
     <col width="8" customWidth="1" style="32" min="10223" max="10223"/>
-    <col width="9.140625" customWidth="1" style="32" min="10224" max="10224"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10225" max="10225"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10226" max="10226"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10227" max="10473"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10224" max="10224"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10225" max="10225"/>
+    <col width="13.5" customWidth="1" style="32" min="10226" max="10226"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10227" max="10473"/>
     <col width="5" customWidth="1" style="32" min="10474" max="10474"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10475" max="10475"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10476" max="10476"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10477" max="10477"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10478" max="10478"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10475" max="10475"/>
+    <col width="6.5" customWidth="1" style="32" min="10476" max="10476"/>
+    <col width="29.5" customWidth="1" style="32" min="10477" max="10477"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10478" max="10478"/>
     <col width="8" customWidth="1" style="32" min="10479" max="10479"/>
-    <col width="9.140625" customWidth="1" style="32" min="10480" max="10480"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10481" max="10481"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10482" max="10482"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10483" max="10729"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10480" max="10480"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10481" max="10481"/>
+    <col width="13.5" customWidth="1" style="32" min="10482" max="10482"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10483" max="10729"/>
     <col width="5" customWidth="1" style="32" min="10730" max="10730"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10731" max="10731"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10732" max="10732"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10733" max="10733"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10734" max="10734"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10731" max="10731"/>
+    <col width="6.5" customWidth="1" style="32" min="10732" max="10732"/>
+    <col width="29.5" customWidth="1" style="32" min="10733" max="10733"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10734" max="10734"/>
     <col width="8" customWidth="1" style="32" min="10735" max="10735"/>
-    <col width="9.140625" customWidth="1" style="32" min="10736" max="10736"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10737" max="10737"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10738" max="10738"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10739" max="10985"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10736" max="10736"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10737" max="10737"/>
+    <col width="13.5" customWidth="1" style="32" min="10738" max="10738"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10739" max="10985"/>
     <col width="5" customWidth="1" style="32" min="10986" max="10986"/>
-    <col width="33.28515625" customWidth="1" style="32" min="10987" max="10987"/>
-    <col width="6.42578125" customWidth="1" style="32" min="10988" max="10988"/>
-    <col width="29.42578125" customWidth="1" style="32" min="10989" max="10989"/>
-    <col width="23.7109375" customWidth="1" style="32" min="10990" max="10990"/>
+    <col width="33.33203125" customWidth="1" style="32" min="10987" max="10987"/>
+    <col width="6.5" customWidth="1" style="32" min="10988" max="10988"/>
+    <col width="29.5" customWidth="1" style="32" min="10989" max="10989"/>
+    <col width="23.6640625" customWidth="1" style="32" min="10990" max="10990"/>
     <col width="8" customWidth="1" style="32" min="10991" max="10991"/>
-    <col width="9.140625" customWidth="1" style="32" min="10992" max="10992"/>
-    <col width="13.7109375" customWidth="1" style="32" min="10993" max="10993"/>
-    <col width="13.42578125" customWidth="1" style="32" min="10994" max="10994"/>
-    <col width="8.7109375" customWidth="1" style="32" min="10995" max="11241"/>
+    <col width="9.1640625" customWidth="1" style="32" min="10992" max="10992"/>
+    <col width="13.6640625" customWidth="1" style="32" min="10993" max="10993"/>
+    <col width="13.5" customWidth="1" style="32" min="10994" max="10994"/>
+    <col width="8.6640625" customWidth="1" style="32" min="10995" max="11241"/>
     <col width="5" customWidth="1" style="32" min="11242" max="11242"/>
-    <col width="33.28515625" customWidth="1" style="32" min="11243" max="11243"/>
-    <col width="6.42578125" customWidth="1" style="32" min="11244" max="11244"/>
-    <col width="29.42578125" customWidth="1" style="32" min="11245" max="11245"/>
-    <col width="23.7109375" customWidth="1" style="32" min="11246" max="11246"/>
+    <col width="33.33203125" customWidth="1" style="32" min="11243" max="11243"/>
+    <col width="6.5" customWidth="1" style="32" min="11244" max="11244"/>
+    <col width="29.5" customWidth="1" style="32" min="11245" max="11245"/>
+    <col width="23.6640625" customWidth="1" style="32" min="11246" max="11246"/>
     <col width="8" customWidth="1" style="32" min="11247" max="11247"/>
-    <col width="9.140625" customWidth="1" style="32" min="11248" max="11248"/>
-    <col width="13.7109375" customWidth="1" style="32" min="11249" max="11249"/>
-    <col width="13.42578125" customWidth="1" style="32" min="11250" max="11250"/>
-    <col width="8.7109375" customWidth="1" style="32" min="11251" max="11497"/>
+    <col width="9.1640625" customWidth="1" style="32" min="11248" max="11248"/>
+    <col width="13.6640625" customWidth="1" style="32" min="11249" max="11249"/>
+    <col width="13.5" customWidth="1" style="32" min="11250" max="11250"/>
+    <col width="8.6640625" customWidth="1" style="32" min="11251" max="11497"/>
     <col width="5" customWidth="1" style="32" min="11498" max="11498"/>
-    <col width="33.28515625" customWidth="1" style="32" min="11499" max="11499"/>
-    <col width="6.42578125" customWidth="1" style="32" min="11500" max="11500"/>
-    <col width="29.42578125" customWidth="1" style="32" min="11501" max="11501"/>
-    <col width="23.7109375" customWidth="1" style="32" min="11502" max="11502"/>
+    <col width="33.33203125" customWidth="1" style="32" min="11499" max="11499"/>
+    <col width="6.5" customWidth="1" style="32" min="11500" max="11500"/>
+    <col width="29.5" customWidth="1" style="32" min="11501" max="11501"/>
+    <col width="23.6640625" customWidth="1" style="32" min="11502" max="11502"/>
     <col width="8" customWidth="1" style="32" min="11503" max="11503"/>
-    <col width="9.140625" customWidth="1" style="32" min="11504" max="11504"/>
-    <col width="13.7109375" customWidth="1" style="32" min="11505" max="11505"/>
-    <col width="13.42578125" customWidth="1" style="32" min="11506" max="11506"/>
-    <col width="8.7109375" customWidth="1" style="32" min="11507" max="11753"/>
+    <col width="9.1640625" customWidth="1" style="32" min="11504" max="11504"/>
+    <col width="13.6640625" customWidth="1" style="32" min="11505" max="11505"/>
+    <col width="13.5" customWidth="1" style="32" min="11506" max="11506"/>
+    <col width="8.6640625" customWidth="1" style="32" min="11507" max="11753"/>
     <col width="5" customWidth="1" style="32" min="11754" max="11754"/>
-    <col width="33.28515625" customWidth="1" style="32" min="11755" max="11755"/>
-    <col width="6.42578125" customWidth="1" style="32" min="11756" max="11756"/>
-    <col width="29.42578125" customWidth="1" style="32" min="11757" max="11757"/>
-    <col width="23.7109375" customWidth="1" style="32" min="11758" max="11758"/>
+    <col width="33.33203125" customWidth="1" style="32" min="11755" max="11755"/>
+    <col width="6.5" customWidth="1" style="32" min="11756" max="11756"/>
+    <col width="29.5" customWidth="1" style="32" min="11757" max="11757"/>
+    <col width="23.6640625" customWidth="1" style="32" min="11758" max="11758"/>
     <col width="8" customWidth="1" style="32" min="11759" max="11759"/>
-    <col width="9.140625" customWidth="1" style="32" min="11760" max="11760"/>
-    <col width="13.7109375" customWidth="1" style="32" min="11761" max="11761"/>
-    <col width="13.42578125" customWidth="1" style="32" min="11762" max="11762"/>
-    <col width="8.7109375" customWidth="1" style="32" min="11763" max="12009"/>
+    <col width="9.1640625" customWidth="1" style="32" min="11760" max="11760"/>
+    <col width="13.6640625" customWidth="1" style="32" min="11761" max="11761"/>
+    <col width="13.5" customWidth="1" style="32" min="11762" max="11762"/>
+    <col width="8.6640625" customWidth="1" style="32" min="11763" max="12009"/>
     <col width="5" customWidth="1" style="32" min="12010" max="12010"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12011" max="12011"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12012" max="12012"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12013" max="12013"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12014" max="12014"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12011" max="12011"/>
+    <col width="6.5" customWidth="1" style="32" min="12012" max="12012"/>
+    <col width="29.5" customWidth="1" style="32" min="12013" max="12013"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12014" max="12014"/>
     <col width="8" customWidth="1" style="32" min="12015" max="12015"/>
-    <col width="9.140625" customWidth="1" style="32" min="12016" max="12016"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12017" max="12017"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12018" max="12018"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12019" max="12265"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12016" max="12016"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12017" max="12017"/>
+    <col width="13.5" customWidth="1" style="32" min="12018" max="12018"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12019" max="12265"/>
     <col width="5" customWidth="1" style="32" min="12266" max="12266"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12267" max="12267"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12268" max="12268"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12269" max="12269"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12270" max="12270"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12267" max="12267"/>
+    <col width="6.5" customWidth="1" style="32" min="12268" max="12268"/>
+    <col width="29.5" customWidth="1" style="32" min="12269" max="12269"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12270" max="12270"/>
     <col width="8" customWidth="1" style="32" min="12271" max="12271"/>
-    <col width="9.140625" customWidth="1" style="32" min="12272" max="12272"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12273" max="12273"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12274" max="12274"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12275" max="12521"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12272" max="12272"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12273" max="12273"/>
+    <col width="13.5" customWidth="1" style="32" min="12274" max="12274"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12275" max="12521"/>
     <col width="5" customWidth="1" style="32" min="12522" max="12522"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12523" max="12523"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12524" max="12524"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12525" max="12525"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12526" max="12526"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12523" max="12523"/>
+    <col width="6.5" customWidth="1" style="32" min="12524" max="12524"/>
+    <col width="29.5" customWidth="1" style="32" min="12525" max="12525"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12526" max="12526"/>
     <col width="8" customWidth="1" style="32" min="12527" max="12527"/>
-    <col width="9.140625" customWidth="1" style="32" min="12528" max="12528"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12529" max="12529"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12530" max="12530"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12531" max="12777"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12528" max="12528"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12529" max="12529"/>
+    <col width="13.5" customWidth="1" style="32" min="12530" max="12530"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12531" max="12777"/>
     <col width="5" customWidth="1" style="32" min="12778" max="12778"/>
-    <col width="33.28515625" customWidth="1" style="32" min="12779" max="12779"/>
-    <col width="6.42578125" customWidth="1" style="32" min="12780" max="12780"/>
-    <col width="29.42578125" customWidth="1" style="32" min="12781" max="12781"/>
-    <col width="23.7109375" customWidth="1" style="32" min="12782" max="12782"/>
+    <col width="33.33203125" customWidth="1" style="32" min="12779" max="12779"/>
+    <col width="6.5" customWidth="1" style="32" min="12780" max="12780"/>
+    <col width="29.5" customWidth="1" style="32" min="12781" max="12781"/>
+    <col width="23.6640625" customWidth="1" style="32" min="12782" max="12782"/>
     <col width="8" customWidth="1" style="32" min="12783" max="12783"/>
-    <col width="9.140625" customWidth="1" style="32" min="12784" max="12784"/>
-    <col width="13.7109375" customWidth="1" style="32" min="12785" max="12785"/>
-    <col width="13.42578125" customWidth="1" style="32" min="12786" max="12786"/>
-    <col width="8.7109375" customWidth="1" style="32" min="12787" max="13033"/>
+    <col width="9.1640625" customWidth="1" style="32" min="12784" max="12784"/>
+    <col width="13.6640625" customWidth="1" style="32" min="12785" max="12785"/>
+    <col width="13.5" customWidth="1" style="32" min="12786" max="12786"/>
+    <col width="8.6640625" customWidth="1" style="32" min="12787" max="13033"/>
     <col width="5" customWidth="1" style="32" min="13034" max="13034"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13035" max="13035"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13036" max="13036"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13037" max="13037"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13038" max="13038"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13035" max="13035"/>
+    <col width="6.5" customWidth="1" style="32" min="13036" max="13036"/>
+    <col width="29.5" customWidth="1" style="32" min="13037" max="13037"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13038" max="13038"/>
     <col width="8" customWidth="1" style="32" min="13039" max="13039"/>
-    <col width="9.140625" customWidth="1" style="32" min="13040" max="13040"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13041" max="13041"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13042" max="13042"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13043" max="13289"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13040" max="13040"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13041" max="13041"/>
+    <col width="13.5" customWidth="1" style="32" min="13042" max="13042"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13043" max="13289"/>
     <col width="5" customWidth="1" style="32" min="13290" max="13290"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13291" max="13291"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13292" max="13292"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13293" max="13293"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13294" max="13294"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13291" max="13291"/>
+    <col width="6.5" customWidth="1" style="32" min="13292" max="13292"/>
+    <col width="29.5" customWidth="1" style="32" min="13293" max="13293"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13294" max="13294"/>
     <col width="8" customWidth="1" style="32" min="13295" max="13295"/>
-    <col width="9.140625" customWidth="1" style="32" min="13296" max="13296"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13297" max="13297"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13298" max="13298"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13299" max="13545"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13296" max="13296"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13297" max="13297"/>
+    <col width="13.5" customWidth="1" style="32" min="13298" max="13298"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13299" max="13545"/>
     <col width="5" customWidth="1" style="32" min="13546" max="13546"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13547" max="13547"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13548" max="13548"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13549" max="13549"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13550" max="13550"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13547" max="13547"/>
+    <col width="6.5" customWidth="1" style="32" min="13548" max="13548"/>
+    <col width="29.5" customWidth="1" style="32" min="13549" max="13549"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13550" max="13550"/>
     <col width="8" customWidth="1" style="32" min="13551" max="13551"/>
-    <col width="9.140625" customWidth="1" style="32" min="13552" max="13552"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13553" max="13553"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13554" max="13554"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13555" max="13801"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13552" max="13552"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13553" max="13553"/>
+    <col width="13.5" customWidth="1" style="32" min="13554" max="13554"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13555" max="13801"/>
     <col width="5" customWidth="1" style="32" min="13802" max="13802"/>
-    <col width="33.28515625" customWidth="1" style="32" min="13803" max="13803"/>
-    <col width="6.42578125" customWidth="1" style="32" min="13804" max="13804"/>
-    <col width="29.42578125" customWidth="1" style="32" min="13805" max="13805"/>
-    <col width="23.7109375" customWidth="1" style="32" min="13806" max="13806"/>
+    <col width="33.33203125" customWidth="1" style="32" min="13803" max="13803"/>
+    <col width="6.5" customWidth="1" style="32" min="13804" max="13804"/>
+    <col width="29.5" customWidth="1" style="32" min="13805" max="13805"/>
+    <col width="23.6640625" customWidth="1" style="32" min="13806" max="13806"/>
     <col width="8" customWidth="1" style="32" min="13807" max="13807"/>
-    <col width="9.140625" customWidth="1" style="32" min="13808" max="13808"/>
-    <col width="13.7109375" customWidth="1" style="32" min="13809" max="13809"/>
-    <col width="13.42578125" customWidth="1" style="32" min="13810" max="13810"/>
-    <col width="8.7109375" customWidth="1" style="32" min="13811" max="14057"/>
+    <col width="9.1640625" customWidth="1" style="32" min="13808" max="13808"/>
+    <col width="13.6640625" customWidth="1" style="32" min="13809" max="13809"/>
+    <col width="13.5" customWidth="1" style="32" min="13810" max="13810"/>
+    <col width="8.6640625" customWidth="1" style="32" min="13811" max="14057"/>
     <col width="5" customWidth="1" style="32" min="14058" max="14058"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14059" max="14059"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14060" max="14060"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14061" max="14061"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14062" max="14062"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14059" max="14059"/>
+    <col width="6.5" customWidth="1" style="32" min="14060" max="14060"/>
+    <col width="29.5" customWidth="1" style="32" min="14061" max="14061"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14062" max="14062"/>
     <col width="8" customWidth="1" style="32" min="14063" max="14063"/>
-    <col width="9.140625" customWidth="1" style="32" min="14064" max="14064"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14065" max="14065"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14066" max="14066"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14067" max="14313"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14064" max="14064"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14065" max="14065"/>
+    <col width="13.5" customWidth="1" style="32" min="14066" max="14066"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14067" max="14313"/>
     <col width="5" customWidth="1" style="32" min="14314" max="14314"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14315" max="14315"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14316" max="14316"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14317" max="14317"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14318" max="14318"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14315" max="14315"/>
+    <col width="6.5" customWidth="1" style="32" min="14316" max="14316"/>
+    <col width="29.5" customWidth="1" style="32" min="14317" max="14317"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14318" max="14318"/>
     <col width="8" customWidth="1" style="32" min="14319" max="14319"/>
-    <col width="9.140625" customWidth="1" style="32" min="14320" max="14320"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14321" max="14321"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14322" max="14322"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14323" max="14569"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14320" max="14320"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14321" max="14321"/>
+    <col width="13.5" customWidth="1" style="32" min="14322" max="14322"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14323" max="14569"/>
     <col width="5" customWidth="1" style="32" min="14570" max="14570"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14571" max="14571"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14572" max="14572"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14573" max="14573"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14574" max="14574"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14571" max="14571"/>
+    <col width="6.5" customWidth="1" style="32" min="14572" max="14572"/>
+    <col width="29.5" customWidth="1" style="32" min="14573" max="14573"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14574" max="14574"/>
     <col width="8" customWidth="1" style="32" min="14575" max="14575"/>
-    <col width="9.140625" customWidth="1" style="32" min="14576" max="14576"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14577" max="14577"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14578" max="14578"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14579" max="14825"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14576" max="14576"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14577" max="14577"/>
+    <col width="13.5" customWidth="1" style="32" min="14578" max="14578"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14579" max="14825"/>
     <col width="5" customWidth="1" style="32" min="14826" max="14826"/>
-    <col width="33.28515625" customWidth="1" style="32" min="14827" max="14827"/>
-    <col width="6.42578125" customWidth="1" style="32" min="14828" max="14828"/>
-    <col width="29.42578125" customWidth="1" style="32" min="14829" max="14829"/>
-    <col width="23.7109375" customWidth="1" style="32" min="14830" max="14830"/>
+    <col width="33.33203125" customWidth="1" style="32" min="14827" max="14827"/>
+    <col width="6.5" customWidth="1" style="32" min="14828" max="14828"/>
+    <col width="29.5" customWidth="1" style="32" min="14829" max="14829"/>
+    <col width="23.6640625" customWidth="1" style="32" min="14830" max="14830"/>
     <col width="8" customWidth="1" style="32" min="14831" max="14831"/>
-    <col width="9.140625" customWidth="1" style="32" min="14832" max="14832"/>
-    <col width="13.7109375" customWidth="1" style="32" min="14833" max="14833"/>
-    <col width="13.42578125" customWidth="1" style="32" min="14834" max="14834"/>
-    <col width="8.7109375" customWidth="1" style="32" min="14835" max="15081"/>
+    <col width="9.1640625" customWidth="1" style="32" min="14832" max="14832"/>
+    <col width="13.6640625" customWidth="1" style="32" min="14833" max="14833"/>
+    <col width="13.5" customWidth="1" style="32" min="14834" max="14834"/>
+    <col width="8.6640625" customWidth="1" style="32" min="14835" max="15081"/>
     <col width="5" customWidth="1" style="32" min="15082" max="15082"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15083" max="15083"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15084" max="15084"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15085" max="15085"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15086" max="15086"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15083" max="15083"/>
+    <col width="6.5" customWidth="1" style="32" min="15084" max="15084"/>
+    <col width="29.5" customWidth="1" style="32" min="15085" max="15085"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15086" max="15086"/>
     <col width="8" customWidth="1" style="32" min="15087" max="15087"/>
-    <col width="9.140625" customWidth="1" style="32" min="15088" max="15088"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15089" max="15089"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15090" max="15090"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15091" max="15337"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15088" max="15088"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15089" max="15089"/>
+    <col width="13.5" customWidth="1" style="32" min="15090" max="15090"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15091" max="15337"/>
     <col width="5" customWidth="1" style="32" min="15338" max="15338"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15339" max="15339"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15340" max="15340"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15341" max="15341"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15342" max="15342"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15339" max="15339"/>
+    <col width="6.5" customWidth="1" style="32" min="15340" max="15340"/>
+    <col width="29.5" customWidth="1" style="32" min="15341" max="15341"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15342" max="15342"/>
     <col width="8" customWidth="1" style="32" min="15343" max="15343"/>
-    <col width="9.140625" customWidth="1" style="32" min="15344" max="15344"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15345" max="15345"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15346" max="15346"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15347" max="15593"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15344" max="15344"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15345" max="15345"/>
+    <col width="13.5" customWidth="1" style="32" min="15346" max="15346"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15347" max="15593"/>
     <col width="5" customWidth="1" style="32" min="15594" max="15594"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15595" max="15595"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15596" max="15596"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15597" max="15597"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15598" max="15598"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15595" max="15595"/>
+    <col width="6.5" customWidth="1" style="32" min="15596" max="15596"/>
+    <col width="29.5" customWidth="1" style="32" min="15597" max="15597"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15598" max="15598"/>
     <col width="8" customWidth="1" style="32" min="15599" max="15599"/>
-    <col width="9.140625" customWidth="1" style="32" min="15600" max="15600"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15601" max="15601"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15602" max="15602"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15603" max="15849"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15600" max="15600"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15601" max="15601"/>
+    <col width="13.5" customWidth="1" style="32" min="15602" max="15602"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15603" max="15849"/>
     <col width="5" customWidth="1" style="32" min="15850" max="15850"/>
-    <col width="33.28515625" customWidth="1" style="32" min="15851" max="15851"/>
-    <col width="6.42578125" customWidth="1" style="32" min="15852" max="15852"/>
-    <col width="29.42578125" customWidth="1" style="32" min="15853" max="15853"/>
-    <col width="23.7109375" customWidth="1" style="32" min="15854" max="15854"/>
+    <col width="33.33203125" customWidth="1" style="32" min="15851" max="15851"/>
+    <col width="6.5" customWidth="1" style="32" min="15852" max="15852"/>
+    <col width="29.5" customWidth="1" style="32" min="15853" max="15853"/>
+    <col width="23.6640625" customWidth="1" style="32" min="15854" max="15854"/>
     <col width="8" customWidth="1" style="32" min="15855" max="15855"/>
-    <col width="9.140625" customWidth="1" style="32" min="15856" max="15856"/>
-    <col width="13.7109375" customWidth="1" style="32" min="15857" max="15857"/>
-    <col width="13.42578125" customWidth="1" style="32" min="15858" max="15858"/>
-    <col width="8.7109375" customWidth="1" style="32" min="15859" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="32" min="15856" max="15856"/>
+    <col width="13.6640625" customWidth="1" style="32" min="15857" max="15857"/>
+    <col width="13.5" customWidth="1" style="32" min="15858" max="15858"/>
+    <col width="8.6640625" customWidth="1" style="32" min="15859" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="75" customFormat="1" customHeight="1" s="21">
       <c r="C1" s="21" t="n"/>
-      <c r="D1" s="179" t="inlineStr">
+      <c r="D1" s="136" t="inlineStr">
         <is>
           <t>KPI NĂM CỦA NHÂN VIÊN 
 NĂM 2020</t>
@@ -10992,24 +10992,24 @@
       </c>
     </row>
     <row r="2" ht="23.25" customFormat="1" customHeight="1" s="22">
-      <c r="B2" s="203" t="inlineStr">
+      <c r="B2" s="137" t="inlineStr">
         <is>
           <t>Họ và tên:</t>
         </is>
       </c>
-      <c r="D2" s="188" t="inlineStr">
+      <c r="D2" s="147" t="inlineStr">
         <is>
           <t>MAI ĐỨC MẠNH</t>
         </is>
       </c>
       <c r="E2" s="208" t="n"/>
       <c r="F2" s="208" t="n"/>
-      <c r="G2" s="201" t="inlineStr">
+      <c r="G2" s="132" t="inlineStr">
         <is>
           <t>Chức danh:</t>
         </is>
       </c>
-      <c r="J2" s="189" t="inlineStr">
+      <c r="J2" s="131" t="inlineStr">
         <is>
           <t>Bác sĩ</t>
         </is>
@@ -11018,24 +11018,24 @@
       <c r="L2" s="209" t="n"/>
     </row>
     <row r="3" ht="23.25" customFormat="1" customHeight="1" s="22">
-      <c r="B3" s="203" t="inlineStr">
+      <c r="B3" s="137" t="inlineStr">
         <is>
           <t>Mã nhân viên:</t>
         </is>
       </c>
-      <c r="D3" s="189" t="inlineStr">
+      <c r="D3" s="131" t="inlineStr">
         <is>
           <t>01466</t>
         </is>
       </c>
       <c r="E3" s="209" t="n"/>
       <c r="F3" s="209" t="n"/>
-      <c r="G3" s="202" t="inlineStr">
+      <c r="G3" s="134" t="inlineStr">
         <is>
           <t>Phòng ban/ Bộ phận:</t>
         </is>
       </c>
-      <c r="J3" s="189" t="inlineStr">
+      <c r="J3" s="131" t="inlineStr">
         <is>
           <t>Ngoại thần kinh</t>
         </is>
@@ -11056,7 +11056,7 @@
       <c r="K4" s="28" t="n"/>
       <c r="L4" s="27" t="n"/>
     </row>
-    <row r="5" ht="19.9" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
+    <row r="5" ht="20" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
       <c r="B5" s="77" t="inlineStr">
         <is>
           <t xml:space="preserve">I </t>
@@ -11074,7 +11074,7 @@
       <c r="H5" s="66" t="n"/>
       <c r="I5" s="66" t="n"/>
       <c r="J5" s="65" t="n"/>
-      <c r="K5" s="151" t="n"/>
+      <c r="K5" s="130" t="n"/>
       <c r="L5" s="78">
         <f>L7+L8</f>
         <v/>
@@ -11086,7 +11086,7 @@
           <t>Stt</t>
         </is>
       </c>
-      <c r="C6" s="183" t="inlineStr">
+      <c r="C6" s="142" t="inlineStr">
         <is>
           <t>Nội dung</t>
         </is>
@@ -11094,12 +11094,12 @@
       <c r="D6" s="210" t="n"/>
       <c r="E6" s="210" t="n"/>
       <c r="F6" s="210" t="n"/>
-      <c r="G6" s="172" t="inlineStr">
+      <c r="G6" s="148" t="inlineStr">
         <is>
           <t>Trọng số</t>
         </is>
       </c>
-      <c r="H6" s="183" t="inlineStr">
+      <c r="H6" s="142" t="inlineStr">
         <is>
           <t>Kế hoạch</t>
         </is>
@@ -11109,12 +11109,12 @@
           <t>Thực hiện</t>
         </is>
       </c>
-      <c r="J6" s="183" t="inlineStr">
+      <c r="J6" s="142" t="inlineStr">
         <is>
           <t>Hoàn thành</t>
         </is>
       </c>
-      <c r="K6" s="183" t="inlineStr">
+      <c r="K6" s="142" t="inlineStr">
         <is>
           <t>Ghi chú</t>
         </is>
@@ -11125,7 +11125,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="19.9" customHeight="1">
+    <row r="7" ht="20" customHeight="1">
       <c r="B7" s="81" t="n">
         <v>1</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="74" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="J7" s="41">
         <f>I7/H7</f>
@@ -11156,7 +11156,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="19.9" customHeight="1" thickBot="1">
+    <row r="8" ht="20" customHeight="1" thickBot="1">
       <c r="B8" s="83" t="n">
         <v>2</v>
       </c>
@@ -11202,10 +11202,10 @@
       <c r="E9" s="62" t="n"/>
       <c r="F9" s="64" t="n"/>
       <c r="G9" s="62" t="n"/>
-      <c r="H9" s="151" t="n"/>
+      <c r="H9" s="130" t="n"/>
       <c r="I9" s="217" t="n"/>
       <c r="J9" s="65" t="n"/>
-      <c r="K9" s="151" t="n"/>
+      <c r="K9" s="130" t="n"/>
       <c r="L9" s="85">
         <f>SUM(L10:L12)</f>
         <v/>
@@ -11227,7 +11227,7 @@
           <t>Trọng số</t>
         </is>
       </c>
-      <c r="E10" s="183" t="inlineStr">
+      <c r="E10" s="142" t="inlineStr">
         <is>
           <t>Tiêu chí đánh giá</t>
         </is>
@@ -11326,7 +11326,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="19.9" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
+    <row r="13" ht="20" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
       <c r="B13" s="77" t="inlineStr">
         <is>
           <t>III</t>
@@ -11341,22 +11341,22 @@
       <c r="E13" s="100" t="n"/>
       <c r="F13" s="99" t="n"/>
       <c r="G13" s="100" t="n"/>
-      <c r="H13" s="151" t="n"/>
+      <c r="H13" s="130" t="n"/>
       <c r="I13" s="217" t="n"/>
       <c r="J13" s="65" t="n"/>
-      <c r="K13" s="151" t="n"/>
+      <c r="K13" s="130" t="n"/>
       <c r="L13" s="78">
         <f>SUM(L15:L22)</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="25.9" customFormat="1" customHeight="1" s="34" thickTop="1">
+    <row r="14" ht="26" customFormat="1" customHeight="1" s="34" thickTop="1">
       <c r="B14" s="88" t="inlineStr">
         <is>
           <t>Stt</t>
         </is>
       </c>
-      <c r="C14" s="172" t="inlineStr">
+      <c r="C14" s="148" t="inlineStr">
         <is>
           <t xml:space="preserve">               Các tiêu chí mong đợi</t>
         </is>
@@ -11364,7 +11364,7 @@
       <c r="D14" s="222" t="n"/>
       <c r="E14" s="222" t="n"/>
       <c r="F14" s="222" t="n"/>
-      <c r="G14" s="172" t="inlineStr">
+      <c r="G14" s="148" t="inlineStr">
         <is>
           <t>Cần cải thiện</t>
         </is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="15" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B15" s="90" t="n">
         <v>1</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="16" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B16" s="91">
         <f>B15+1</f>
         <v/>
@@ -11462,7 +11462,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="17" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B17" s="91">
         <f>B16+1</f>
         <v/>
@@ -11494,7 +11494,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="18" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B18" s="91">
         <f>B17+1</f>
         <v/>
@@ -11526,7 +11526,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="19" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B19" s="91">
         <f>B18+1</f>
         <v/>
@@ -11558,7 +11558,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="20" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B20" s="91">
         <f>B19+1</f>
         <v/>
@@ -11590,7 +11590,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" ht="43.9" customFormat="1" customHeight="1" s="36">
+    <row r="21" ht="44" customFormat="1" customHeight="1" s="36">
       <c r="B21" s="91">
         <f>B20+1</f>
         <v/>
@@ -11622,7 +11622,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" ht="43.9" customFormat="1" customHeight="1" s="36" thickBot="1">
+    <row r="22" ht="44" customFormat="1" customHeight="1" s="36" thickBot="1">
       <c r="B22" s="92">
         <f>B21+1</f>
         <v/>
@@ -11654,7 +11654,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" ht="19.9" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
+    <row r="23" ht="20" customFormat="1" customHeight="1" s="60" thickBot="1" thickTop="1">
       <c r="B23" s="77" t="inlineStr">
         <is>
           <t>IV</t>
@@ -11669,10 +11669,10 @@
       <c r="E23" s="62" t="n"/>
       <c r="F23" s="64" t="n"/>
       <c r="G23" s="62" t="n"/>
-      <c r="H23" s="151" t="n"/>
+      <c r="H23" s="130" t="n"/>
       <c r="I23" s="217" t="n"/>
       <c r="J23" s="65" t="n"/>
-      <c r="K23" s="151" t="n"/>
+      <c r="K23" s="130" t="n"/>
       <c r="L23" s="93">
         <f>SUM(I25:I27)</f>
         <v/>
@@ -11684,7 +11684,7 @@
           <t>Stt</t>
         </is>
       </c>
-      <c r="C24" s="154" t="inlineStr">
+      <c r="C24" s="192" t="inlineStr">
         <is>
           <t>Nội dung</t>
         </is>
@@ -11692,7 +11692,7 @@
       <c r="D24" s="222" t="n"/>
       <c r="E24" s="222" t="n"/>
       <c r="F24" s="222" t="n"/>
-      <c r="G24" s="172" t="inlineStr">
+      <c r="G24" s="148" t="inlineStr">
         <is>
           <t>Tổng điểm</t>
         </is>
@@ -11707,7 +11707,7 @@
           <t>Kết quả KPI</t>
         </is>
       </c>
-      <c r="J24" s="153" t="inlineStr">
+      <c r="J24" s="191" t="inlineStr">
         <is>
           <t>Danh hiệu</t>
         </is>
@@ -11715,7 +11715,7 @@
       <c r="K24" s="232" t="n"/>
       <c r="L24" s="233" t="n"/>
     </row>
-    <row r="25" ht="19.9" customFormat="1" customHeight="1" s="36" thickTop="1">
+    <row r="25" ht="20" customFormat="1" customHeight="1" s="36" thickTop="1">
       <c r="B25" s="90" t="n">
         <v>1</v>
       </c>
@@ -11745,7 +11745,7 @@
       <c r="K25" s="236" t="n"/>
       <c r="L25" s="237" t="n"/>
     </row>
-    <row r="26" ht="19.9" customFormat="1" customHeight="1" s="36">
+    <row r="26" ht="20" customFormat="1" customHeight="1" s="36">
       <c r="B26" s="91">
         <f>B25+1</f>
         <v/>
@@ -11772,7 +11772,7 @@
       <c r="J26" s="239" t="n"/>
       <c r="L26" s="240" t="n"/>
     </row>
-    <row r="27" ht="19.9" customFormat="1" customHeight="1" s="36" thickBot="1">
+    <row r="27" ht="20" customFormat="1" customHeight="1" s="36" thickBot="1">
       <c r="B27" s="92">
         <f>B26+1</f>
         <v/>
@@ -11800,7 +11800,7 @@
       <c r="K27" s="232" t="n"/>
       <c r="L27" s="233" t="n"/>
     </row>
-    <row r="28" ht="19.9" customFormat="1" customHeight="1" s="60" thickTop="1">
+    <row r="28" ht="20" customFormat="1" customHeight="1" s="60" thickTop="1">
       <c r="B28" s="94" t="inlineStr">
         <is>
           <t>V</t>
@@ -11821,7 +11821,7 @@
       <c r="K28" s="68" t="n"/>
       <c r="L28" s="95" t="n"/>
     </row>
-    <row r="29" ht="76.90000000000001" customFormat="1" customHeight="1" s="44">
+    <row r="29" ht="77" customFormat="1" customHeight="1" s="44">
       <c r="B29" s="96" t="n">
         <v>1</v>
       </c>
@@ -11844,7 +11844,7 @@
       <c r="K29" s="247" t="n"/>
       <c r="L29" s="248" t="n"/>
     </row>
-    <row r="30" ht="79.15000000000001" customFormat="1" customHeight="1" s="44">
+    <row r="30" ht="79.25" customFormat="1" customHeight="1" s="44">
       <c r="B30" s="97" t="n">
         <v>2</v>
       </c>
@@ -11992,27 +11992,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="J25:L27"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="I38:L38"/>
     <mergeCell ref="C32:E32"/>
@@ -12023,15 +12011,27 @@
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="G30:L30"/>
     <mergeCell ref="G29:L29"/>
-    <mergeCell ref="J25:L27"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.15748031496063" top="0.29" bottom="0.17" header="0.18" footer="0.22"/>
